--- a/Fundamentacao/gantt_previsao.xlsx
+++ b/Fundamentacao/gantt_previsao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joao/Desktop/Desktop_iCloud/Universidade/3ºano/2ºsemestre/LI4/MyChef/Fundamentacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7BDE3F-5324-C747-9D0D-86861385DC45}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4FA7C5-AD93-B042-A19B-3E42D03D2B65}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="TermsOfUse" sheetId="11" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">GanttChartPro!$A$1:$C$47</definedName>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
@@ -33,6 +33,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -443,7 +444,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="J7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -481,7 +482,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="181">
   <si>
     <t>WBS</t>
   </si>
@@ -499,12 +500,6 @@
   </si>
   <si>
     <t>Creating Task Dependencies</t>
-  </si>
-  <si>
-    <t>[Task Category]</t>
-  </si>
-  <si>
-    <t>[Task]</t>
   </si>
   <si>
     <t>Changing the Color of the Bars in the Gantt Chart</t>
@@ -759,9 +754,6 @@
   </si>
   <si>
     <t>% DONE</t>
-  </si>
-  <si>
-    <t>WORK DAYS</t>
   </si>
   <si>
     <t>PREDECESSOR</t>
@@ -1538,12 +1530,6 @@
     <t>João</t>
   </si>
   <si>
-    <t>Justificação do sistema</t>
-  </si>
-  <si>
-    <t>Utilidade do sistema</t>
-  </si>
-  <si>
     <t>Estabelecimento da identidade do projeto</t>
   </si>
   <si>
@@ -1583,13 +1569,100 @@
     <t>MieiMasters</t>
   </si>
   <si>
-    <t>MyChef - Feel the Italian</t>
-  </si>
-  <si>
     <t>HOURS</t>
   </si>
   <si>
     <t>Especificação</t>
+  </si>
+  <si>
+    <t>Justificação, validação e utilidade do sistema</t>
+  </si>
+  <si>
+    <t>Braga, Milhazes</t>
+  </si>
+  <si>
+    <t>Análise de Requisitos</t>
+  </si>
+  <si>
+    <t>Diagrama de Use Cases</t>
+  </si>
+  <si>
+    <t>Especificação de Use Cases</t>
+  </si>
+  <si>
+    <t>Diagrama de Sequência</t>
+  </si>
+  <si>
+    <t>Diagrama de Classe</t>
+  </si>
+  <si>
+    <t>Implementação de Base de Dados</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>Prótotipo de Interface</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>Revisão e Correção</t>
+  </si>
+  <si>
+    <t>Geração de Documentação</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>Construção</t>
+  </si>
+  <si>
+    <t>Definição da Arquitetura do Sistema</t>
+  </si>
+  <si>
+    <t>Descrição dos módulos</t>
+  </si>
+  <si>
+    <t>Implementação da Plataforma Web</t>
+  </si>
+  <si>
+    <t>Adapatação da plataforma Web para Mobile</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>Implementação do GPS</t>
+  </si>
+  <si>
+    <t>Testes</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>Verificação e Correção do Software</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>Implementação do Reconhcimento de Voz</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>FeelItaly</t>
   </si>
 </sst>
 </file>
@@ -1602,7 +1675,7 @@
     <numFmt numFmtId="166" formatCode="d"/>
     <numFmt numFmtId="167" formatCode="d\ mmm\ yyyy"/>
   </numFmts>
-  <fonts count="90">
+  <fonts count="91">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2203,6 +2276,11 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Arial (corpo)"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Arial (corpo)"/>
     </font>
   </fonts>
@@ -2846,26 +2924,6 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
         <color theme="0" tint="-4.9989318521683403E-2"/>
       </top>
       <bottom/>
@@ -2907,17 +2965,6 @@
       <right/>
       <top style="thin">
         <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
       </top>
       <bottom style="thin">
         <color theme="0" tint="-4.9989318521683403E-2"/>
@@ -2991,12 +3038,32 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFEFEFEF"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color theme="0" tint="-4.9989318521683403E-2"/>
       </right>
       <top style="thin">
-        <color indexed="22"/>
+        <color rgb="FFEFEFEF"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="22"/>
       </bottom>
@@ -3008,6 +3075,13 @@
       <top style="thin">
         <color rgb="FFEFEFEF"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color theme="0" tint="-4.9989318521683403E-2"/>
       </bottom>
@@ -3063,7 +3137,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="247">
+  <cellXfs count="261">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -3385,9 +3459,6 @@
     <xf numFmtId="1" fontId="60" fillId="20" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="60" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="62" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="63" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -3555,67 +3626,85 @@
     <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="40" fillId="22" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="40" fillId="22" borderId="44" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="56" fillId="20" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="61" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="59" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="61" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="59" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="59" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="40" fillId="22" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="59" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="40" fillId="22" borderId="50" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="61" fillId="22" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="61" fillId="22" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="61" fillId="22" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="61" fillId="22" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="61" fillId="22" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="60" fillId="20" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="59" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="51" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="84" fillId="24" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -3624,16 +3713,10 @@
     <xf numFmtId="0" fontId="70" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="70" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="51" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="51" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3681,56 +3764,89 @@
     <xf numFmtId="167" fontId="51" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="59" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="57" fillId="21" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="56" fillId="20" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="57" fillId="20" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="57" fillId="20" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="57" fillId="21" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="40" fillId="22" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="57" fillId="21" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="40" fillId="22" borderId="57" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="57" fillId="21" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="40" fillId="22" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="40" fillId="22" borderId="53" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="40" fillId="22" borderId="45" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="40" fillId="22" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="90" fillId="22" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="40" fillId="22" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="40" fillId="22" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="40" fillId="22" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="37" fillId="20" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="40" fillId="22" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="40" fillId="22" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="40" fillId="22" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="37" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -3917,10 +4033,10 @@
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>75142</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4560,11 +4676,11 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:ET47"/>
+  <dimension ref="A1:ET48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="BP7" sqref="BP7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -4576,22 +4692,22 @@
     <col min="5" max="6" width="12" style="33" customWidth="1"/>
     <col min="7" max="7" width="6" style="33" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" style="33" customWidth="1"/>
-    <col min="9" max="9" width="5.83203125" style="33" customWidth="1"/>
+    <col min="9" max="9" width="2.5" style="33" customWidth="1"/>
     <col min="10" max="10" width="5.6640625" style="33" customWidth="1"/>
     <col min="11" max="66" width="2.5" style="33" customWidth="1"/>
     <col min="67" max="16384" width="9.1640625" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:150" s="66" customFormat="1" ht="33" customHeight="1">
-      <c r="A1" s="154" t="s">
-        <v>154</v>
+      <c r="A1" s="153" t="s">
+        <v>180</v>
       </c>
       <c r="B1" s="63"/>
       <c r="C1" s="63"/>
       <c r="D1" s="63"/>
       <c r="E1" s="63"/>
       <c r="F1" s="63"/>
-      <c r="G1" s="182"/>
+      <c r="G1" s="181"/>
       <c r="H1" s="64"/>
       <c r="I1" s="64"/>
       <c r="J1" s="64"/>
@@ -4614,21 +4730,21 @@
       <c r="AA1" s="64"/>
       <c r="AB1" s="64"/>
       <c r="AC1" s="64"/>
-      <c r="AD1" s="210"/>
-      <c r="AE1" s="210"/>
-      <c r="AF1" s="210"/>
-      <c r="AG1" s="210"/>
-      <c r="AH1" s="210"/>
-      <c r="AI1" s="210"/>
-      <c r="AJ1" s="210"/>
-      <c r="AK1" s="210"/>
-      <c r="AL1" s="210"/>
-      <c r="AM1" s="210"/>
-      <c r="AN1" s="210"/>
-      <c r="AO1" s="210"/>
-      <c r="AP1" s="210"/>
-      <c r="AQ1" s="210"/>
-      <c r="AR1" s="210"/>
+      <c r="AD1" s="215"/>
+      <c r="AE1" s="215"/>
+      <c r="AF1" s="215"/>
+      <c r="AG1" s="215"/>
+      <c r="AH1" s="215"/>
+      <c r="AI1" s="215"/>
+      <c r="AJ1" s="215"/>
+      <c r="AK1" s="215"/>
+      <c r="AL1" s="215"/>
+      <c r="AM1" s="215"/>
+      <c r="AN1" s="215"/>
+      <c r="AO1" s="215"/>
+      <c r="AP1" s="215"/>
+      <c r="AQ1" s="215"/>
+      <c r="AR1" s="215"/>
       <c r="AS1" s="64"/>
       <c r="AT1" s="64"/>
       <c r="AU1" s="64"/>
@@ -4653,8 +4769,8 @@
       <c r="BN1" s="64"/>
     </row>
     <row r="2" spans="1:150" s="88" customFormat="1" ht="21" customHeight="1">
-      <c r="A2" s="148" t="s">
-        <v>153</v>
+      <c r="A2" s="147" t="s">
+        <v>148</v>
       </c>
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
@@ -4662,260 +4778,260 @@
       <c r="E2" s="86"/>
       <c r="F2" s="87"/>
     </row>
-    <row r="3" spans="1:150" s="132" customFormat="1" ht="6.75" customHeight="1" thickBot="1">
-      <c r="A3" s="127"/>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="131"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="152"/>
-      <c r="N3" s="152"/>
-      <c r="O3" s="152"/>
-      <c r="P3" s="152"/>
-      <c r="Q3" s="153"/>
-      <c r="R3" s="151"/>
-      <c r="S3" s="152"/>
-      <c r="T3" s="152"/>
-      <c r="U3" s="152"/>
-      <c r="V3" s="152"/>
-      <c r="W3" s="152"/>
-      <c r="X3" s="153"/>
-      <c r="Y3" s="151"/>
-      <c r="Z3" s="152"/>
-      <c r="AA3" s="152"/>
-      <c r="AB3" s="152"/>
-      <c r="AC3" s="152"/>
-      <c r="AD3" s="152"/>
-      <c r="AE3" s="153"/>
-      <c r="AF3" s="151"/>
-      <c r="AG3" s="152"/>
-      <c r="AH3" s="152"/>
-      <c r="AI3" s="152"/>
-      <c r="AJ3" s="152"/>
-      <c r="AK3" s="152"/>
-      <c r="AL3" s="153"/>
-      <c r="AM3" s="151"/>
-      <c r="AN3" s="152"/>
-      <c r="AO3" s="152"/>
-      <c r="AP3" s="152"/>
-      <c r="AQ3" s="152"/>
-      <c r="AR3" s="152"/>
-      <c r="AS3" s="153"/>
-      <c r="AT3" s="151"/>
-      <c r="AU3" s="152"/>
-      <c r="AV3" s="152"/>
-      <c r="AW3" s="152"/>
-      <c r="AX3" s="152"/>
-      <c r="AY3" s="152"/>
-      <c r="AZ3" s="153"/>
-      <c r="BA3" s="151"/>
-      <c r="BB3" s="152"/>
-      <c r="BC3" s="152"/>
-      <c r="BD3" s="152"/>
-      <c r="BE3" s="152"/>
-      <c r="BF3" s="152"/>
-      <c r="BG3" s="153"/>
-      <c r="BH3" s="151"/>
-      <c r="BI3" s="152"/>
-      <c r="BJ3" s="152"/>
-      <c r="BK3" s="152"/>
-      <c r="BL3" s="152"/>
-      <c r="BM3" s="152"/>
-      <c r="BN3" s="153"/>
-    </row>
-    <row r="4" spans="1:150" s="144" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A4" s="146"/>
-      <c r="B4" s="149" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" s="219">
+    <row r="3" spans="1:150" s="131" customFormat="1" ht="6.75" customHeight="1" thickBot="1">
+      <c r="A3" s="126"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="130"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
+      <c r="N3" s="151"/>
+      <c r="O3" s="151"/>
+      <c r="P3" s="151"/>
+      <c r="Q3" s="152"/>
+      <c r="R3" s="150"/>
+      <c r="S3" s="151"/>
+      <c r="T3" s="151"/>
+      <c r="U3" s="151"/>
+      <c r="V3" s="151"/>
+      <c r="W3" s="151"/>
+      <c r="X3" s="152"/>
+      <c r="Y3" s="150"/>
+      <c r="Z3" s="151"/>
+      <c r="AA3" s="151"/>
+      <c r="AB3" s="151"/>
+      <c r="AC3" s="151"/>
+      <c r="AD3" s="151"/>
+      <c r="AE3" s="152"/>
+      <c r="AF3" s="150"/>
+      <c r="AG3" s="151"/>
+      <c r="AH3" s="151"/>
+      <c r="AI3" s="151"/>
+      <c r="AJ3" s="151"/>
+      <c r="AK3" s="151"/>
+      <c r="AL3" s="152"/>
+      <c r="AM3" s="150"/>
+      <c r="AN3" s="151"/>
+      <c r="AO3" s="151"/>
+      <c r="AP3" s="151"/>
+      <c r="AQ3" s="151"/>
+      <c r="AR3" s="151"/>
+      <c r="AS3" s="152"/>
+      <c r="AT3" s="150"/>
+      <c r="AU3" s="151"/>
+      <c r="AV3" s="151"/>
+      <c r="AW3" s="151"/>
+      <c r="AX3" s="151"/>
+      <c r="AY3" s="151"/>
+      <c r="AZ3" s="152"/>
+      <c r="BA3" s="150"/>
+      <c r="BB3" s="151"/>
+      <c r="BC3" s="151"/>
+      <c r="BD3" s="151"/>
+      <c r="BE3" s="151"/>
+      <c r="BF3" s="151"/>
+      <c r="BG3" s="152"/>
+      <c r="BH3" s="150"/>
+      <c r="BI3" s="151"/>
+      <c r="BJ3" s="151"/>
+      <c r="BK3" s="151"/>
+      <c r="BL3" s="151"/>
+      <c r="BM3" s="151"/>
+      <c r="BN3" s="152"/>
+    </row>
+    <row r="4" spans="1:150" s="143" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A4" s="145"/>
+      <c r="B4" s="148" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="222">
         <v>43507</v>
       </c>
-      <c r="D4" s="220"/>
-      <c r="E4" s="221"/>
-      <c r="H4" s="149" t="s">
-        <v>74</v>
-      </c>
-      <c r="I4" s="150">
+      <c r="D4" s="223"/>
+      <c r="E4" s="224"/>
+      <c r="H4" s="148" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="149">
         <v>1</v>
       </c>
-      <c r="K4" s="217" t="str">
+      <c r="K4" s="220" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="212"/>
-      <c r="M4" s="212"/>
-      <c r="N4" s="212"/>
-      <c r="O4" s="212"/>
-      <c r="P4" s="212"/>
-      <c r="Q4" s="222"/>
-      <c r="R4" s="217" t="str">
+      <c r="L4" s="198"/>
+      <c r="M4" s="198"/>
+      <c r="N4" s="198"/>
+      <c r="O4" s="198"/>
+      <c r="P4" s="198"/>
+      <c r="Q4" s="225"/>
+      <c r="R4" s="220" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="212"/>
-      <c r="T4" s="212"/>
-      <c r="U4" s="212"/>
-      <c r="V4" s="212"/>
-      <c r="W4" s="212"/>
-      <c r="X4" s="218"/>
-      <c r="Y4" s="226" t="str">
+      <c r="S4" s="198"/>
+      <c r="T4" s="198"/>
+      <c r="U4" s="198"/>
+      <c r="V4" s="198"/>
+      <c r="W4" s="198"/>
+      <c r="X4" s="221"/>
+      <c r="Y4" s="229" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="212"/>
-      <c r="AA4" s="212"/>
-      <c r="AB4" s="212"/>
-      <c r="AC4" s="212"/>
-      <c r="AD4" s="212"/>
-      <c r="AE4" s="227"/>
-      <c r="AF4" s="211" t="str">
+      <c r="Z4" s="198"/>
+      <c r="AA4" s="198"/>
+      <c r="AB4" s="198"/>
+      <c r="AC4" s="198"/>
+      <c r="AD4" s="198"/>
+      <c r="AE4" s="230"/>
+      <c r="AF4" s="216" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="212"/>
-      <c r="AH4" s="212"/>
-      <c r="AI4" s="212"/>
-      <c r="AJ4" s="212"/>
-      <c r="AK4" s="212"/>
-      <c r="AL4" s="213"/>
-      <c r="AM4" s="240" t="str">
+      <c r="AG4" s="198"/>
+      <c r="AH4" s="198"/>
+      <c r="AI4" s="198"/>
+      <c r="AJ4" s="198"/>
+      <c r="AK4" s="198"/>
+      <c r="AL4" s="217"/>
+      <c r="AM4" s="209" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="212"/>
-      <c r="AO4" s="212"/>
-      <c r="AP4" s="212"/>
-      <c r="AQ4" s="212"/>
-      <c r="AR4" s="212"/>
-      <c r="AS4" s="241"/>
-      <c r="AT4" s="236" t="str">
+      <c r="AN4" s="198"/>
+      <c r="AO4" s="198"/>
+      <c r="AP4" s="198"/>
+      <c r="AQ4" s="198"/>
+      <c r="AR4" s="198"/>
+      <c r="AS4" s="210"/>
+      <c r="AT4" s="205" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="212"/>
-      <c r="AV4" s="212"/>
-      <c r="AW4" s="212"/>
-      <c r="AX4" s="212"/>
-      <c r="AY4" s="212"/>
-      <c r="AZ4" s="237"/>
-      <c r="BA4" s="242" t="str">
+      <c r="AU4" s="198"/>
+      <c r="AV4" s="198"/>
+      <c r="AW4" s="198"/>
+      <c r="AX4" s="198"/>
+      <c r="AY4" s="198"/>
+      <c r="AZ4" s="206"/>
+      <c r="BA4" s="211" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="212"/>
-      <c r="BC4" s="212"/>
-      <c r="BD4" s="212"/>
-      <c r="BE4" s="212"/>
-      <c r="BF4" s="212"/>
-      <c r="BG4" s="243"/>
-      <c r="BH4" s="230" t="str">
+      <c r="BB4" s="198"/>
+      <c r="BC4" s="198"/>
+      <c r="BD4" s="198"/>
+      <c r="BE4" s="198"/>
+      <c r="BF4" s="198"/>
+      <c r="BG4" s="212"/>
+      <c r="BH4" s="197" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="212"/>
-      <c r="BJ4" s="212"/>
-      <c r="BK4" s="212"/>
-      <c r="BL4" s="212"/>
-      <c r="BM4" s="212"/>
-      <c r="BN4" s="231"/>
+      <c r="BI4" s="198"/>
+      <c r="BJ4" s="198"/>
+      <c r="BK4" s="198"/>
+      <c r="BL4" s="198"/>
+      <c r="BM4" s="198"/>
+      <c r="BN4" s="199"/>
     </row>
     <row r="5" spans="1:150" s="83" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A5" s="147"/>
-      <c r="B5" s="149" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="219"/>
-      <c r="D5" s="220"/>
-      <c r="E5" s="221"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
+      <c r="A5" s="146"/>
+      <c r="B5" s="148" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="222"/>
+      <c r="D5" s="223"/>
+      <c r="E5" s="224"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
       <c r="J5" s="82"/>
-      <c r="K5" s="223">
+      <c r="K5" s="226">
         <f>K6</f>
         <v>43507</v>
       </c>
-      <c r="L5" s="215"/>
-      <c r="M5" s="215"/>
-      <c r="N5" s="215"/>
-      <c r="O5" s="215"/>
-      <c r="P5" s="215"/>
-      <c r="Q5" s="225"/>
-      <c r="R5" s="223">
+      <c r="L5" s="201"/>
+      <c r="M5" s="201"/>
+      <c r="N5" s="201"/>
+      <c r="O5" s="201"/>
+      <c r="P5" s="201"/>
+      <c r="Q5" s="228"/>
+      <c r="R5" s="226">
         <f>R6</f>
         <v>43514</v>
       </c>
-      <c r="S5" s="215"/>
-      <c r="T5" s="215"/>
-      <c r="U5" s="215"/>
-      <c r="V5" s="215"/>
-      <c r="W5" s="215"/>
-      <c r="X5" s="224"/>
-      <c r="Y5" s="228">
+      <c r="S5" s="201"/>
+      <c r="T5" s="201"/>
+      <c r="U5" s="201"/>
+      <c r="V5" s="201"/>
+      <c r="W5" s="201"/>
+      <c r="X5" s="227"/>
+      <c r="Y5" s="231">
         <f>Y6</f>
         <v>43521</v>
       </c>
-      <c r="Z5" s="215"/>
-      <c r="AA5" s="215"/>
-      <c r="AB5" s="215"/>
-      <c r="AC5" s="215"/>
-      <c r="AD5" s="215"/>
-      <c r="AE5" s="229"/>
-      <c r="AF5" s="214">
+      <c r="Z5" s="201"/>
+      <c r="AA5" s="201"/>
+      <c r="AB5" s="201"/>
+      <c r="AC5" s="201"/>
+      <c r="AD5" s="201"/>
+      <c r="AE5" s="232"/>
+      <c r="AF5" s="218">
         <f>AF6</f>
         <v>43528</v>
       </c>
-      <c r="AG5" s="215"/>
-      <c r="AH5" s="215"/>
-      <c r="AI5" s="215"/>
-      <c r="AJ5" s="215"/>
-      <c r="AK5" s="215"/>
-      <c r="AL5" s="216"/>
-      <c r="AM5" s="234">
+      <c r="AG5" s="201"/>
+      <c r="AH5" s="201"/>
+      <c r="AI5" s="201"/>
+      <c r="AJ5" s="201"/>
+      <c r="AK5" s="201"/>
+      <c r="AL5" s="219"/>
+      <c r="AM5" s="203">
         <f>AM6</f>
         <v>43535</v>
       </c>
-      <c r="AN5" s="215"/>
-      <c r="AO5" s="215"/>
-      <c r="AP5" s="215"/>
-      <c r="AQ5" s="215"/>
-      <c r="AR5" s="215"/>
-      <c r="AS5" s="235"/>
-      <c r="AT5" s="238">
+      <c r="AN5" s="201"/>
+      <c r="AO5" s="201"/>
+      <c r="AP5" s="201"/>
+      <c r="AQ5" s="201"/>
+      <c r="AR5" s="201"/>
+      <c r="AS5" s="204"/>
+      <c r="AT5" s="207">
         <f>AT6</f>
         <v>43542</v>
       </c>
-      <c r="AU5" s="215"/>
-      <c r="AV5" s="215"/>
-      <c r="AW5" s="215"/>
-      <c r="AX5" s="215"/>
-      <c r="AY5" s="215"/>
-      <c r="AZ5" s="239"/>
-      <c r="BA5" s="244">
+      <c r="AU5" s="201"/>
+      <c r="AV5" s="201"/>
+      <c r="AW5" s="201"/>
+      <c r="AX5" s="201"/>
+      <c r="AY5" s="201"/>
+      <c r="AZ5" s="208"/>
+      <c r="BA5" s="213">
         <f>BA6</f>
         <v>43549</v>
       </c>
-      <c r="BB5" s="215"/>
-      <c r="BC5" s="215"/>
-      <c r="BD5" s="215"/>
-      <c r="BE5" s="215"/>
-      <c r="BF5" s="215"/>
-      <c r="BG5" s="245"/>
-      <c r="BH5" s="232">
+      <c r="BB5" s="201"/>
+      <c r="BC5" s="201"/>
+      <c r="BD5" s="201"/>
+      <c r="BE5" s="201"/>
+      <c r="BF5" s="201"/>
+      <c r="BG5" s="214"/>
+      <c r="BH5" s="200">
         <f>BH6</f>
         <v>43556</v>
       </c>
-      <c r="BI5" s="215"/>
-      <c r="BJ5" s="215"/>
-      <c r="BK5" s="215"/>
-      <c r="BL5" s="215"/>
-      <c r="BM5" s="215"/>
-      <c r="BN5" s="233"/>
+      <c r="BI5" s="201"/>
+      <c r="BJ5" s="201"/>
+      <c r="BK5" s="201"/>
+      <c r="BL5" s="201"/>
+      <c r="BM5" s="201"/>
+      <c r="BN5" s="202"/>
     </row>
     <row r="6" spans="1:150" s="81" customFormat="1" ht="14.25" customHeight="1">
       <c r="A6" s="77"/>
@@ -5158,31 +5274,29 @@
         <v>0</v>
       </c>
       <c r="B7" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="F7" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="72" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="73" t="s">
+      <c r="G7" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="73" t="s">
+      <c r="H7" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="I7" s="111" t="s">
-        <v>72</v>
-      </c>
+      <c r="I7" s="111"/>
       <c r="J7" s="111" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="K7" s="90" t="str">
         <f t="shared" ref="K7:AP7" si="5">CHOOSE(WEEKDAY(K6,1),"S","M","T","W","T","F","S")</f>
@@ -5499,14 +5613,14 @@
         <v>1</v>
       </c>
       <c r="B8" s="108" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D8" s="38"/>
       <c r="E8" s="39"/>
       <c r="F8" s="39"/>
       <c r="G8" s="40"/>
       <c r="H8" s="41"/>
-      <c r="I8" s="136"/>
+      <c r="I8" s="135"/>
       <c r="J8" s="123"/>
       <c r="K8" s="42"/>
       <c r="L8" s="42"/>
@@ -5565,34 +5679,35 @@
       <c r="BM8" s="42"/>
       <c r="BN8" s="42"/>
     </row>
-    <row r="9" spans="1:150" s="45" customFormat="1" ht="18">
+    <row r="9" spans="1:150" s="45" customFormat="1">
       <c r="A9" s="121" t="str">
-        <f t="shared" ref="A9:A15" si="8">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" ref="A9:A14" si="8">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
       </c>
       <c r="B9" s="117" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C9" s="118" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D9" s="119"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="112" t="str">
+      <c r="E9" s="116">
+        <v>43510</v>
+      </c>
+      <c r="F9" s="112">
         <f>IF(ISBLANK(E9)," - ",IF(G9=0,E9,E9+G9-1))</f>
-        <v xml:space="preserve"> - </v>
+        <v>43511</v>
       </c>
       <c r="G9" s="67">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H9" s="68">
         <v>0</v>
       </c>
-      <c r="I9" s="134">
-        <f>IF(OR(F9=0,E9=0),0,NETWORKDAYS(E9,F9))</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="202"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="252" t="s">
+        <v>179</v>
+      </c>
       <c r="K9" s="47"/>
       <c r="L9" s="47"/>
       <c r="M9" s="47"/>
@@ -5650,35 +5765,36 @@
       <c r="BM9" s="47"/>
       <c r="BN9" s="47"/>
     </row>
-    <row r="10" spans="1:150" s="45" customFormat="1" ht="18">
+    <row r="10" spans="1:150" s="45" customFormat="1">
       <c r="A10" s="121" t="str">
         <f t="shared" si="8"/>
         <v>1.2</v>
       </c>
       <c r="B10" s="117" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C10" s="118" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D10" s="119"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="112" t="str">
+      <c r="E10" s="116">
+        <v>43512</v>
+      </c>
+      <c r="F10" s="112">
         <f>IF(ISBLANK(E10)," - ",IF(G10=0,E10,E10+G10-1))</f>
-        <v xml:space="preserve"> - </v>
+        <v>43513</v>
       </c>
       <c r="G10" s="67">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H10" s="68">
         <v>0</v>
       </c>
-      <c r="I10" s="134">
-        <f t="shared" ref="I10:I18" si="9">IF(OR(F10=0,E10=0),0,NETWORKDAYS(E10,F10))</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="192"/>
-      <c r="K10" s="203"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="K10" s="195"/>
       <c r="L10" s="47"/>
       <c r="M10" s="47"/>
       <c r="N10" s="47"/>
@@ -5735,35 +5851,36 @@
       <c r="BM10" s="47"/>
       <c r="BN10" s="47"/>
     </row>
-    <row r="11" spans="1:150" s="45" customFormat="1" ht="18">
+    <row r="11" spans="1:150" s="45" customFormat="1" ht="26">
       <c r="A11" s="121" t="str">
         <f t="shared" si="8"/>
         <v>1.3</v>
       </c>
       <c r="B11" s="117" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="C11" s="118" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="D11" s="119"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="112" t="str">
-        <f t="shared" ref="F11:F14" si="10">IF(ISBLANK(E11)," - ",IF(G11=0,E11,E11+G11-1))</f>
-        <v xml:space="preserve"> - </v>
+      <c r="E11" s="116">
+        <v>43512</v>
+      </c>
+      <c r="F11" s="112">
+        <f t="shared" ref="F11:F13" si="9">IF(ISBLANK(E11)," - ",IF(G11=0,E11,E11+G11-1))</f>
+        <v>43513</v>
       </c>
       <c r="G11" s="67">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H11" s="68">
         <v>0</v>
       </c>
-      <c r="I11" s="134">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="192"/>
-      <c r="K11" s="203"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="67">
+        <v>2</v>
+      </c>
+      <c r="K11" s="195"/>
       <c r="L11" s="47"/>
       <c r="M11" s="47"/>
       <c r="N11" s="47"/>
@@ -5820,35 +5937,36 @@
       <c r="BM11" s="47"/>
       <c r="BN11" s="47"/>
     </row>
-    <row r="12" spans="1:150" s="45" customFormat="1" ht="18">
+    <row r="12" spans="1:150" s="45" customFormat="1" ht="26">
       <c r="A12" s="121" t="str">
         <f t="shared" si="8"/>
         <v>1.4</v>
       </c>
       <c r="B12" s="117" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C12" s="118" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D12" s="119"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="112" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> - </v>
+      <c r="E12" s="116">
+        <v>43512</v>
+      </c>
+      <c r="F12" s="112">
+        <f t="shared" si="9"/>
+        <v>43512</v>
       </c>
       <c r="G12" s="67">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H12" s="68">
         <v>0</v>
       </c>
-      <c r="I12" s="134">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="192"/>
-      <c r="K12" s="203"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="67">
+        <v>1</v>
+      </c>
+      <c r="K12" s="195"/>
       <c r="L12" s="47"/>
       <c r="M12" s="47"/>
       <c r="N12" s="47"/>
@@ -5911,29 +6029,30 @@
         <v>1.5</v>
       </c>
       <c r="B13" s="117" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C13" s="118" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D13" s="119"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="112" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> - </v>
+      <c r="E13" s="116">
+        <v>43514</v>
+      </c>
+      <c r="F13" s="112">
+        <f t="shared" si="9"/>
+        <v>43515</v>
       </c>
       <c r="G13" s="67">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H13" s="68">
         <v>0</v>
       </c>
-      <c r="I13" s="134">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="192"/>
-      <c r="K13" s="203"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="253" t="s">
+        <v>179</v>
+      </c>
+      <c r="K13" s="47"/>
       <c r="L13" s="47"/>
       <c r="M13" s="47"/>
       <c r="N13" s="47"/>
@@ -5990,35 +6109,36 @@
       <c r="BM13" s="47"/>
       <c r="BN13" s="47"/>
     </row>
-    <row r="14" spans="1:150" s="45" customFormat="1" ht="26">
+    <row r="14" spans="1:150" s="45" customFormat="1">
       <c r="A14" s="121" t="str">
         <f t="shared" si="8"/>
         <v>1.6</v>
       </c>
       <c r="B14" s="117" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C14" s="118" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D14" s="119"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="112" t="str">
-        <f t="shared" si="10"/>
-        <v xml:space="preserve"> - </v>
+      <c r="E14" s="116">
+        <v>43512</v>
+      </c>
+      <c r="F14" s="112">
+        <f>IF(ISBLANK(E14)," - ",IF(G14=0,E14,E14+G14-1))</f>
+        <v>43516</v>
       </c>
       <c r="G14" s="67">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H14" s="68">
         <v>0</v>
       </c>
-      <c r="I14" s="134">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="204"/>
-      <c r="K14" s="47"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="67">
+        <v>3</v>
+      </c>
+      <c r="K14" s="195"/>
       <c r="L14" s="47"/>
       <c r="M14" s="47"/>
       <c r="N14" s="47"/>
@@ -6075,35 +6195,35 @@
       <c r="BM14" s="47"/>
       <c r="BN14" s="47"/>
     </row>
-    <row r="15" spans="1:150" s="45" customFormat="1" ht="18">
-      <c r="A15" s="121" t="str">
-        <f t="shared" si="8"/>
-        <v>1.7</v>
-      </c>
-      <c r="B15" s="117" t="s">
-        <v>145</v>
-      </c>
-      <c r="C15" s="118" t="s">
-        <v>146</v>
-      </c>
-      <c r="D15" s="119"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="112" t="str">
+    <row r="15" spans="1:150" s="45" customFormat="1" ht="12">
+      <c r="A15" s="121" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="187" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="190" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="182"/>
+      <c r="E15" s="196">
+        <v>43516</v>
+      </c>
+      <c r="F15" s="183">
         <f>IF(ISBLANK(E15)," - ",IF(G15=0,E15,E15+G15-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G15" s="67">
-        <v>7</v>
-      </c>
-      <c r="H15" s="68">
+        <v>43517</v>
+      </c>
+      <c r="G15" s="184">
+        <v>2</v>
+      </c>
+      <c r="H15" s="185">
         <v>0</v>
       </c>
-      <c r="I15" s="134">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="192"/>
-      <c r="K15" s="203"/>
+      <c r="I15" s="186"/>
+      <c r="J15" s="254">
+        <v>2</v>
+      </c>
+      <c r="K15" s="195"/>
       <c r="L15" s="47"/>
       <c r="M15" s="47"/>
       <c r="N15" s="47"/>
@@ -6160,34 +6280,35 @@
       <c r="BM15" s="47"/>
       <c r="BN15" s="47"/>
     </row>
-    <row r="16" spans="1:150" s="45" customFormat="1" ht="18">
+    <row r="16" spans="1:150" s="45" customFormat="1" ht="12">
       <c r="A16" s="121" t="s">
-        <v>147</v>
-      </c>
-      <c r="B16" s="188" t="s">
-        <v>152</v>
-      </c>
-      <c r="C16" s="195" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="192" t="s">
         <v>146</v>
       </c>
-      <c r="D16" s="183"/>
-      <c r="E16" s="209"/>
-      <c r="F16" s="184" t="str">
+      <c r="C16" s="191" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="182"/>
+      <c r="E16" s="189">
+        <v>43510</v>
+      </c>
+      <c r="F16" s="183">
         <f>IF(ISBLANK(E16)," - ",IF(G16=0,E16,E16+G16-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G16" s="185">
+        <v>43519</v>
+      </c>
+      <c r="G16" s="251">
+        <v>10</v>
+      </c>
+      <c r="H16" s="250">
         <v>0</v>
       </c>
-      <c r="H16" s="186">
-        <v>0</v>
-      </c>
-      <c r="I16" s="187">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="205"/>
-      <c r="K16" s="203"/>
+      <c r="I16" s="186"/>
+      <c r="J16" s="251">
+        <v>4</v>
+      </c>
+      <c r="K16" s="195"/>
       <c r="L16" s="47"/>
       <c r="M16" s="47"/>
       <c r="N16" s="47"/>
@@ -6244,34 +6365,35 @@
       <c r="BM16" s="47"/>
       <c r="BN16" s="47"/>
     </row>
-    <row r="17" spans="1:66" s="45" customFormat="1" ht="18">
+    <row r="17" spans="1:66" s="45" customFormat="1" ht="26">
       <c r="A17" s="121" t="s">
-        <v>148</v>
-      </c>
-      <c r="B17" s="197" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17" s="196" t="s">
-        <v>138</v>
-      </c>
-      <c r="D17" s="183"/>
-      <c r="E17" s="194"/>
-      <c r="F17" s="184" t="str">
+        <v>144</v>
+      </c>
+      <c r="B17" s="194" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" s="191" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="182"/>
+      <c r="E17" s="193">
+        <v>43518</v>
+      </c>
+      <c r="F17" s="183">
         <f>IF(ISBLANK(E17)," - ",IF(G17=0,E17,E17+G17-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G17" s="189">
+        <v>43519</v>
+      </c>
+      <c r="G17" s="251">
+        <v>2</v>
+      </c>
+      <c r="H17" s="244">
         <v>0</v>
       </c>
-      <c r="H17" s="190">
-        <v>0</v>
-      </c>
-      <c r="I17" s="187">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="206"/>
-      <c r="K17" s="203"/>
+      <c r="I17" s="186"/>
+      <c r="J17" s="184">
+        <v>2</v>
+      </c>
+      <c r="K17" s="195"/>
       <c r="L17" s="47"/>
       <c r="M17" s="47"/>
       <c r="N17" s="47"/>
@@ -6328,191 +6450,188 @@
       <c r="BM17" s="47"/>
       <c r="BN17" s="47"/>
     </row>
-    <row r="18" spans="1:66" s="45" customFormat="1" ht="26">
-      <c r="A18" s="121" t="s">
-        <v>149</v>
-      </c>
-      <c r="B18" s="199" t="s">
+    <row r="18" spans="1:66" s="43" customFormat="1" ht="18">
+      <c r="A18" s="122">
+        <v>2</v>
+      </c>
+      <c r="B18" s="108" t="s">
         <v>150</v>
       </c>
-      <c r="C18" s="196" t="s">
-        <v>142</v>
-      </c>
-      <c r="D18" s="183"/>
-      <c r="E18" s="198"/>
-      <c r="F18" s="184" t="str">
-        <f>IF(ISBLANK(E18)," - ",IF(G18=0,E18,E18+G18-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G18" s="200">
+      <c r="C18" s="37"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="188"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="134"/>
+      <c r="J18" s="125"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="52"/>
+      <c r="X18" s="52"/>
+      <c r="Y18" s="52"/>
+      <c r="Z18" s="52"/>
+      <c r="AA18" s="52"/>
+      <c r="AB18" s="52"/>
+      <c r="AC18" s="52"/>
+      <c r="AD18" s="52"/>
+      <c r="AE18" s="52"/>
+      <c r="AF18" s="52"/>
+      <c r="AG18" s="52"/>
+      <c r="AH18" s="52"/>
+      <c r="AI18" s="52"/>
+      <c r="AJ18" s="52"/>
+      <c r="AK18" s="52"/>
+      <c r="AL18" s="52"/>
+      <c r="AM18" s="52"/>
+      <c r="AN18" s="52"/>
+      <c r="AO18" s="52"/>
+      <c r="AP18" s="52"/>
+      <c r="AQ18" s="52"/>
+      <c r="AR18" s="52"/>
+      <c r="AS18" s="52"/>
+      <c r="AT18" s="52"/>
+      <c r="AU18" s="52"/>
+      <c r="AV18" s="52"/>
+      <c r="AW18" s="52"/>
+      <c r="AX18" s="52"/>
+      <c r="AY18" s="52"/>
+      <c r="AZ18" s="52"/>
+      <c r="BA18" s="52"/>
+      <c r="BB18" s="52"/>
+      <c r="BC18" s="52"/>
+      <c r="BD18" s="52"/>
+      <c r="BE18" s="52"/>
+      <c r="BF18" s="52"/>
+      <c r="BG18" s="52"/>
+      <c r="BH18" s="52"/>
+      <c r="BI18" s="52"/>
+      <c r="BJ18" s="52"/>
+      <c r="BK18" s="52"/>
+      <c r="BL18" s="52"/>
+      <c r="BM18" s="52"/>
+      <c r="BN18" s="52"/>
+    </row>
+    <row r="19" spans="1:66" s="45" customFormat="1">
+      <c r="A19" s="121" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>2.1</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" s="46"/>
+      <c r="E19" s="116">
+        <v>43521</v>
+      </c>
+      <c r="F19" s="112">
+        <f t="shared" ref="F19:F25" si="10">IF(ISBLANK(E19)," - ",IF(G19=0,E19,E19+G19-1))</f>
+        <v>43527</v>
+      </c>
+      <c r="G19" s="67">
+        <v>7</v>
+      </c>
+      <c r="H19" s="68">
         <v>0</v>
       </c>
-      <c r="H18" s="201">
-        <v>0</v>
-      </c>
-      <c r="I18" s="187">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="193"/>
-      <c r="K18" s="203"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="47"/>
-      <c r="T18" s="47"/>
-      <c r="U18" s="47"/>
-      <c r="V18" s="47"/>
-      <c r="W18" s="47"/>
-      <c r="X18" s="47"/>
-      <c r="Y18" s="47"/>
-      <c r="Z18" s="47"/>
-      <c r="AA18" s="47"/>
-      <c r="AB18" s="47"/>
-      <c r="AC18" s="47"/>
-      <c r="AD18" s="47"/>
-      <c r="AE18" s="47"/>
-      <c r="AF18" s="47"/>
-      <c r="AG18" s="47"/>
-      <c r="AH18" s="47"/>
-      <c r="AI18" s="47"/>
-      <c r="AJ18" s="47"/>
-      <c r="AK18" s="47"/>
-      <c r="AL18" s="47"/>
-      <c r="AM18" s="47"/>
-      <c r="AN18" s="47"/>
-      <c r="AO18" s="47"/>
-      <c r="AP18" s="47"/>
-      <c r="AQ18" s="47"/>
-      <c r="AR18" s="47"/>
-      <c r="AS18" s="47"/>
-      <c r="AT18" s="47"/>
-      <c r="AU18" s="47"/>
-      <c r="AV18" s="47"/>
-      <c r="AW18" s="47"/>
-      <c r="AX18" s="47"/>
-      <c r="AY18" s="47"/>
-      <c r="AZ18" s="47"/>
-      <c r="BA18" s="47"/>
-      <c r="BB18" s="47"/>
-      <c r="BC18" s="47"/>
-      <c r="BD18" s="47"/>
-      <c r="BE18" s="47"/>
-      <c r="BF18" s="47"/>
-      <c r="BG18" s="47"/>
-      <c r="BH18" s="47"/>
-      <c r="BI18" s="47"/>
-      <c r="BJ18" s="47"/>
-      <c r="BK18" s="47"/>
-      <c r="BL18" s="47"/>
-      <c r="BM18" s="47"/>
-      <c r="BN18" s="47"/>
-    </row>
-    <row r="19" spans="1:66" s="43" customFormat="1" ht="18">
-      <c r="A19" s="122" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>2</v>
-      </c>
-      <c r="B19" s="108" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="191"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="125"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="52"/>
-      <c r="T19" s="52"/>
-      <c r="U19" s="52"/>
-      <c r="V19" s="52"/>
-      <c r="W19" s="52"/>
-      <c r="X19" s="52"/>
-      <c r="Y19" s="52"/>
-      <c r="Z19" s="52"/>
-      <c r="AA19" s="52"/>
-      <c r="AB19" s="52"/>
-      <c r="AC19" s="52"/>
-      <c r="AD19" s="52"/>
-      <c r="AE19" s="52"/>
-      <c r="AF19" s="52"/>
-      <c r="AG19" s="52"/>
-      <c r="AH19" s="52"/>
-      <c r="AI19" s="52"/>
-      <c r="AJ19" s="52"/>
-      <c r="AK19" s="52"/>
-      <c r="AL19" s="52"/>
-      <c r="AM19" s="52"/>
-      <c r="AN19" s="52"/>
-      <c r="AO19" s="52"/>
-      <c r="AP19" s="52"/>
-      <c r="AQ19" s="52"/>
-      <c r="AR19" s="52"/>
-      <c r="AS19" s="52"/>
-      <c r="AT19" s="52"/>
-      <c r="AU19" s="52"/>
-      <c r="AV19" s="52"/>
-      <c r="AW19" s="52"/>
-      <c r="AX19" s="52"/>
-      <c r="AY19" s="52"/>
-      <c r="AZ19" s="52"/>
-      <c r="BA19" s="52"/>
-      <c r="BB19" s="52"/>
-      <c r="BC19" s="52"/>
-      <c r="BD19" s="52"/>
-      <c r="BE19" s="52"/>
-      <c r="BF19" s="52"/>
-      <c r="BG19" s="52"/>
-      <c r="BH19" s="52"/>
-      <c r="BI19" s="52"/>
-      <c r="BJ19" s="52"/>
-      <c r="BK19" s="52"/>
-      <c r="BL19" s="52"/>
-      <c r="BM19" s="52"/>
-      <c r="BN19" s="52"/>
-    </row>
-    <row r="20" spans="1:66" s="45" customFormat="1" ht="18">
+      <c r="I19" s="133"/>
+      <c r="J19" s="255">
+        <v>7</v>
+      </c>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="47"/>
+      <c r="X19" s="47"/>
+      <c r="Y19" s="47"/>
+      <c r="Z19" s="47"/>
+      <c r="AA19" s="47"/>
+      <c r="AB19" s="47"/>
+      <c r="AC19" s="47"/>
+      <c r="AD19" s="47"/>
+      <c r="AE19" s="47"/>
+      <c r="AF19" s="47"/>
+      <c r="AG19" s="47"/>
+      <c r="AH19" s="47"/>
+      <c r="AI19" s="47"/>
+      <c r="AJ19" s="47"/>
+      <c r="AK19" s="47"/>
+      <c r="AL19" s="47"/>
+      <c r="AM19" s="47"/>
+      <c r="AN19" s="47"/>
+      <c r="AO19" s="47"/>
+      <c r="AP19" s="47"/>
+      <c r="AQ19" s="47"/>
+      <c r="AR19" s="47"/>
+      <c r="AS19" s="47"/>
+      <c r="AT19" s="47"/>
+      <c r="AU19" s="47"/>
+      <c r="AV19" s="47"/>
+      <c r="AW19" s="47"/>
+      <c r="AX19" s="47"/>
+      <c r="AY19" s="47"/>
+      <c r="AZ19" s="47"/>
+      <c r="BA19" s="47"/>
+      <c r="BB19" s="47"/>
+      <c r="BC19" s="47"/>
+      <c r="BD19" s="47"/>
+      <c r="BE19" s="47"/>
+      <c r="BF19" s="47"/>
+      <c r="BG19" s="47"/>
+      <c r="BH19" s="47"/>
+      <c r="BI19" s="47"/>
+      <c r="BJ19" s="47"/>
+      <c r="BK19" s="47"/>
+      <c r="BL19" s="47"/>
+      <c r="BM19" s="47"/>
+      <c r="BN19" s="47"/>
+    </row>
+    <row r="20" spans="1:66" s="45" customFormat="1">
       <c r="A20" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="D20" s="46"/>
       <c r="E20" s="116">
-        <v>43141</v>
+        <v>43528</v>
       </c>
       <c r="F20" s="112">
-        <f t="shared" ref="F20:F24" si="11">IF(ISBLANK(E20)," - ",IF(G20=0,E20,E20+G20-1))</f>
-        <v>43144</v>
+        <f t="shared" si="10"/>
+        <v>43528</v>
       </c>
       <c r="G20" s="67">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H20" s="68">
         <v>0</v>
       </c>
-      <c r="I20" s="134">
-        <f>IF(OR(F20=0,E20=0),0,NETWORKDAYS(E20,F20))</f>
+      <c r="I20" s="133"/>
+      <c r="J20" s="67">
         <v>2</v>
       </c>
-      <c r="J20" s="202"/>
-      <c r="K20" s="47"/>
+      <c r="K20" s="195"/>
       <c r="L20" s="47"/>
       <c r="M20" s="47"/>
       <c r="N20" s="47"/>
@@ -6569,21 +6688,21 @@
       <c r="BM20" s="47"/>
       <c r="BN20" s="47"/>
     </row>
-    <row r="21" spans="1:66" s="45" customFormat="1" ht="18">
+    <row r="21" spans="1:66" s="45" customFormat="1" ht="26">
       <c r="A21" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>7</v>
+        <v>155</v>
       </c>
       <c r="D21" s="46"/>
       <c r="E21" s="116">
-        <v>43145</v>
+        <v>43528</v>
       </c>
       <c r="F21" s="112">
-        <f t="shared" si="11"/>
-        <v>43147</v>
+        <f t="shared" si="10"/>
+        <v>43530</v>
       </c>
       <c r="G21" s="67">
         <v>3</v>
@@ -6591,12 +6710,11 @@
       <c r="H21" s="68">
         <v>0</v>
       </c>
-      <c r="I21" s="134">
-        <f>IF(OR(F21=0,E21=0),0,NETWORKDAYS(E21,F21))</f>
-        <v>3</v>
-      </c>
-      <c r="J21" s="192"/>
-      <c r="K21" s="203"/>
+      <c r="I21" s="133"/>
+      <c r="J21" s="67">
+        <v>4</v>
+      </c>
+      <c r="K21" s="195"/>
       <c r="L21" s="47"/>
       <c r="M21" s="47"/>
       <c r="N21" s="47"/>
@@ -6653,34 +6771,33 @@
       <c r="BM21" s="47"/>
       <c r="BN21" s="47"/>
     </row>
-    <row r="22" spans="1:66" s="45" customFormat="1" ht="18">
+    <row r="22" spans="1:66" s="45" customFormat="1">
       <c r="A22" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>7</v>
+        <v>156</v>
       </c>
       <c r="D22" s="46"/>
       <c r="E22" s="116">
-        <v>43145</v>
+        <v>43531</v>
       </c>
       <c r="F22" s="112">
-        <f t="shared" si="11"/>
-        <v>43147</v>
+        <f t="shared" si="10"/>
+        <v>43537</v>
       </c>
       <c r="G22" s="67">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H22" s="68">
         <v>0</v>
       </c>
-      <c r="I22" s="134">
-        <f>IF(OR(F22=0,E22=0),0,NETWORKDAYS(E22,F22))</f>
-        <v>3</v>
-      </c>
-      <c r="J22" s="192"/>
-      <c r="K22" s="203"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="67">
+        <v>6</v>
+      </c>
+      <c r="K22" s="195"/>
       <c r="L22" s="47"/>
       <c r="M22" s="47"/>
       <c r="N22" s="47"/>
@@ -6737,34 +6854,33 @@
       <c r="BM22" s="47"/>
       <c r="BN22" s="47"/>
     </row>
-    <row r="23" spans="1:66" s="45" customFormat="1" ht="18">
+    <row r="23" spans="1:66" s="45" customFormat="1">
       <c r="A23" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>7</v>
+        <v>157</v>
       </c>
       <c r="D23" s="46"/>
       <c r="E23" s="116">
-        <v>43148</v>
+        <v>43538</v>
       </c>
       <c r="F23" s="112">
-        <f t="shared" si="11"/>
-        <v>43153</v>
+        <f t="shared" si="10"/>
+        <v>43542</v>
       </c>
       <c r="G23" s="67">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H23" s="68">
         <v>0</v>
       </c>
-      <c r="I23" s="134">
-        <f>IF(OR(F23=0,E23=0),0,NETWORKDAYS(E23,F23))</f>
-        <v>4</v>
-      </c>
-      <c r="J23" s="192"/>
-      <c r="K23" s="203"/>
+      <c r="I23" s="133"/>
+      <c r="J23" s="67">
+        <v>5</v>
+      </c>
+      <c r="K23" s="195"/>
       <c r="L23" s="47"/>
       <c r="M23" s="47"/>
       <c r="N23" s="47"/>
@@ -6821,34 +6937,32 @@
       <c r="BM23" s="47"/>
       <c r="BN23" s="47"/>
     </row>
-    <row r="24" spans="1:66" s="45" customFormat="1" ht="18">
-      <c r="A24" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.5</v>
+    <row r="24" spans="1:66" s="45" customFormat="1">
+      <c r="A24" s="121" t="s">
+        <v>159</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="46"/>
-      <c r="E24" s="116">
-        <v>43154</v>
-      </c>
-      <c r="F24" s="112">
-        <f t="shared" si="11"/>
-        <v>43156</v>
-      </c>
-      <c r="G24" s="67">
-        <v>3</v>
-      </c>
-      <c r="H24" s="68">
+        <v>160</v>
+      </c>
+      <c r="D24" s="234"/>
+      <c r="E24" s="236">
+        <v>43534</v>
+      </c>
+      <c r="F24" s="241">
+        <f t="shared" si="10"/>
+        <v>43535</v>
+      </c>
+      <c r="G24" s="242">
+        <v>2</v>
+      </c>
+      <c r="H24" s="249">
         <v>0</v>
       </c>
-      <c r="I24" s="134">
-        <f>IF(OR(F24=0,E24=0),0,NETWORKDAYS(E24,F24))</f>
-        <v>1</v>
-      </c>
-      <c r="J24" s="192"/>
-      <c r="K24" s="203"/>
+      <c r="I24" s="243"/>
+      <c r="J24" s="242">
+        <v>2</v>
+      </c>
+      <c r="K24" s="47"/>
       <c r="L24" s="47"/>
       <c r="M24" s="47"/>
       <c r="N24" s="47"/>
@@ -6905,108 +7019,116 @@
       <c r="BM24" s="47"/>
       <c r="BN24" s="47"/>
     </row>
-    <row r="25" spans="1:66" s="43" customFormat="1" ht="18">
-      <c r="A25" s="122" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>3</v>
-      </c>
-      <c r="B25" s="109" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="49"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="114"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="135"/>
-      <c r="J25" s="125"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="52"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="52"/>
-      <c r="V25" s="52"/>
-      <c r="W25" s="52"/>
-      <c r="X25" s="52"/>
-      <c r="Y25" s="52"/>
-      <c r="Z25" s="52"/>
-      <c r="AA25" s="52"/>
-      <c r="AB25" s="52"/>
-      <c r="AC25" s="52"/>
-      <c r="AD25" s="52"/>
-      <c r="AE25" s="52"/>
-      <c r="AF25" s="52"/>
-      <c r="AG25" s="52"/>
-      <c r="AH25" s="52"/>
-      <c r="AI25" s="52"/>
-      <c r="AJ25" s="52"/>
-      <c r="AK25" s="52"/>
-      <c r="AL25" s="52"/>
-      <c r="AM25" s="52"/>
-      <c r="AN25" s="52"/>
-      <c r="AO25" s="52"/>
-      <c r="AP25" s="52"/>
-      <c r="AQ25" s="52"/>
-      <c r="AR25" s="52"/>
-      <c r="AS25" s="52"/>
-      <c r="AT25" s="52"/>
-      <c r="AU25" s="52"/>
-      <c r="AV25" s="52"/>
-      <c r="AW25" s="52"/>
-      <c r="AX25" s="52"/>
-      <c r="AY25" s="52"/>
-      <c r="AZ25" s="52"/>
-      <c r="BA25" s="52"/>
-      <c r="BB25" s="52"/>
-      <c r="BC25" s="52"/>
-      <c r="BD25" s="52"/>
-      <c r="BE25" s="52"/>
-      <c r="BF25" s="52"/>
-      <c r="BG25" s="52"/>
-      <c r="BH25" s="52"/>
-      <c r="BI25" s="52"/>
-      <c r="BJ25" s="52"/>
-      <c r="BK25" s="52"/>
-      <c r="BL25" s="52"/>
-      <c r="BM25" s="52"/>
-      <c r="BN25" s="52"/>
-    </row>
-    <row r="26" spans="1:66" s="45" customFormat="1" ht="18">
-      <c r="A26" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.1</v>
+    <row r="25" spans="1:66" s="45" customFormat="1" ht="26">
+      <c r="A25" s="121" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="D25" s="234"/>
+      <c r="E25" s="193">
+        <v>43543</v>
+      </c>
+      <c r="F25" s="183">
+        <f t="shared" si="10"/>
+        <v>43552</v>
+      </c>
+      <c r="G25" s="248">
+        <v>10</v>
+      </c>
+      <c r="H25" s="250">
+        <v>0</v>
+      </c>
+      <c r="I25" s="186"/>
+      <c r="J25" s="251">
+        <v>10</v>
+      </c>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="247"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="47"/>
+      <c r="S25" s="47"/>
+      <c r="T25" s="47"/>
+      <c r="U25" s="47"/>
+      <c r="V25" s="47"/>
+      <c r="W25" s="47"/>
+      <c r="X25" s="47"/>
+      <c r="Y25" s="47"/>
+      <c r="Z25" s="47"/>
+      <c r="AA25" s="47"/>
+      <c r="AB25" s="47"/>
+      <c r="AC25" s="47"/>
+      <c r="AD25" s="47"/>
+      <c r="AE25" s="47"/>
+      <c r="AF25" s="47"/>
+      <c r="AG25" s="47"/>
+      <c r="AH25" s="47"/>
+      <c r="AI25" s="47"/>
+      <c r="AJ25" s="47"/>
+      <c r="AK25" s="47"/>
+      <c r="AL25" s="47"/>
+      <c r="AM25" s="47"/>
+      <c r="AN25" s="47"/>
+      <c r="AO25" s="47"/>
+      <c r="AP25" s="47"/>
+      <c r="AQ25" s="47"/>
+      <c r="AR25" s="47"/>
+      <c r="AS25" s="47"/>
+      <c r="AT25" s="47"/>
+      <c r="AU25" s="47"/>
+      <c r="AV25" s="47"/>
+      <c r="AW25" s="47"/>
+      <c r="AX25" s="47"/>
+      <c r="AY25" s="47"/>
+      <c r="AZ25" s="47"/>
+      <c r="BA25" s="47"/>
+      <c r="BB25" s="47"/>
+      <c r="BC25" s="47"/>
+      <c r="BD25" s="47"/>
+      <c r="BE25" s="47"/>
+      <c r="BF25" s="47"/>
+      <c r="BG25" s="47"/>
+      <c r="BH25" s="47"/>
+      <c r="BI25" s="47"/>
+      <c r="BJ25" s="47"/>
+      <c r="BK25" s="47"/>
+      <c r="BL25" s="47"/>
+      <c r="BM25" s="47"/>
+      <c r="BN25" s="47"/>
+    </row>
+    <row r="26" spans="1:66" s="45" customFormat="1">
+      <c r="A26" s="121" t="s">
+        <v>162</v>
       </c>
       <c r="B26" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" s="234"/>
+      <c r="E26" s="235">
+        <v>43549</v>
+      </c>
+      <c r="F26" s="237">
+        <f>IF(ISBLANK(E26)," - ",IF(G26=0,E26,E26+G26-1))</f>
+        <v>43555</v>
+      </c>
+      <c r="G26" s="248">
         <v>7</v>
       </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="116">
-        <v>43141</v>
-      </c>
-      <c r="F26" s="112">
-        <f t="shared" ref="F26:F30" si="12">IF(ISBLANK(E26)," - ",IF(G26=0,E26,E26+G26-1))</f>
-        <v>43144</v>
-      </c>
-      <c r="G26" s="67">
-        <v>4</v>
-      </c>
-      <c r="H26" s="68">
+      <c r="H26" s="185">
         <v>0</v>
       </c>
-      <c r="I26" s="134">
-        <f>IF(OR(F26=0,E26=0),0,NETWORKDAYS(E26,F26))</f>
-        <v>2</v>
-      </c>
-      <c r="J26" s="192"/>
-      <c r="K26" s="203"/>
+      <c r="I26" s="186"/>
+      <c r="J26" s="184">
+        <v>5</v>
+      </c>
+      <c r="K26" s="47"/>
       <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
+      <c r="M26" s="246"/>
       <c r="N26" s="47"/>
       <c r="O26" s="47"/>
       <c r="P26" s="47"/>
@@ -7061,33 +7183,31 @@
       <c r="BM26" s="47"/>
       <c r="BN26" s="47"/>
     </row>
-    <row r="27" spans="1:66" s="45" customFormat="1" ht="18">
-      <c r="A27" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.2</v>
+    <row r="27" spans="1:66" s="45" customFormat="1" ht="26">
+      <c r="A27" s="121" t="s">
+        <v>165</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="46"/>
-      <c r="E27" s="116">
-        <v>43145</v>
-      </c>
-      <c r="F27" s="112">
-        <f t="shared" si="12"/>
-        <v>43147</v>
-      </c>
-      <c r="G27" s="67">
-        <v>3</v>
-      </c>
-      <c r="H27" s="68">
+        <v>164</v>
+      </c>
+      <c r="D27" s="234"/>
+      <c r="E27" s="193">
+        <v>43535</v>
+      </c>
+      <c r="F27" s="237">
+        <f>IF(ISBLANK(E27)," - ",IF(G27=0,E27,E27+G27-1))</f>
+        <v>43555</v>
+      </c>
+      <c r="G27" s="251">
+        <v>21</v>
+      </c>
+      <c r="H27" s="250">
         <v>0</v>
       </c>
-      <c r="I27" s="134">
-        <f>IF(OR(F27=0,E27=0),0,NETWORKDAYS(E27,F27))</f>
-        <v>3</v>
-      </c>
-      <c r="J27" s="204"/>
+      <c r="I27" s="245"/>
+      <c r="J27" s="251">
+        <v>15</v>
+      </c>
       <c r="K27" s="47"/>
       <c r="L27" s="47"/>
       <c r="M27" s="47"/>
@@ -7145,118 +7265,106 @@
       <c r="BM27" s="47"/>
       <c r="BN27" s="47"/>
     </row>
-    <row r="28" spans="1:66" s="45" customFormat="1" ht="18">
-      <c r="A28" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.3</v>
-      </c>
-      <c r="B28" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="46"/>
-      <c r="E28" s="116">
-        <v>43145</v>
-      </c>
-      <c r="F28" s="112">
-        <f t="shared" si="12"/>
-        <v>43147</v>
-      </c>
-      <c r="G28" s="67">
+    <row r="28" spans="1:66" s="43" customFormat="1" ht="14">
+      <c r="A28" s="122">
         <v>3</v>
       </c>
-      <c r="H28" s="68">
-        <v>0</v>
-      </c>
-      <c r="I28" s="134">
-        <f>IF(OR(F28=0,E28=0),0,NETWORKDAYS(E28,F28))</f>
-        <v>3</v>
-      </c>
-      <c r="J28" s="204"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="47"/>
-      <c r="Q28" s="47"/>
-      <c r="R28" s="47"/>
-      <c r="S28" s="47"/>
-      <c r="T28" s="47"/>
-      <c r="U28" s="47"/>
-      <c r="V28" s="47"/>
-      <c r="W28" s="47"/>
-      <c r="X28" s="47"/>
-      <c r="Y28" s="47"/>
-      <c r="Z28" s="47"/>
-      <c r="AA28" s="47"/>
-      <c r="AB28" s="47"/>
-      <c r="AC28" s="47"/>
-      <c r="AD28" s="47"/>
-      <c r="AE28" s="47"/>
-      <c r="AF28" s="47"/>
-      <c r="AG28" s="47"/>
-      <c r="AH28" s="47"/>
-      <c r="AI28" s="47"/>
-      <c r="AJ28" s="47"/>
-      <c r="AK28" s="47"/>
-      <c r="AL28" s="47"/>
-      <c r="AM28" s="47"/>
-      <c r="AN28" s="47"/>
-      <c r="AO28" s="47"/>
-      <c r="AP28" s="47"/>
-      <c r="AQ28" s="47"/>
-      <c r="AR28" s="47"/>
-      <c r="AS28" s="47"/>
-      <c r="AT28" s="47"/>
-      <c r="AU28" s="47"/>
-      <c r="AV28" s="47"/>
-      <c r="AW28" s="47"/>
-      <c r="AX28" s="47"/>
-      <c r="AY28" s="47"/>
-      <c r="AZ28" s="47"/>
-      <c r="BA28" s="47"/>
-      <c r="BB28" s="47"/>
-      <c r="BC28" s="47"/>
-      <c r="BD28" s="47"/>
-      <c r="BE28" s="47"/>
-      <c r="BF28" s="47"/>
-      <c r="BG28" s="47"/>
-      <c r="BH28" s="47"/>
-      <c r="BI28" s="47"/>
-      <c r="BJ28" s="47"/>
-      <c r="BK28" s="47"/>
-      <c r="BL28" s="47"/>
-      <c r="BM28" s="47"/>
-      <c r="BN28" s="47"/>
-    </row>
-    <row r="29" spans="1:66" s="45" customFormat="1" ht="18">
+      <c r="B28" s="109" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="49"/>
+      <c r="E28" s="238"/>
+      <c r="F28" s="239"/>
+      <c r="G28" s="40">
+        <v>57</v>
+      </c>
+      <c r="H28" s="41"/>
+      <c r="I28" s="240"/>
+      <c r="J28" s="256"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="52"/>
+      <c r="U28" s="52"/>
+      <c r="V28" s="52"/>
+      <c r="W28" s="52"/>
+      <c r="X28" s="52"/>
+      <c r="Y28" s="52"/>
+      <c r="Z28" s="52"/>
+      <c r="AA28" s="52"/>
+      <c r="AB28" s="52"/>
+      <c r="AC28" s="52"/>
+      <c r="AD28" s="52"/>
+      <c r="AE28" s="52"/>
+      <c r="AF28" s="52"/>
+      <c r="AG28" s="52"/>
+      <c r="AH28" s="52"/>
+      <c r="AI28" s="52"/>
+      <c r="AJ28" s="52"/>
+      <c r="AK28" s="52"/>
+      <c r="AL28" s="52"/>
+      <c r="AM28" s="52"/>
+      <c r="AN28" s="52"/>
+      <c r="AO28" s="52"/>
+      <c r="AP28" s="52"/>
+      <c r="AQ28" s="52"/>
+      <c r="AR28" s="52"/>
+      <c r="AS28" s="52"/>
+      <c r="AT28" s="52"/>
+      <c r="AU28" s="52"/>
+      <c r="AV28" s="52"/>
+      <c r="AW28" s="52"/>
+      <c r="AX28" s="52"/>
+      <c r="AY28" s="52"/>
+      <c r="AZ28" s="52"/>
+      <c r="BA28" s="52"/>
+      <c r="BB28" s="52"/>
+      <c r="BC28" s="52"/>
+      <c r="BD28" s="52"/>
+      <c r="BE28" s="52"/>
+      <c r="BF28" s="52"/>
+      <c r="BG28" s="52"/>
+      <c r="BH28" s="52"/>
+      <c r="BI28" s="52"/>
+      <c r="BJ28" s="52"/>
+      <c r="BK28" s="52"/>
+      <c r="BL28" s="52"/>
+      <c r="BM28" s="52"/>
+      <c r="BN28" s="52"/>
+    </row>
+    <row r="29" spans="1:66" s="45" customFormat="1" ht="26">
       <c r="A29" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="B29" s="48" t="s">
-        <v>7</v>
+        <v>167</v>
       </c>
       <c r="D29" s="46"/>
       <c r="E29" s="116">
-        <v>43148</v>
+        <v>43557</v>
       </c>
       <c r="F29" s="112">
-        <f t="shared" si="12"/>
-        <v>43153</v>
+        <f t="shared" ref="F29:F37" si="11">IF(ISBLANK(E29)," - ",IF(G29=0,E29,E29+G29-1))</f>
+        <v>43558</v>
       </c>
       <c r="G29" s="67">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H29" s="68">
         <v>0</v>
       </c>
-      <c r="I29" s="134">
-        <f>IF(OR(F29=0,E29=0),0,NETWORKDAYS(E29,F29))</f>
-        <v>4</v>
-      </c>
-      <c r="J29" s="204"/>
-      <c r="K29" s="47"/>
+      <c r="I29" s="133"/>
+      <c r="J29" s="67">
+        <v>2</v>
+      </c>
+      <c r="K29" s="195"/>
       <c r="L29" s="47"/>
       <c r="M29" s="47"/>
       <c r="N29" s="47"/>
@@ -7313,33 +7421,32 @@
       <c r="BM29" s="47"/>
       <c r="BN29" s="47"/>
     </row>
-    <row r="30" spans="1:66" s="45" customFormat="1" ht="18">
+    <row r="30" spans="1:66" s="45" customFormat="1">
       <c r="A30" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>7</v>
+        <v>168</v>
       </c>
       <c r="D30" s="46"/>
       <c r="E30" s="116">
-        <v>43154</v>
+        <v>43559</v>
       </c>
       <c r="F30" s="112">
-        <f t="shared" si="12"/>
-        <v>43156</v>
+        <f t="shared" si="11"/>
+        <v>43562</v>
       </c>
       <c r="G30" s="67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H30" s="68">
         <v>0</v>
       </c>
-      <c r="I30" s="134">
-        <f>IF(OR(F30=0,E30=0),0,NETWORKDAYS(E30,F30))</f>
-        <v>1</v>
-      </c>
-      <c r="J30" s="207"/>
+      <c r="I30" s="133"/>
+      <c r="J30" s="253">
+        <v>4</v>
+      </c>
       <c r="K30" s="47"/>
       <c r="L30" s="47"/>
       <c r="M30" s="47"/>
@@ -7397,105 +7504,114 @@
       <c r="BM30" s="47"/>
       <c r="BN30" s="47"/>
     </row>
-    <row r="31" spans="1:66" s="43" customFormat="1" ht="18">
-      <c r="A31" s="122" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>4</v>
-      </c>
-      <c r="B31" s="109" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="49"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="135"/>
-      <c r="J31" s="208"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="52"/>
-      <c r="S31" s="52"/>
-      <c r="T31" s="52"/>
-      <c r="U31" s="52"/>
-      <c r="V31" s="52"/>
-      <c r="W31" s="52"/>
-      <c r="X31" s="52"/>
-      <c r="Y31" s="52"/>
-      <c r="Z31" s="52"/>
-      <c r="AA31" s="52"/>
-      <c r="AB31" s="52"/>
-      <c r="AC31" s="52"/>
-      <c r="AD31" s="52"/>
-      <c r="AE31" s="52"/>
-      <c r="AF31" s="52"/>
-      <c r="AG31" s="52"/>
-      <c r="AH31" s="52"/>
-      <c r="AI31" s="52"/>
-      <c r="AJ31" s="52"/>
-      <c r="AK31" s="52"/>
-      <c r="AL31" s="52"/>
-      <c r="AM31" s="52"/>
-      <c r="AN31" s="52"/>
-      <c r="AO31" s="52"/>
-      <c r="AP31" s="52"/>
-      <c r="AQ31" s="52"/>
-      <c r="AR31" s="52"/>
-      <c r="AS31" s="52"/>
-      <c r="AT31" s="52"/>
-      <c r="AU31" s="52"/>
-      <c r="AV31" s="52"/>
-      <c r="AW31" s="52"/>
-      <c r="AX31" s="52"/>
-      <c r="AY31" s="52"/>
-      <c r="AZ31" s="52"/>
-      <c r="BA31" s="52"/>
-      <c r="BB31" s="52"/>
-      <c r="BC31" s="52"/>
-      <c r="BD31" s="52"/>
-      <c r="BE31" s="52"/>
-      <c r="BF31" s="52"/>
-      <c r="BG31" s="52"/>
-      <c r="BH31" s="52"/>
-      <c r="BI31" s="52"/>
-      <c r="BJ31" s="52"/>
-      <c r="BK31" s="52"/>
-      <c r="BL31" s="52"/>
-      <c r="BM31" s="52"/>
-      <c r="BN31" s="52"/>
-    </row>
-    <row r="32" spans="1:66" s="45" customFormat="1" ht="18">
-      <c r="A32" s="121" t="str">
+    <row r="31" spans="1:66" s="45" customFormat="1" ht="26">
+      <c r="A31" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.1</v>
+        <v>3.3</v>
+      </c>
+      <c r="B31" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="D31" s="46"/>
+      <c r="E31" s="116">
+        <v>43563</v>
+      </c>
+      <c r="F31" s="112">
+        <f t="shared" si="11"/>
+        <v>43582</v>
+      </c>
+      <c r="G31" s="67">
+        <v>20</v>
+      </c>
+      <c r="H31" s="68">
+        <v>0</v>
+      </c>
+      <c r="I31" s="133"/>
+      <c r="J31" s="253">
+        <v>30</v>
+      </c>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="47"/>
+      <c r="R31" s="47"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="47"/>
+      <c r="U31" s="47"/>
+      <c r="V31" s="47"/>
+      <c r="W31" s="47"/>
+      <c r="X31" s="47"/>
+      <c r="Y31" s="47"/>
+      <c r="Z31" s="47"/>
+      <c r="AA31" s="47"/>
+      <c r="AB31" s="47"/>
+      <c r="AC31" s="47"/>
+      <c r="AD31" s="47"/>
+      <c r="AE31" s="47"/>
+      <c r="AF31" s="47"/>
+      <c r="AG31" s="47"/>
+      <c r="AH31" s="47"/>
+      <c r="AI31" s="47"/>
+      <c r="AJ31" s="47"/>
+      <c r="AK31" s="47"/>
+      <c r="AL31" s="47"/>
+      <c r="AM31" s="47"/>
+      <c r="AN31" s="47"/>
+      <c r="AO31" s="47"/>
+      <c r="AP31" s="47"/>
+      <c r="AQ31" s="47"/>
+      <c r="AR31" s="47"/>
+      <c r="AS31" s="47"/>
+      <c r="AT31" s="47"/>
+      <c r="AU31" s="47"/>
+      <c r="AV31" s="47"/>
+      <c r="AW31" s="47"/>
+      <c r="AX31" s="47"/>
+      <c r="AY31" s="47"/>
+      <c r="AZ31" s="47"/>
+      <c r="BA31" s="47"/>
+      <c r="BB31" s="47"/>
+      <c r="BC31" s="47"/>
+      <c r="BD31" s="47"/>
+      <c r="BE31" s="47"/>
+      <c r="BF31" s="47"/>
+      <c r="BG31" s="47"/>
+      <c r="BH31" s="47"/>
+      <c r="BI31" s="47"/>
+      <c r="BJ31" s="47"/>
+      <c r="BK31" s="47"/>
+      <c r="BL31" s="47"/>
+      <c r="BM31" s="47"/>
+      <c r="BN31" s="47"/>
+    </row>
+    <row r="32" spans="1:66" s="45" customFormat="1" ht="26">
+      <c r="A32" s="121" t="s">
+        <v>177</v>
       </c>
       <c r="B32" s="48" t="s">
-        <v>7</v>
+        <v>178</v>
       </c>
       <c r="D32" s="46"/>
       <c r="E32" s="116">
-        <v>43129</v>
+        <v>43583</v>
       </c>
       <c r="F32" s="112">
-        <f t="shared" ref="F32:F36" si="13">IF(ISBLANK(E32)," - ",IF(G32=0,E32,E32+G32-1))</f>
-        <v>43129</v>
+        <f t="shared" si="11"/>
+        <v>43592</v>
       </c>
       <c r="G32" s="67">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H32" s="68">
         <v>0</v>
       </c>
-      <c r="I32" s="134">
-        <f>IF(OR(F32=0,E32=0),0,NETWORKDAYS(E32,F32))</f>
-        <v>1</v>
-      </c>
-      <c r="J32" s="202"/>
+      <c r="I32" s="133"/>
+      <c r="J32" s="253">
+        <v>15</v>
+      </c>
       <c r="K32" s="47"/>
       <c r="L32" s="47"/>
       <c r="M32" s="47"/>
@@ -7553,33 +7669,32 @@
       <c r="BM32" s="47"/>
       <c r="BN32" s="47"/>
     </row>
-    <row r="33" spans="1:66" s="45" customFormat="1" ht="18">
+    <row r="33" spans="1:66" s="45" customFormat="1" ht="26">
       <c r="A33" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="D33" s="46"/>
       <c r="E33" s="116">
-        <v>43130</v>
+        <v>43593</v>
       </c>
       <c r="F33" s="112">
-        <f t="shared" si="13"/>
-        <v>43130</v>
+        <f t="shared" si="11"/>
+        <v>43594</v>
       </c>
       <c r="G33" s="67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33" s="68">
         <v>0</v>
       </c>
-      <c r="I33" s="134">
-        <f>IF(OR(F33=0,E33=0),0,NETWORKDAYS(E33,F33))</f>
-        <v>1</v>
-      </c>
-      <c r="J33" s="204"/>
+      <c r="I33" s="133"/>
+      <c r="J33" s="253">
+        <v>4</v>
+      </c>
       <c r="K33" s="47"/>
       <c r="L33" s="47"/>
       <c r="M33" s="47"/>
@@ -7637,33 +7752,31 @@
       <c r="BM33" s="47"/>
       <c r="BN33" s="47"/>
     </row>
-    <row r="34" spans="1:66" s="45" customFormat="1" ht="18">
-      <c r="A34" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.3</v>
+    <row r="34" spans="1:66" s="45" customFormat="1">
+      <c r="A34" s="121" t="s">
+        <v>171</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
       <c r="D34" s="46"/>
       <c r="E34" s="116">
-        <v>43131</v>
+        <v>43595</v>
       </c>
       <c r="F34" s="112">
-        <f t="shared" si="13"/>
-        <v>43131</v>
+        <f t="shared" si="11"/>
+        <v>43599</v>
       </c>
       <c r="G34" s="67">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H34" s="68">
         <v>0</v>
       </c>
-      <c r="I34" s="134">
-        <f>IF(OR(F34=0,E34=0),0,NETWORKDAYS(E34,F34))</f>
-        <v>1</v>
-      </c>
-      <c r="J34" s="204"/>
+      <c r="I34" s="133"/>
+      <c r="J34" s="257">
+        <v>10</v>
+      </c>
       <c r="K34" s="47"/>
       <c r="L34" s="47"/>
       <c r="M34" s="47"/>
@@ -7721,33 +7834,31 @@
       <c r="BM34" s="47"/>
       <c r="BN34" s="47"/>
     </row>
-    <row r="35" spans="1:66" s="45" customFormat="1" ht="18">
-      <c r="A35" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.4</v>
+    <row r="35" spans="1:66" s="45" customFormat="1">
+      <c r="A35" s="121" t="s">
+        <v>172</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>7</v>
+        <v>174</v>
       </c>
       <c r="D35" s="46"/>
       <c r="E35" s="116">
-        <v>43132</v>
+        <v>43563</v>
       </c>
       <c r="F35" s="112">
-        <f t="shared" si="13"/>
-        <v>43132</v>
+        <f t="shared" si="11"/>
+        <v>43599</v>
       </c>
       <c r="G35" s="67">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="H35" s="68">
         <v>0</v>
       </c>
-      <c r="I35" s="134">
-        <f>IF(OR(F35=0,E35=0),0,NETWORKDAYS(E35,F35))</f>
-        <v>1</v>
-      </c>
-      <c r="J35" s="204"/>
+      <c r="I35" s="133"/>
+      <c r="J35" s="257">
+        <v>10</v>
+      </c>
       <c r="K35" s="47"/>
       <c r="L35" s="47"/>
       <c r="M35" s="47"/>
@@ -7805,33 +7916,32 @@
       <c r="BM35" s="47"/>
       <c r="BN35" s="47"/>
     </row>
-    <row r="36" spans="1:66" s="45" customFormat="1" ht="18">
+    <row r="36" spans="1:66" s="45" customFormat="1" ht="26">
       <c r="A36" s="121" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>7</v>
+        <v>176</v>
       </c>
       <c r="D36" s="46"/>
       <c r="E36" s="116">
-        <v>43133</v>
+        <v>43600</v>
       </c>
       <c r="F36" s="112">
-        <f t="shared" si="13"/>
-        <v>43133</v>
+        <f t="shared" si="11"/>
+        <v>43609</v>
       </c>
       <c r="G36" s="67">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H36" s="68">
         <v>0</v>
       </c>
-      <c r="I36" s="134">
-        <f>IF(OR(F36=0,E36=0),0,NETWORKDAYS(E36,F36))</f>
-        <v>1</v>
-      </c>
-      <c r="J36" s="207"/>
+      <c r="I36" s="133"/>
+      <c r="J36" s="258">
+        <v>5</v>
+      </c>
       <c r="K36" s="47"/>
       <c r="L36" s="47"/>
       <c r="M36" s="47"/>
@@ -7889,17 +7999,31 @@
       <c r="BM36" s="47"/>
       <c r="BN36" s="47"/>
     </row>
-    <row r="37" spans="1:66" s="57" customFormat="1" ht="18">
-      <c r="A37" s="44"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="115"/>
-      <c r="F37" s="115"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="137"/>
-      <c r="J37" s="126"/>
+    <row r="37" spans="1:66" s="45" customFormat="1" ht="26">
+      <c r="A37" s="121" t="s">
+        <v>175</v>
+      </c>
+      <c r="B37" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="D37" s="234"/>
+      <c r="E37" s="235">
+        <v>43589</v>
+      </c>
+      <c r="F37" s="183">
+        <f t="shared" si="11"/>
+        <v>43612</v>
+      </c>
+      <c r="G37" s="184">
+        <v>24</v>
+      </c>
+      <c r="H37" s="185">
+        <v>0</v>
+      </c>
+      <c r="I37" s="186"/>
+      <c r="J37" s="259">
+        <v>18</v>
+      </c>
       <c r="K37" s="47"/>
       <c r="L37" s="47"/>
       <c r="M37" s="47"/>
@@ -7957,7 +8081,7 @@
       <c r="BM37" s="47"/>
       <c r="BN37" s="47"/>
     </row>
-    <row r="38" spans="1:66" s="57" customFormat="1" ht="18">
+    <row r="38" spans="1:66" s="57" customFormat="1" ht="12">
       <c r="A38" s="44"/>
       <c r="B38" s="53"/>
       <c r="C38" s="53"/>
@@ -7966,8 +8090,8 @@
       <c r="F38" s="115"/>
       <c r="G38" s="55"/>
       <c r="H38" s="56"/>
-      <c r="I38" s="137"/>
-      <c r="J38" s="126"/>
+      <c r="I38" s="136"/>
+      <c r="J38" s="260"/>
       <c r="K38" s="47"/>
       <c r="L38" s="47"/>
       <c r="M38" s="47"/>
@@ -8025,19 +8149,17 @@
       <c r="BM38" s="47"/>
       <c r="BN38" s="47"/>
     </row>
-    <row r="39" spans="1:66" s="58" customFormat="1" ht="27" customHeight="1" thickBot="1">
-      <c r="A39" s="138" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="70"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="70"/>
-      <c r="J39" s="70"/>
+    <row r="39" spans="1:66" s="57" customFormat="1" ht="12">
+      <c r="A39" s="44"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="136"/>
+      <c r="J39" s="260"/>
       <c r="K39" s="47"/>
       <c r="L39" s="47"/>
       <c r="M39" s="47"/>
@@ -8095,19 +8217,19 @@
       <c r="BM39" s="47"/>
       <c r="BN39" s="47"/>
     </row>
-    <row r="40" spans="1:66" s="57" customFormat="1" ht="19" thickTop="1">
-      <c r="A40" s="139" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40" s="140"/>
-      <c r="C40" s="140"/>
-      <c r="D40" s="140"/>
-      <c r="E40" s="141"/>
-      <c r="F40" s="141"/>
-      <c r="G40" s="140"/>
-      <c r="H40" s="140"/>
-      <c r="I40" s="142"/>
-      <c r="J40" s="143"/>
+    <row r="40" spans="1:66" s="58" customFormat="1" ht="27" customHeight="1" thickBot="1">
+      <c r="A40" s="137" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="70"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="70"/>
+      <c r="J40" s="70"/>
       <c r="K40" s="47"/>
       <c r="L40" s="47"/>
       <c r="M40" s="47"/>
@@ -8165,22 +8287,19 @@
       <c r="BM40" s="47"/>
       <c r="BN40" s="47"/>
     </row>
-    <row r="41" spans="1:66" s="57" customFormat="1" ht="18">
-      <c r="A41" s="122" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>1</v>
-      </c>
-      <c r="B41" s="133" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="43"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="113"/>
-      <c r="F41" s="114"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="135"/>
-      <c r="J41" s="125"/>
+    <row r="41" spans="1:66" s="57" customFormat="1" ht="19" thickTop="1">
+      <c r="A41" s="138" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="139"/>
+      <c r="C41" s="139"/>
+      <c r="D41" s="139"/>
+      <c r="E41" s="140"/>
+      <c r="F41" s="140"/>
+      <c r="G41" s="139"/>
+      <c r="H41" s="139"/>
+      <c r="I41" s="141"/>
+      <c r="J41" s="142"/>
       <c r="K41" s="47"/>
       <c r="L41" s="47"/>
       <c r="M41" s="47"/>
@@ -8239,29 +8358,21 @@
       <c r="BN41" s="47"/>
     </row>
     <row r="42" spans="1:66" s="57" customFormat="1" ht="18">
-      <c r="A42" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.1</v>
-      </c>
-      <c r="B42" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" s="45"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="116"/>
-      <c r="F42" s="112" t="str">
-        <f>IF(ISBLANK(E42)," - ",IF(G42=0,E42,E42+G42-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G42" s="67"/>
-      <c r="H42" s="68">
-        <v>0</v>
-      </c>
-      <c r="I42" s="134">
-        <f>IF(OR(F42=0,E42=0),0,NETWORKDAYS(E42,F42))</f>
-        <v>0</v>
-      </c>
-      <c r="J42" s="124"/>
+      <c r="A42" s="122" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>1</v>
+      </c>
+      <c r="B42" s="132" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="43"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="113"/>
+      <c r="F42" s="114"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="134"/>
+      <c r="J42" s="125"/>
       <c r="K42" s="47"/>
       <c r="L42" s="47"/>
       <c r="M42" s="47"/>
@@ -8321,25 +8432,25 @@
     </row>
     <row r="43" spans="1:66" s="57" customFormat="1" ht="18">
       <c r="A43" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.1.1</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>1.1</v>
       </c>
       <c r="B43" s="48" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C43" s="45"/>
       <c r="D43" s="46"/>
       <c r="E43" s="116"/>
       <c r="F43" s="112" t="str">
-        <f t="shared" ref="F43:F44" si="14">IF(ISBLANK(E43)," - ",IF(G43=0,E43,E43+G43-1))</f>
+        <f>IF(ISBLANK(E43)," - ",IF(G43=0,E43,E43+G43-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G43" s="67"/>
       <c r="H43" s="68">
         <v>0</v>
       </c>
-      <c r="I43" s="134">
-        <f t="shared" ref="I43:I44" si="15">IF(OR(F43=0,E43=0),0,NETWORKDAYS(E43,F43))</f>
+      <c r="I43" s="133">
+        <f>IF(OR(F43=0,E43=0),0,NETWORKDAYS(E43,F43))</f>
         <v>0</v>
       </c>
       <c r="J43" s="124"/>
@@ -8402,25 +8513,25 @@
     </row>
     <row r="44" spans="1:66" s="57" customFormat="1" ht="18">
       <c r="A44" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>1.1.1.1</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>1.1.1</v>
       </c>
       <c r="B44" s="48" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C44" s="45"/>
       <c r="D44" s="46"/>
       <c r="E44" s="116"/>
       <c r="F44" s="112" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="F44:F45" si="12">IF(ISBLANK(E44)," - ",IF(G44=0,E44,E44+G44-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G44" s="67"/>
       <c r="H44" s="68">
         <v>0</v>
       </c>
-      <c r="I44" s="134">
-        <f t="shared" si="15"/>
+      <c r="I44" s="133">
+        <f t="shared" ref="I44:I45" si="13">IF(OR(F44=0,E44=0),0,NETWORKDAYS(E44,F44))</f>
         <v>0</v>
       </c>
       <c r="J44" s="124"/>
@@ -8481,87 +8592,160 @@
       <c r="BM44" s="47"/>
       <c r="BN44" s="47"/>
     </row>
-    <row r="45" spans="1:66" s="62" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A45" s="59"/>
-      <c r="B45" s="60"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="60"/>
-      <c r="H45" s="60"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="60"/>
-      <c r="K45" s="60"/>
-      <c r="L45" s="60"/>
-      <c r="M45" s="60"/>
-      <c r="N45" s="60"/>
-      <c r="O45" s="60"/>
-      <c r="P45" s="60"/>
-      <c r="Q45" s="60"/>
-      <c r="R45" s="60"/>
-      <c r="S45" s="60"/>
-      <c r="T45" s="60"/>
-      <c r="U45" s="60"/>
-      <c r="V45" s="60"/>
-      <c r="W45" s="60"/>
-      <c r="X45" s="60"/>
-      <c r="Y45" s="60"/>
-      <c r="Z45" s="60"/>
-      <c r="AA45" s="60"/>
-      <c r="AB45" s="60"/>
-      <c r="AC45" s="60"/>
-      <c r="AD45" s="60"/>
-      <c r="AE45" s="60"/>
-      <c r="AF45" s="60"/>
-      <c r="AG45" s="60"/>
-      <c r="AH45" s="60"/>
-      <c r="AI45" s="60"/>
-      <c r="AJ45" s="60"/>
-      <c r="AK45" s="60"/>
-      <c r="AL45" s="60"/>
-      <c r="AM45" s="60"/>
-      <c r="AN45" s="60"/>
-      <c r="AO45" s="60"/>
-      <c r="AP45" s="60"/>
-      <c r="AQ45" s="60"/>
-      <c r="AR45" s="60"/>
-      <c r="AS45" s="60"/>
-      <c r="AT45" s="60"/>
-      <c r="AU45" s="60"/>
-      <c r="AV45" s="60"/>
-      <c r="AW45" s="60"/>
-      <c r="AX45" s="60"/>
-      <c r="AY45" s="60"/>
-      <c r="AZ45" s="60"/>
-      <c r="BA45" s="60"/>
-      <c r="BB45" s="60"/>
-      <c r="BC45" s="60"/>
-      <c r="BD45" s="60"/>
-      <c r="BE45" s="60"/>
-      <c r="BF45" s="60"/>
-      <c r="BG45" s="60"/>
-      <c r="BH45" s="60"/>
-      <c r="BI45" s="60"/>
-      <c r="BJ45" s="60"/>
-      <c r="BK45" s="60"/>
-      <c r="BL45" s="60"/>
-      <c r="BM45" s="60"/>
-      <c r="BN45" s="60"/>
-    </row>
-    <row r="46" spans="1:66" ht="19.5" customHeight="1"/>
+    <row r="45" spans="1:66" s="57" customFormat="1" ht="18">
+      <c r="A45" s="121" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>1.1.1.1</v>
+      </c>
+      <c r="B45" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="45"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="116"/>
+      <c r="F45" s="112" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G45" s="67"/>
+      <c r="H45" s="68">
+        <v>0</v>
+      </c>
+      <c r="I45" s="133">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="124"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="47"/>
+      <c r="P45" s="47"/>
+      <c r="Q45" s="47"/>
+      <c r="R45" s="47"/>
+      <c r="S45" s="47"/>
+      <c r="T45" s="47"/>
+      <c r="U45" s="47"/>
+      <c r="V45" s="47"/>
+      <c r="W45" s="47"/>
+      <c r="X45" s="47"/>
+      <c r="Y45" s="47"/>
+      <c r="Z45" s="47"/>
+      <c r="AA45" s="47"/>
+      <c r="AB45" s="47"/>
+      <c r="AC45" s="47"/>
+      <c r="AD45" s="47"/>
+      <c r="AE45" s="47"/>
+      <c r="AF45" s="47"/>
+      <c r="AG45" s="47"/>
+      <c r="AH45" s="47"/>
+      <c r="AI45" s="47"/>
+      <c r="AJ45" s="47"/>
+      <c r="AK45" s="47"/>
+      <c r="AL45" s="47"/>
+      <c r="AM45" s="47"/>
+      <c r="AN45" s="47"/>
+      <c r="AO45" s="47"/>
+      <c r="AP45" s="47"/>
+      <c r="AQ45" s="47"/>
+      <c r="AR45" s="47"/>
+      <c r="AS45" s="47"/>
+      <c r="AT45" s="47"/>
+      <c r="AU45" s="47"/>
+      <c r="AV45" s="47"/>
+      <c r="AW45" s="47"/>
+      <c r="AX45" s="47"/>
+      <c r="AY45" s="47"/>
+      <c r="AZ45" s="47"/>
+      <c r="BA45" s="47"/>
+      <c r="BB45" s="47"/>
+      <c r="BC45" s="47"/>
+      <c r="BD45" s="47"/>
+      <c r="BE45" s="47"/>
+      <c r="BF45" s="47"/>
+      <c r="BG45" s="47"/>
+      <c r="BH45" s="47"/>
+      <c r="BI45" s="47"/>
+      <c r="BJ45" s="47"/>
+      <c r="BK45" s="47"/>
+      <c r="BL45" s="47"/>
+      <c r="BM45" s="47"/>
+      <c r="BN45" s="47"/>
+    </row>
+    <row r="46" spans="1:66" s="62" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A46" s="59"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="60"/>
+      <c r="K46" s="60"/>
+      <c r="L46" s="60"/>
+      <c r="M46" s="60"/>
+      <c r="N46" s="60"/>
+      <c r="O46" s="60"/>
+      <c r="P46" s="60"/>
+      <c r="Q46" s="60"/>
+      <c r="R46" s="60"/>
+      <c r="S46" s="60"/>
+      <c r="T46" s="60"/>
+      <c r="U46" s="60"/>
+      <c r="V46" s="60"/>
+      <c r="W46" s="60"/>
+      <c r="X46" s="60"/>
+      <c r="Y46" s="60"/>
+      <c r="Z46" s="60"/>
+      <c r="AA46" s="60"/>
+      <c r="AB46" s="60"/>
+      <c r="AC46" s="60"/>
+      <c r="AD46" s="60"/>
+      <c r="AE46" s="60"/>
+      <c r="AF46" s="60"/>
+      <c r="AG46" s="60"/>
+      <c r="AH46" s="60"/>
+      <c r="AI46" s="60"/>
+      <c r="AJ46" s="60"/>
+      <c r="AK46" s="60"/>
+      <c r="AL46" s="60"/>
+      <c r="AM46" s="60"/>
+      <c r="AN46" s="60"/>
+      <c r="AO46" s="60"/>
+      <c r="AP46" s="60"/>
+      <c r="AQ46" s="60"/>
+      <c r="AR46" s="60"/>
+      <c r="AS46" s="60"/>
+      <c r="AT46" s="60"/>
+      <c r="AU46" s="60"/>
+      <c r="AV46" s="60"/>
+      <c r="AW46" s="60"/>
+      <c r="AX46" s="60"/>
+      <c r="AY46" s="60"/>
+      <c r="AZ46" s="60"/>
+      <c r="BA46" s="60"/>
+      <c r="BB46" s="60"/>
+      <c r="BC46" s="60"/>
+      <c r="BD46" s="60"/>
+      <c r="BE46" s="60"/>
+      <c r="BF46" s="60"/>
+      <c r="BG46" s="60"/>
+      <c r="BH46" s="60"/>
+      <c r="BI46" s="60"/>
+      <c r="BJ46" s="60"/>
+      <c r="BK46" s="60"/>
+      <c r="BL46" s="60"/>
+      <c r="BM46" s="60"/>
+      <c r="BN46" s="60"/>
+    </row>
     <row r="47" spans="1:66" ht="19.5" customHeight="1"/>
+    <row r="48" spans="1:66" ht="19.5" customHeight="1"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
-    <mergeCell ref="BH4:BN4"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BA5:BG5"/>
     <mergeCell ref="AD1:AR1"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
@@ -8573,9 +8757,17 @@
     <mergeCell ref="K5:Q5"/>
     <mergeCell ref="Y4:AE4"/>
     <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="BH4:BN4"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BA5:BG5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H40:H44 H8:H38">
+  <conditionalFormatting sqref="H41:H45 H8:H39">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8594,7 +8786,7 @@
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN44">
+  <conditionalFormatting sqref="K8:BN45">
     <cfRule type="expression" dxfId="2" priority="49">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
@@ -8602,7 +8794,7 @@
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN44">
+  <conditionalFormatting sqref="K6:BN45">
     <cfRule type="expression" dxfId="0" priority="3">
       <formula>K$6=TODAY()</formula>
     </cfRule>
@@ -8614,8 +8806,7 @@
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A37:B38 B32 B33:B35 B26:B29 B20:B23 B40 B39 F19 F25 F31 E37:I40 I20 I14 I13 I11 I12 I10 E43:E44 E41:I41 H32:I35 H26:I29 H21:I23 H19:I19 H25:I25 H31:I31" unlockedFormula="1"/>
-    <ignoredError sqref="A31 A25 A19" formula="1"/>
+    <ignoredError sqref="A38:B39 B40:B41 F18 F28 E44:E45 E38:I42 H33 H20:H22 H18 H28:H31" unlockedFormula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -8663,7 +8854,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H40:H44 H8:H38</xm:sqref>
+          <xm:sqref>H41:H45 H8:H39</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -8691,14 +8882,14 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1">
       <c r="A1" s="26" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="28"/>
     </row>
     <row r="2" spans="1:4" ht="14">
-      <c r="A2" s="155" t="s">
-        <v>48</v>
+      <c r="A2" s="154" t="s">
+        <v>46</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="2"/>
@@ -8709,37 +8900,37 @@
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" ht="18">
-      <c r="A4" s="156" t="s">
-        <v>78</v>
+      <c r="A4" s="155" t="s">
+        <v>75</v>
       </c>
       <c r="B4" s="25"/>
     </row>
     <row r="5" spans="1:4" s="2" customFormat="1" ht="60">
-      <c r="B5" s="157" t="s">
-        <v>79</v>
+      <c r="B5" s="156" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30">
-      <c r="B7" s="157" t="s">
-        <v>21</v>
+      <c r="B7" s="156" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14">
-      <c r="B9" s="155" t="s">
-        <v>60</v>
+      <c r="B9" s="154" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30">
-      <c r="B11" s="158" t="s">
-        <v>61</v>
+      <c r="B11" s="157" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="13" customFormat="1"/>
     <row r="13" spans="1:4" ht="18">
-      <c r="A13" s="246" t="s">
+      <c r="A13" s="233" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="246"/>
+      <c r="B13" s="233"/>
     </row>
     <row r="14" spans="1:4" s="2" customFormat="1">
       <c r="A14" s="13"/>
@@ -8748,312 +8939,312 @@
       <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:4" s="2" customFormat="1" ht="18">
-      <c r="A15" s="159"/>
-      <c r="B15" s="160" t="s">
+      <c r="A15" s="158"/>
+      <c r="B15" s="159" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="160"/>
+      <c r="D15" s="160"/>
+    </row>
+    <row r="16" spans="1:4" ht="18">
+      <c r="A16" s="158"/>
+      <c r="B16" s="161" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="160"/>
+      <c r="D16" s="160"/>
+    </row>
+    <row r="17" spans="1:4" ht="18">
+      <c r="A17" s="162"/>
+      <c r="B17" s="161" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18">
+      <c r="A18" s="162"/>
+      <c r="B18" s="161" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="161"/>
-      <c r="D15" s="161"/>
-    </row>
-    <row r="16" spans="1:4" ht="18">
-      <c r="A16" s="159"/>
-      <c r="B16" s="162" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="161"/>
-      <c r="D16" s="161"/>
-    </row>
-    <row r="17" spans="1:4" ht="18">
-      <c r="A17" s="163"/>
-      <c r="B17" s="162" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="18">
-      <c r="A18" s="163"/>
-      <c r="B18" s="162" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="19" spans="1:4" s="2" customFormat="1" ht="30">
-      <c r="A19" s="164"/>
-      <c r="B19" s="162" t="s">
-        <v>133</v>
+      <c r="A19" s="163"/>
+      <c r="B19" s="161" t="s">
+        <v>130</v>
       </c>
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
     </row>
     <row r="20" spans="1:4" ht="18">
-      <c r="A20" s="163"/>
-      <c r="B20" s="162" t="s">
-        <v>84</v>
+      <c r="A20" s="162"/>
+      <c r="B20" s="161" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="2" customFormat="1" ht="18">
-      <c r="A21" s="165"/>
-      <c r="B21" s="166" t="s">
-        <v>85</v>
+      <c r="A21" s="164"/>
+      <c r="B21" s="165" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="2" customFormat="1" ht="18">
-      <c r="A22" s="165"/>
+      <c r="A22" s="164"/>
       <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:4" ht="18">
-      <c r="A23" s="246" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" s="246"/>
+      <c r="A23" s="233" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="233"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" ht="45">
-      <c r="A24" s="165"/>
-      <c r="B24" s="162" t="s">
-        <v>87</v>
+      <c r="A24" s="164"/>
+      <c r="B24" s="161" t="s">
+        <v>84</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" ht="18">
-      <c r="A25" s="165"/>
-      <c r="B25" s="162"/>
+      <c r="A25" s="164"/>
+      <c r="B25" s="161"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" ht="18">
-      <c r="A26" s="165"/>
-      <c r="B26" s="167" t="s">
-        <v>88</v>
+      <c r="A26" s="164"/>
+      <c r="B26" s="166" t="s">
+        <v>85</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" ht="18">
-      <c r="A27" s="165"/>
-      <c r="B27" s="162" t="s">
-        <v>89</v>
+      <c r="A27" s="164"/>
+      <c r="B27" s="161" t="s">
+        <v>86</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" ht="30">
-      <c r="A28" s="165"/>
-      <c r="B28" s="162" t="s">
-        <v>90</v>
+      <c r="A28" s="164"/>
+      <c r="B28" s="161" t="s">
+        <v>87</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" ht="18">
-      <c r="A29" s="165"/>
-      <c r="B29" s="162"/>
+      <c r="A29" s="164"/>
+      <c r="B29" s="161"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" ht="18">
-      <c r="A30" s="165"/>
-      <c r="B30" s="167" t="s">
-        <v>91</v>
+      <c r="A30" s="164"/>
+      <c r="B30" s="166" t="s">
+        <v>88</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" ht="18">
-      <c r="A31" s="165"/>
-      <c r="B31" s="162" t="s">
-        <v>92</v>
+      <c r="A31" s="164"/>
+      <c r="B31" s="161" t="s">
+        <v>89</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" ht="18">
-      <c r="A32" s="165"/>
-      <c r="B32" s="162" t="s">
-        <v>93</v>
+      <c r="A32" s="164"/>
+      <c r="B32" s="161" t="s">
+        <v>90</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" ht="18">
-      <c r="A33" s="165"/>
+      <c r="A33" s="164"/>
       <c r="B33" s="4"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" ht="30">
-      <c r="A34" s="165"/>
-      <c r="B34" s="162" t="s">
-        <v>94</v>
+      <c r="A34" s="164"/>
+      <c r="B34" s="161" t="s">
+        <v>91</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" ht="18">
-      <c r="A35" s="165"/>
-      <c r="B35" s="168" t="s">
-        <v>95</v>
+      <c r="A35" s="164"/>
+      <c r="B35" s="167" t="s">
+        <v>92</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" ht="18">
-      <c r="A36" s="165"/>
+      <c r="A36" s="164"/>
       <c r="B36" s="4"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" ht="18">
-      <c r="A37" s="246" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="246"/>
+      <c r="A37" s="233" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="233"/>
     </row>
     <row r="38" spans="1:4" ht="30">
-      <c r="B38" s="162" t="s">
-        <v>96</v>
+      <c r="B38" s="161" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15">
-      <c r="B40" s="162" t="s">
-        <v>97</v>
+      <c r="B40" s="161" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:4" s="2" customFormat="1" ht="30">
       <c r="A42" s="13"/>
-      <c r="B42" s="162" t="s">
-        <v>98</v>
+      <c r="B42" s="161" t="s">
+        <v>95</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
     </row>
     <row r="44" spans="1:4" ht="30">
-      <c r="B44" s="162" t="s">
-        <v>99</v>
+      <c r="B44" s="161" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="B45" s="14"/>
     </row>
     <row r="46" spans="1:4" ht="30">
-      <c r="B46" s="162" t="s">
-        <v>100</v>
+      <c r="B46" s="161" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:4" ht="18">
-      <c r="A48" s="246" t="s">
+      <c r="A48" s="233" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="246"/>
+      <c r="B48" s="233"/>
     </row>
     <row r="49" spans="1:2" ht="30">
-      <c r="B49" s="162" t="s">
-        <v>101</v>
+      <c r="B49" s="161" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="B50" s="6"/>
     </row>
     <row r="51" spans="1:2" ht="15">
-      <c r="A51" s="169" t="s">
+      <c r="A51" s="168" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="161" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15">
+      <c r="A52" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="B51" s="162" t="s">
+      <c r="B52" s="161" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15">
-      <c r="A52" s="169" t="s">
+    <row r="53" spans="1:2" ht="15">
+      <c r="A53" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="162" t="s">
+      <c r="B53" s="161" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15">
-      <c r="A53" s="169" t="s">
+    <row r="54" spans="1:2" ht="30">
+      <c r="A54" s="157"/>
+      <c r="B54" s="161" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="30">
+      <c r="A55" s="157"/>
+      <c r="B55" s="161" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15">
+      <c r="A56" s="168" t="s">
         <v>14</v>
       </c>
-      <c r="B53" s="162" t="s">
+      <c r="B56" s="161" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="30">
-      <c r="A54" s="158"/>
-      <c r="B54" s="162" t="s">
+    <row r="57" spans="1:2" ht="15">
+      <c r="A57" s="157"/>
+      <c r="B57" s="161" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" s="13" customFormat="1" ht="15">
+      <c r="A58" s="157"/>
+      <c r="B58" s="161" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="30">
-      <c r="A55" s="158"/>
-      <c r="B55" s="162" t="s">
+    <row r="59" spans="1:2" s="13" customFormat="1" ht="15">
+      <c r="A59" s="168" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" s="161" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" s="13" customFormat="1" ht="30">
+      <c r="A60" s="157"/>
+      <c r="B60" s="161" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15">
-      <c r="A56" s="169" t="s">
-        <v>16</v>
-      </c>
-      <c r="B56" s="162" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="15">
-      <c r="A57" s="158"/>
-      <c r="B57" s="162" t="s">
+    <row r="61" spans="1:2" ht="15">
+      <c r="A61" s="168" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" s="13" customFormat="1" ht="15">
-      <c r="A58" s="158"/>
-      <c r="B58" s="162" t="s">
+      <c r="B61" s="161" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:2" s="13" customFormat="1" ht="15">
-      <c r="A59" s="169" t="s">
-        <v>18</v>
-      </c>
-      <c r="B59" s="162" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" s="13" customFormat="1" ht="30">
-      <c r="A60" s="158"/>
-      <c r="B60" s="162" t="s">
+    <row r="62" spans="1:2" s="13" customFormat="1" ht="15">
+      <c r="A62" s="169"/>
+      <c r="B62" s="161" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="15">
-      <c r="A61" s="169" t="s">
-        <v>107</v>
-      </c>
-      <c r="B61" s="162" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" s="13" customFormat="1" ht="15">
-      <c r="A62" s="170"/>
-      <c r="B62" s="162" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="63" spans="1:2" s="13" customFormat="1">
       <c r="B63" s="5"/>
     </row>
     <row r="64" spans="1:2" s="13" customFormat="1" ht="18">
-      <c r="A64" s="246" t="s">
-        <v>8</v>
-      </c>
-      <c r="B64" s="246"/>
+      <c r="A64" s="233" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="233"/>
     </row>
     <row r="65" spans="1:4" s="2" customFormat="1" ht="45">
       <c r="A65" s="13"/>
-      <c r="B65" s="162" t="s">
-        <v>110</v>
+      <c r="B65" s="161" t="s">
+        <v>107</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
@@ -9062,178 +9253,178 @@
       <c r="B66" s="6"/>
     </row>
     <row r="67" spans="1:4" s="2" customFormat="1" ht="18">
-      <c r="A67" s="246" t="s">
+      <c r="A67" s="233" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="246"/>
+      <c r="B67" s="233"/>
     </row>
     <row r="68" spans="1:4" s="2" customFormat="1" ht="15">
-      <c r="A68" s="171" t="s">
+      <c r="A68" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="B68" s="172" t="s">
-        <v>111</v>
+      <c r="B68" s="171" t="s">
+        <v>108</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
     </row>
     <row r="69" spans="1:4" ht="30">
-      <c r="A69" s="173"/>
-      <c r="B69" s="174" t="s">
-        <v>112</v>
+      <c r="A69" s="172"/>
+      <c r="B69" s="173" t="s">
+        <v>109</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
     <row r="70" spans="1:4" s="2" customFormat="1" ht="14">
-      <c r="A70" s="173"/>
-      <c r="B70" s="175"/>
+      <c r="A70" s="172"/>
+      <c r="B70" s="174"/>
     </row>
     <row r="71" spans="1:4" s="2" customFormat="1" ht="15">
-      <c r="A71" s="171" t="s">
+      <c r="A71" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="B71" s="172" t="s">
-        <v>113</v>
+      <c r="B71" s="171" t="s">
+        <v>110</v>
       </c>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
     </row>
     <row r="72" spans="1:4" s="2" customFormat="1" ht="30">
-      <c r="A72" s="173"/>
-      <c r="B72" s="174" t="s">
-        <v>114</v>
+      <c r="A72" s="172"/>
+      <c r="B72" s="173" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="2" customFormat="1" ht="14">
-      <c r="A73" s="173"/>
-      <c r="B73" s="175"/>
+      <c r="A73" s="172"/>
+      <c r="B73" s="174"/>
     </row>
     <row r="74" spans="1:4" ht="14">
-      <c r="A74" s="171" t="s">
+      <c r="A74" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="B74" s="176" t="s">
-        <v>115</v>
+      <c r="B74" s="175" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="30">
-      <c r="A75" s="173"/>
-      <c r="B75" s="157" t="s">
-        <v>116</v>
+      <c r="A75" s="172"/>
+      <c r="B75" s="156" t="s">
+        <v>113</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
     </row>
     <row r="76" spans="1:4" s="2" customFormat="1" ht="14">
-      <c r="A76" s="170"/>
-      <c r="B76" s="170"/>
+      <c r="A76" s="169"/>
+      <c r="B76" s="169"/>
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
     </row>
     <row r="77" spans="1:4" s="2" customFormat="1" ht="14">
-      <c r="A77" s="171" t="s">
+      <c r="A77" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="B77" s="176" t="s">
-        <v>117</v>
+      <c r="B77" s="175" t="s">
+        <v>114</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
     </row>
     <row r="78" spans="1:4" s="2" customFormat="1" ht="30">
-      <c r="A78" s="173"/>
-      <c r="B78" s="157" t="s">
+      <c r="A78" s="172"/>
+      <c r="B78" s="156" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="14">
+      <c r="A79" s="169"/>
+      <c r="B79" s="169"/>
+    </row>
+    <row r="80" spans="1:4" ht="14">
+      <c r="A80" s="170" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" s="175" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" s="2" customFormat="1" ht="15">
+      <c r="A81" s="172"/>
+      <c r="B81" s="176" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" s="2" customFormat="1" ht="15">
+      <c r="A82" s="172"/>
+      <c r="B82" s="176" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="14">
-      <c r="A79" s="170"/>
-      <c r="B79" s="170"/>
-    </row>
-    <row r="80" spans="1:4" ht="14">
-      <c r="A80" s="171" t="s">
+    <row r="83" spans="1:4" s="2" customFormat="1" ht="15">
+      <c r="A83" s="172"/>
+      <c r="B83" s="176" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="14">
+      <c r="A84" s="169"/>
+      <c r="B84" s="177"/>
+    </row>
+    <row r="85" spans="1:4" ht="14">
+      <c r="A85" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="B80" s="176" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" s="2" customFormat="1" ht="15">
-      <c r="A81" s="173"/>
-      <c r="B81" s="177" t="s">
+      <c r="B85" s="175" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="82" spans="1:4" s="2" customFormat="1" ht="15">
-      <c r="A82" s="173"/>
-      <c r="B82" s="177" t="s">
+    <row r="86" spans="1:4" ht="45">
+      <c r="A86" s="172"/>
+      <c r="B86" s="156" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" s="2" customFormat="1" ht="15">
-      <c r="A83" s="173"/>
-      <c r="B83" s="177" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="14">
-      <c r="A84" s="170"/>
-      <c r="B84" s="178"/>
-    </row>
-    <row r="85" spans="1:4" ht="14">
-      <c r="A85" s="171" t="s">
-        <v>4</v>
-      </c>
-      <c r="B85" s="176" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="45">
-      <c r="A86" s="173"/>
-      <c r="B86" s="157" t="s">
-        <v>124</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
     </row>
     <row r="87" spans="1:4" ht="15">
-      <c r="A87" s="173"/>
-      <c r="B87" s="179" t="s">
-        <v>125</v>
+      <c r="A87" s="172"/>
+      <c r="B87" s="178" t="s">
+        <v>122</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
     </row>
     <row r="88" spans="1:4" ht="45">
-      <c r="A88" s="173"/>
-      <c r="B88" s="180" t="s">
-        <v>126</v>
+      <c r="A88" s="172"/>
+      <c r="B88" s="179" t="s">
+        <v>123</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
     </row>
     <row r="89" spans="1:4" ht="14">
-      <c r="A89" s="170"/>
-      <c r="B89" s="170"/>
+      <c r="A89" s="169"/>
+      <c r="B89" s="169"/>
     </row>
     <row r="90" spans="1:4" ht="14">
-      <c r="A90" s="171" t="s">
+      <c r="A90" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="B90" s="181" t="s">
-        <v>127</v>
+      <c r="B90" s="180" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="30">
-      <c r="A91" s="158"/>
-      <c r="B91" s="177" t="s">
-        <v>20</v>
+      <c r="A91" s="157"/>
+      <c r="B91" s="176" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -9279,17 +9470,17 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1">
       <c r="A1" s="21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="C4" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="C5" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -9297,149 +9488,149 @@
     </row>
     <row r="7" spans="1:3" ht="18">
       <c r="C7" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="C8" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="C10" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="C11" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18">
       <c r="C13" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16">
       <c r="A16" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="2:2" s="9" customFormat="1"/>
     <row r="18" spans="2:2" ht="14">
       <c r="B18" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="2:2" s="9" customFormat="1" ht="14">
       <c r="B22" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="2:2" s="9" customFormat="1">
       <c r="B23" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="2:2" s="9" customFormat="1">
       <c r="B24" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="2:2" s="9" customFormat="1" ht="14">
       <c r="B26" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="2:2" s="9" customFormat="1">
       <c r="B27" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="2:2" s="9" customFormat="1">
       <c r="B28" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="14">
       <c r="B34" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="14">
       <c r="B39" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="2:2" s="9" customFormat="1" ht="14">
       <c r="B42" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="2:2" s="9" customFormat="1">
       <c r="B43" s="13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="2:2" s="9" customFormat="1">
       <c r="B44" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="2:2" s="9" customFormat="1"/>
     <row r="46" spans="2:2" ht="18">
       <c r="B46" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -9471,7 +9662,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1">
       <c r="A1" s="26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="31"/>
@@ -9486,14 +9677,14 @@
     <row r="3" spans="1:4" ht="17">
       <c r="A3" s="29"/>
       <c r="B3" s="22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3" s="30"/>
     </row>
     <row r="4" spans="1:4" ht="15">
       <c r="A4" s="7"/>
       <c r="B4" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" s="8"/>
     </row>
@@ -9505,7 +9696,7 @@
     <row r="6" spans="1:4" ht="17">
       <c r="A6" s="7"/>
       <c r="B6" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C6" s="8"/>
     </row>
@@ -9517,7 +9708,7 @@
     <row r="8" spans="1:4" ht="34">
       <c r="A8" s="7"/>
       <c r="B8" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="8"/>
     </row>
@@ -9529,7 +9720,7 @@
     <row r="10" spans="1:4" ht="51">
       <c r="A10" s="7"/>
       <c r="B10" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" s="8"/>
     </row>
@@ -9541,7 +9732,7 @@
     <row r="12" spans="1:4" ht="51">
       <c r="A12" s="7"/>
       <c r="B12" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" s="8"/>
     </row>
@@ -9553,7 +9744,7 @@
     <row r="14" spans="1:4" ht="51">
       <c r="A14" s="7"/>
       <c r="B14" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" s="8"/>
     </row>
@@ -9565,7 +9756,7 @@
     <row r="16" spans="1:4" ht="34">
       <c r="A16" s="7"/>
       <c r="B16" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C16" s="8"/>
     </row>
@@ -9577,14 +9768,14 @@
     <row r="18" spans="1:3" ht="17">
       <c r="A18" s="7"/>
       <c r="B18" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:3" ht="17">
       <c r="A19" s="7"/>
       <c r="B19" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C19" s="8"/>
     </row>

--- a/Fundamentacao/gantt_previsao.xlsx
+++ b/Fundamentacao/gantt_previsao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joao/Desktop/Desktop_iCloud/Universidade/3ºano/2ºsemestre/LI4/MyChef/Fundamentacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4FA7C5-AD93-B042-A19B-3E42D03D2B65}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99793A16-2F8E-FA4C-9E10-3F14D7C3CB44}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="TermsOfUse" sheetId="11" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">GanttChartPro!$A$1:$C$47</definedName>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
@@ -335,7 +335,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -344,18 +344,27 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-The duration is the number of calendar days for the given task. The duration is calculated as the </t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The duration is the number of calendar days for the given task. The duration is calculated as the </t>
         </r>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -364,7 +373,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -374,7 +383,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -383,7 +392,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -394,7 +403,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -403,7 +412,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -482,12 +491,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="175">
   <si>
     <t>WBS</t>
-  </si>
-  <si>
-    <t>TEMPLATE ROWS</t>
   </si>
   <si>
     <t>Getting Started Tips</t>
@@ -726,18 +732,6 @@
     <t>Please read the license agreement in the TermsOfUse worksheet to learn how you may or may not use and share this spreadsheet.</t>
   </si>
   <si>
-    <t>[ Level 1 Task, Category, or Phase ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> . [ Level 2 Task ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> . . [ Level 3 Task ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> . . . [ Level 4 Task ]</t>
-  </si>
-  <si>
     <t>TASK</t>
   </si>
   <si>
@@ -763,9 +757,6 @@
   </si>
   <si>
     <t>Project Lead</t>
-  </si>
-  <si>
-    <t>See the Help worksheet to learn how to use these template rows. You can hide these rows before printing.</t>
   </si>
   <si>
     <t>Help</t>
@@ -1675,7 +1666,7 @@
     <numFmt numFmtId="166" formatCode="d"/>
     <numFmt numFmtId="167" formatCode="d\ mmm\ yyyy"/>
   </numFmts>
-  <fonts count="91">
+  <fonts count="88">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1914,12 +1905,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="1"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="Arial"/>
@@ -2086,13 +2071,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="1"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="8"/>
       <color theme="4" tint="-0.249977111117893"/>
@@ -2126,12 +2104,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3137,7 +3109,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="261">
+  <cellXfs count="248">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -3230,7 +3202,7 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3242,16 +3214,10 @@
     <xf numFmtId="0" fontId="37" fillId="20" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="37" fillId="20" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="37" fillId="20" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3266,9 +3232,6 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -3281,526 +3244,496 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="43" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="46" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="45" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="40" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="39" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="40" fillId="22" borderId="11" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="39" fillId="22" borderId="11" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="27" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="47" fillId="27" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="47" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="47" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="27" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="47" fillId="27" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="47" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="26" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="49" fillId="26" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="26" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="50" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="52" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="52" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="52" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="49" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="49" fillId="26" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="49" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="51" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="51" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="51" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="48" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="43" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="51" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="42" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="42" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="25" borderId="0" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="52" fillId="25" borderId="0" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="26" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="49" fillId="26" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="26" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="49" fillId="26" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="26" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="49" fillId="26" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="26" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="49" fillId="26" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="166" fontId="49" fillId="23" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="48" fillId="23" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="166" fontId="49" fillId="23" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="48" fillId="23" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="166" fontId="49" fillId="23" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="48" fillId="23" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="166" fontId="49" fillId="23" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="48" fillId="23" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="166" fontId="49" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="48" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="166" fontId="49" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="48" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="166" fontId="49" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="48" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="166" fontId="49" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="48" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="166" fontId="49" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="48" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="166" fontId="49" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="48" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="166" fontId="49" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="48" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="166" fontId="49" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="48" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="166" fontId="49" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="48" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="166" fontId="49" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="48" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="166" fontId="49" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="48" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="57" fillId="20" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="56" fillId="20" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="47" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="57" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="56" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="56" fillId="20" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="58" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="57" fillId="20" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="59" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="53" fillId="20" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="20" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="59" fillId="20" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="20" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="21" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="20" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="60" fillId="20" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="59" fillId="20" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="61" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="60" fillId="20" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="63" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="60" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="61" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="23" borderId="0" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="62" fillId="23" borderId="0" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="64" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="56" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="56" fillId="20" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="56" fillId="20" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="56" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="66" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="66" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="67" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="22" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="23" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="57" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="57" fillId="20" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="57" fillId="20" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="57" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="27" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="69" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="69" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="69" fillId="23" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="22" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="23" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="34" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="23" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="34" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="57" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="56" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="40" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="39" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="40" fillId="22" borderId="0" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="39" fillId="22" borderId="0" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="57" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="56" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="56" fillId="20" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="55" fillId="20" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="59" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="58" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="59" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="58" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="59" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="58" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="67" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="67" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="67" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="50" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="50" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="50" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="50" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="50" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="67" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="67" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="50" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="50" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="67" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="67" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="67" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="67" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="50" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="50" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="24" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="81" fillId="24" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="67" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="67" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="50" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="50" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="67" fillId="23" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="67" fillId="23" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="70" fillId="22" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="67" fillId="22" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="70" fillId="22" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="67" fillId="22" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="70" fillId="22" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="67" fillId="22" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="67" fillId="23" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="50" fillId="23" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="50" fillId="23" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="50" fillId="23" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="67" fillId="23" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="67" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="50" fillId="23" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="51" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="50" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="59" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="58" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="57" fillId="21" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="56" fillId="21" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="55" fillId="20" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="56" fillId="20" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="57" fillId="20" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="56" fillId="20" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="56" fillId="21" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="57" fillId="20" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="39" fillId="22" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="56" fillId="21" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="57" fillId="21" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="39" fillId="22" borderId="57" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="40" fillId="22" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="57" fillId="21" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="40" fillId="22" borderId="57" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="57" fillId="21" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="56" fillId="21" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3809,40 +3742,40 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="40" fillId="22" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="39" fillId="22" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="40" fillId="22" borderId="53" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="39" fillId="22" borderId="53" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="40" fillId="22" borderId="45" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="39" fillId="22" borderId="45" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="40" fillId="22" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="39" fillId="22" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="90" fillId="22" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="87" fillId="22" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="40" fillId="22" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="39" fillId="22" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="40" fillId="22" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="39" fillId="22" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="40" fillId="22" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="39" fillId="22" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="37" fillId="20" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="40" fillId="22" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="39" fillId="22" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="40" fillId="22" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="39" fillId="22" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="40" fillId="22" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="39" fillId="22" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="37" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4676,11 +4609,11 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:ET48"/>
+  <dimension ref="A1:ET41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BP7" sqref="BP7"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
@@ -4698,930 +4631,930 @@
     <col min="67" max="16384" width="9.1640625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:150" s="66" customFormat="1" ht="33" customHeight="1">
-      <c r="A1" s="153" t="s">
-        <v>180</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
-      <c r="AD1" s="215"/>
-      <c r="AE1" s="215"/>
-      <c r="AF1" s="215"/>
-      <c r="AG1" s="215"/>
-      <c r="AH1" s="215"/>
-      <c r="AI1" s="215"/>
-      <c r="AJ1" s="215"/>
-      <c r="AK1" s="215"/>
-      <c r="AL1" s="215"/>
-      <c r="AM1" s="215"/>
-      <c r="AN1" s="215"/>
-      <c r="AO1" s="215"/>
-      <c r="AP1" s="215"/>
-      <c r="AQ1" s="215"/>
-      <c r="AR1" s="215"/>
-      <c r="AS1" s="64"/>
-      <c r="AT1" s="64"/>
-      <c r="AU1" s="64"/>
-      <c r="AV1" s="64"/>
-      <c r="AW1" s="64"/>
-      <c r="AX1" s="64"/>
-      <c r="AY1" s="64"/>
-      <c r="AZ1" s="64"/>
-      <c r="BA1" s="64"/>
-      <c r="BB1" s="64"/>
-      <c r="BC1" s="64"/>
-      <c r="BD1" s="64"/>
-      <c r="BE1" s="64"/>
-      <c r="BF1" s="64"/>
-      <c r="BG1" s="64"/>
-      <c r="BH1" s="64"/>
-      <c r="BI1" s="64"/>
-      <c r="BJ1" s="64"/>
-      <c r="BK1" s="64"/>
-      <c r="BL1" s="64"/>
-      <c r="BM1" s="64"/>
-      <c r="BN1" s="64"/>
-    </row>
-    <row r="2" spans="1:150" s="88" customFormat="1" ht="21" customHeight="1">
-      <c r="A2" s="147" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="87"/>
-    </row>
-    <row r="3" spans="1:150" s="131" customFormat="1" ht="6.75" customHeight="1" thickBot="1">
-      <c r="A3" s="126"/>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="130"/>
-      <c r="K3" s="150"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="151"/>
-      <c r="N3" s="151"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="151"/>
-      <c r="Q3" s="152"/>
-      <c r="R3" s="150"/>
-      <c r="S3" s="151"/>
-      <c r="T3" s="151"/>
-      <c r="U3" s="151"/>
-      <c r="V3" s="151"/>
-      <c r="W3" s="151"/>
-      <c r="X3" s="152"/>
-      <c r="Y3" s="150"/>
-      <c r="Z3" s="151"/>
-      <c r="AA3" s="151"/>
-      <c r="AB3" s="151"/>
-      <c r="AC3" s="151"/>
-      <c r="AD3" s="151"/>
-      <c r="AE3" s="152"/>
-      <c r="AF3" s="150"/>
-      <c r="AG3" s="151"/>
-      <c r="AH3" s="151"/>
-      <c r="AI3" s="151"/>
-      <c r="AJ3" s="151"/>
-      <c r="AK3" s="151"/>
-      <c r="AL3" s="152"/>
-      <c r="AM3" s="150"/>
-      <c r="AN3" s="151"/>
-      <c r="AO3" s="151"/>
-      <c r="AP3" s="151"/>
-      <c r="AQ3" s="151"/>
-      <c r="AR3" s="151"/>
-      <c r="AS3" s="152"/>
-      <c r="AT3" s="150"/>
-      <c r="AU3" s="151"/>
-      <c r="AV3" s="151"/>
-      <c r="AW3" s="151"/>
-      <c r="AX3" s="151"/>
-      <c r="AY3" s="151"/>
-      <c r="AZ3" s="152"/>
-      <c r="BA3" s="150"/>
-      <c r="BB3" s="151"/>
-      <c r="BC3" s="151"/>
-      <c r="BD3" s="151"/>
-      <c r="BE3" s="151"/>
-      <c r="BF3" s="151"/>
-      <c r="BG3" s="152"/>
-      <c r="BH3" s="150"/>
-      <c r="BI3" s="151"/>
-      <c r="BJ3" s="151"/>
-      <c r="BK3" s="151"/>
-      <c r="BL3" s="151"/>
-      <c r="BM3" s="151"/>
-      <c r="BN3" s="152"/>
-    </row>
-    <row r="4" spans="1:150" s="143" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A4" s="145"/>
-      <c r="B4" s="148" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="222">
+    <row r="1" spans="1:150" s="63" customFormat="1" ht="33" customHeight="1">
+      <c r="A1" s="140" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="202"/>
+      <c r="AE1" s="202"/>
+      <c r="AF1" s="202"/>
+      <c r="AG1" s="202"/>
+      <c r="AH1" s="202"/>
+      <c r="AI1" s="202"/>
+      <c r="AJ1" s="202"/>
+      <c r="AK1" s="202"/>
+      <c r="AL1" s="202"/>
+      <c r="AM1" s="202"/>
+      <c r="AN1" s="202"/>
+      <c r="AO1" s="202"/>
+      <c r="AP1" s="202"/>
+      <c r="AQ1" s="202"/>
+      <c r="AR1" s="202"/>
+      <c r="AS1" s="61"/>
+      <c r="AT1" s="61"/>
+      <c r="AU1" s="61"/>
+      <c r="AV1" s="61"/>
+      <c r="AW1" s="61"/>
+      <c r="AX1" s="61"/>
+      <c r="AY1" s="61"/>
+      <c r="AZ1" s="61"/>
+      <c r="BA1" s="61"/>
+      <c r="BB1" s="61"/>
+      <c r="BC1" s="61"/>
+      <c r="BD1" s="61"/>
+      <c r="BE1" s="61"/>
+      <c r="BF1" s="61"/>
+      <c r="BG1" s="61"/>
+      <c r="BH1" s="61"/>
+      <c r="BI1" s="61"/>
+      <c r="BJ1" s="61"/>
+      <c r="BK1" s="61"/>
+      <c r="BL1" s="61"/>
+      <c r="BM1" s="61"/>
+      <c r="BN1" s="61"/>
+    </row>
+    <row r="2" spans="1:150" s="85" customFormat="1" ht="21" customHeight="1">
+      <c r="A2" s="134" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="84"/>
+    </row>
+    <row r="3" spans="1:150" s="125" customFormat="1" ht="6.75" customHeight="1" thickBot="1">
+      <c r="A3" s="120"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="124"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="138"/>
+      <c r="M3" s="138"/>
+      <c r="N3" s="138"/>
+      <c r="O3" s="138"/>
+      <c r="P3" s="138"/>
+      <c r="Q3" s="139"/>
+      <c r="R3" s="137"/>
+      <c r="S3" s="138"/>
+      <c r="T3" s="138"/>
+      <c r="U3" s="138"/>
+      <c r="V3" s="138"/>
+      <c r="W3" s="138"/>
+      <c r="X3" s="139"/>
+      <c r="Y3" s="137"/>
+      <c r="Z3" s="138"/>
+      <c r="AA3" s="138"/>
+      <c r="AB3" s="138"/>
+      <c r="AC3" s="138"/>
+      <c r="AD3" s="138"/>
+      <c r="AE3" s="139"/>
+      <c r="AF3" s="137"/>
+      <c r="AG3" s="138"/>
+      <c r="AH3" s="138"/>
+      <c r="AI3" s="138"/>
+      <c r="AJ3" s="138"/>
+      <c r="AK3" s="138"/>
+      <c r="AL3" s="139"/>
+      <c r="AM3" s="137"/>
+      <c r="AN3" s="138"/>
+      <c r="AO3" s="138"/>
+      <c r="AP3" s="138"/>
+      <c r="AQ3" s="138"/>
+      <c r="AR3" s="138"/>
+      <c r="AS3" s="139"/>
+      <c r="AT3" s="137"/>
+      <c r="AU3" s="138"/>
+      <c r="AV3" s="138"/>
+      <c r="AW3" s="138"/>
+      <c r="AX3" s="138"/>
+      <c r="AY3" s="138"/>
+      <c r="AZ3" s="139"/>
+      <c r="BA3" s="137"/>
+      <c r="BB3" s="138"/>
+      <c r="BC3" s="138"/>
+      <c r="BD3" s="138"/>
+      <c r="BE3" s="138"/>
+      <c r="BF3" s="138"/>
+      <c r="BG3" s="139"/>
+      <c r="BH3" s="137"/>
+      <c r="BI3" s="138"/>
+      <c r="BJ3" s="138"/>
+      <c r="BK3" s="138"/>
+      <c r="BL3" s="138"/>
+      <c r="BM3" s="138"/>
+      <c r="BN3" s="139"/>
+    </row>
+    <row r="4" spans="1:150" s="130" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A4" s="132"/>
+      <c r="B4" s="135" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="209">
         <v>43507</v>
       </c>
-      <c r="D4" s="223"/>
-      <c r="E4" s="224"/>
-      <c r="H4" s="148" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="149">
+      <c r="D4" s="210"/>
+      <c r="E4" s="211"/>
+      <c r="H4" s="135" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="136">
         <v>1</v>
       </c>
-      <c r="K4" s="220" t="str">
+      <c r="K4" s="207" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="198"/>
-      <c r="M4" s="198"/>
-      <c r="N4" s="198"/>
-      <c r="O4" s="198"/>
-      <c r="P4" s="198"/>
-      <c r="Q4" s="225"/>
-      <c r="R4" s="220" t="str">
+      <c r="L4" s="185"/>
+      <c r="M4" s="185"/>
+      <c r="N4" s="185"/>
+      <c r="O4" s="185"/>
+      <c r="P4" s="185"/>
+      <c r="Q4" s="212"/>
+      <c r="R4" s="207" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="198"/>
-      <c r="T4" s="198"/>
-      <c r="U4" s="198"/>
-      <c r="V4" s="198"/>
-      <c r="W4" s="198"/>
-      <c r="X4" s="221"/>
-      <c r="Y4" s="229" t="str">
+      <c r="S4" s="185"/>
+      <c r="T4" s="185"/>
+      <c r="U4" s="185"/>
+      <c r="V4" s="185"/>
+      <c r="W4" s="185"/>
+      <c r="X4" s="208"/>
+      <c r="Y4" s="216" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="198"/>
-      <c r="AA4" s="198"/>
-      <c r="AB4" s="198"/>
-      <c r="AC4" s="198"/>
-      <c r="AD4" s="198"/>
-      <c r="AE4" s="230"/>
-      <c r="AF4" s="216" t="str">
+      <c r="Z4" s="185"/>
+      <c r="AA4" s="185"/>
+      <c r="AB4" s="185"/>
+      <c r="AC4" s="185"/>
+      <c r="AD4" s="185"/>
+      <c r="AE4" s="217"/>
+      <c r="AF4" s="203" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="198"/>
-      <c r="AH4" s="198"/>
-      <c r="AI4" s="198"/>
-      <c r="AJ4" s="198"/>
-      <c r="AK4" s="198"/>
-      <c r="AL4" s="217"/>
-      <c r="AM4" s="209" t="str">
+      <c r="AG4" s="185"/>
+      <c r="AH4" s="185"/>
+      <c r="AI4" s="185"/>
+      <c r="AJ4" s="185"/>
+      <c r="AK4" s="185"/>
+      <c r="AL4" s="204"/>
+      <c r="AM4" s="196" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="198"/>
-      <c r="AO4" s="198"/>
-      <c r="AP4" s="198"/>
-      <c r="AQ4" s="198"/>
-      <c r="AR4" s="198"/>
-      <c r="AS4" s="210"/>
-      <c r="AT4" s="205" t="str">
+      <c r="AN4" s="185"/>
+      <c r="AO4" s="185"/>
+      <c r="AP4" s="185"/>
+      <c r="AQ4" s="185"/>
+      <c r="AR4" s="185"/>
+      <c r="AS4" s="197"/>
+      <c r="AT4" s="192" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="198"/>
-      <c r="AV4" s="198"/>
-      <c r="AW4" s="198"/>
-      <c r="AX4" s="198"/>
-      <c r="AY4" s="198"/>
-      <c r="AZ4" s="206"/>
-      <c r="BA4" s="211" t="str">
+      <c r="AU4" s="185"/>
+      <c r="AV4" s="185"/>
+      <c r="AW4" s="185"/>
+      <c r="AX4" s="185"/>
+      <c r="AY4" s="185"/>
+      <c r="AZ4" s="193"/>
+      <c r="BA4" s="198" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="198"/>
-      <c r="BC4" s="198"/>
-      <c r="BD4" s="198"/>
-      <c r="BE4" s="198"/>
-      <c r="BF4" s="198"/>
-      <c r="BG4" s="212"/>
-      <c r="BH4" s="197" t="str">
+      <c r="BB4" s="185"/>
+      <c r="BC4" s="185"/>
+      <c r="BD4" s="185"/>
+      <c r="BE4" s="185"/>
+      <c r="BF4" s="185"/>
+      <c r="BG4" s="199"/>
+      <c r="BH4" s="184" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="198"/>
-      <c r="BJ4" s="198"/>
-      <c r="BK4" s="198"/>
-      <c r="BL4" s="198"/>
-      <c r="BM4" s="198"/>
-      <c r="BN4" s="199"/>
-    </row>
-    <row r="5" spans="1:150" s="83" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A5" s="146"/>
-      <c r="B5" s="148" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="222"/>
-      <c r="D5" s="223"/>
-      <c r="E5" s="224"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="226">
+      <c r="BI4" s="185"/>
+      <c r="BJ4" s="185"/>
+      <c r="BK4" s="185"/>
+      <c r="BL4" s="185"/>
+      <c r="BM4" s="185"/>
+      <c r="BN4" s="186"/>
+    </row>
+    <row r="5" spans="1:150" s="80" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A5" s="133"/>
+      <c r="B5" s="135" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="209"/>
+      <c r="D5" s="210"/>
+      <c r="E5" s="211"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="213">
         <f>K6</f>
         <v>43507</v>
       </c>
-      <c r="L5" s="201"/>
-      <c r="M5" s="201"/>
-      <c r="N5" s="201"/>
-      <c r="O5" s="201"/>
-      <c r="P5" s="201"/>
-      <c r="Q5" s="228"/>
-      <c r="R5" s="226">
+      <c r="L5" s="188"/>
+      <c r="M5" s="188"/>
+      <c r="N5" s="188"/>
+      <c r="O5" s="188"/>
+      <c r="P5" s="188"/>
+      <c r="Q5" s="215"/>
+      <c r="R5" s="213">
         <f>R6</f>
         <v>43514</v>
       </c>
-      <c r="S5" s="201"/>
-      <c r="T5" s="201"/>
-      <c r="U5" s="201"/>
-      <c r="V5" s="201"/>
-      <c r="W5" s="201"/>
-      <c r="X5" s="227"/>
-      <c r="Y5" s="231">
+      <c r="S5" s="188"/>
+      <c r="T5" s="188"/>
+      <c r="U5" s="188"/>
+      <c r="V5" s="188"/>
+      <c r="W5" s="188"/>
+      <c r="X5" s="214"/>
+      <c r="Y5" s="218">
         <f>Y6</f>
         <v>43521</v>
       </c>
-      <c r="Z5" s="201"/>
-      <c r="AA5" s="201"/>
-      <c r="AB5" s="201"/>
-      <c r="AC5" s="201"/>
-      <c r="AD5" s="201"/>
-      <c r="AE5" s="232"/>
-      <c r="AF5" s="218">
+      <c r="Z5" s="188"/>
+      <c r="AA5" s="188"/>
+      <c r="AB5" s="188"/>
+      <c r="AC5" s="188"/>
+      <c r="AD5" s="188"/>
+      <c r="AE5" s="219"/>
+      <c r="AF5" s="205">
         <f>AF6</f>
         <v>43528</v>
       </c>
-      <c r="AG5" s="201"/>
-      <c r="AH5" s="201"/>
-      <c r="AI5" s="201"/>
-      <c r="AJ5" s="201"/>
-      <c r="AK5" s="201"/>
-      <c r="AL5" s="219"/>
-      <c r="AM5" s="203">
+      <c r="AG5" s="188"/>
+      <c r="AH5" s="188"/>
+      <c r="AI5" s="188"/>
+      <c r="AJ5" s="188"/>
+      <c r="AK5" s="188"/>
+      <c r="AL5" s="206"/>
+      <c r="AM5" s="190">
         <f>AM6</f>
         <v>43535</v>
       </c>
-      <c r="AN5" s="201"/>
-      <c r="AO5" s="201"/>
-      <c r="AP5" s="201"/>
-      <c r="AQ5" s="201"/>
-      <c r="AR5" s="201"/>
-      <c r="AS5" s="204"/>
-      <c r="AT5" s="207">
+      <c r="AN5" s="188"/>
+      <c r="AO5" s="188"/>
+      <c r="AP5" s="188"/>
+      <c r="AQ5" s="188"/>
+      <c r="AR5" s="188"/>
+      <c r="AS5" s="191"/>
+      <c r="AT5" s="194">
         <f>AT6</f>
         <v>43542</v>
       </c>
-      <c r="AU5" s="201"/>
-      <c r="AV5" s="201"/>
-      <c r="AW5" s="201"/>
-      <c r="AX5" s="201"/>
-      <c r="AY5" s="201"/>
-      <c r="AZ5" s="208"/>
-      <c r="BA5" s="213">
+      <c r="AU5" s="188"/>
+      <c r="AV5" s="188"/>
+      <c r="AW5" s="188"/>
+      <c r="AX5" s="188"/>
+      <c r="AY5" s="188"/>
+      <c r="AZ5" s="195"/>
+      <c r="BA5" s="200">
         <f>BA6</f>
         <v>43549</v>
       </c>
-      <c r="BB5" s="201"/>
-      <c r="BC5" s="201"/>
-      <c r="BD5" s="201"/>
-      <c r="BE5" s="201"/>
-      <c r="BF5" s="201"/>
-      <c r="BG5" s="214"/>
-      <c r="BH5" s="200">
+      <c r="BB5" s="188"/>
+      <c r="BC5" s="188"/>
+      <c r="BD5" s="188"/>
+      <c r="BE5" s="188"/>
+      <c r="BF5" s="188"/>
+      <c r="BG5" s="201"/>
+      <c r="BH5" s="187">
         <f>BH6</f>
         <v>43556</v>
       </c>
-      <c r="BI5" s="201"/>
-      <c r="BJ5" s="201"/>
-      <c r="BK5" s="201"/>
-      <c r="BL5" s="201"/>
-      <c r="BM5" s="201"/>
-      <c r="BN5" s="202"/>
-    </row>
-    <row r="6" spans="1:150" s="81" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A6" s="77"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="93">
+      <c r="BI5" s="188"/>
+      <c r="BJ5" s="188"/>
+      <c r="BK5" s="188"/>
+      <c r="BL5" s="188"/>
+      <c r="BM5" s="188"/>
+      <c r="BN5" s="189"/>
+    </row>
+    <row r="6" spans="1:150" s="78" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A6" s="74"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="90">
         <f>C4-WEEKDAY(C4,1)+2+7*(I4-1)</f>
         <v>43507</v>
       </c>
-      <c r="L6" s="80">
+      <c r="L6" s="77">
         <f t="shared" ref="L6:AQ6" si="0">K6+1</f>
         <v>43508</v>
       </c>
-      <c r="M6" s="80">
+      <c r="M6" s="77">
         <f t="shared" si="0"/>
         <v>43509</v>
       </c>
-      <c r="N6" s="80">
+      <c r="N6" s="77">
         <f t="shared" si="0"/>
         <v>43510</v>
       </c>
-      <c r="O6" s="80">
+      <c r="O6" s="77">
         <f t="shared" si="0"/>
         <v>43511</v>
       </c>
-      <c r="P6" s="80">
+      <c r="P6" s="77">
         <f t="shared" si="0"/>
         <v>43512</v>
       </c>
-      <c r="Q6" s="94">
+      <c r="Q6" s="91">
         <f t="shared" si="0"/>
         <v>43513</v>
       </c>
-      <c r="R6" s="93">
+      <c r="R6" s="90">
         <f t="shared" si="0"/>
         <v>43514</v>
       </c>
-      <c r="S6" s="80">
+      <c r="S6" s="77">
         <f t="shared" si="0"/>
         <v>43515</v>
       </c>
-      <c r="T6" s="80">
+      <c r="T6" s="77">
         <f t="shared" si="0"/>
         <v>43516</v>
       </c>
-      <c r="U6" s="80">
+      <c r="U6" s="77">
         <f t="shared" ref="U6" si="1">T6+1</f>
         <v>43517</v>
       </c>
-      <c r="V6" s="80">
+      <c r="V6" s="77">
         <f t="shared" ref="V6" si="2">U6+1</f>
         <v>43518</v>
       </c>
-      <c r="W6" s="80">
+      <c r="W6" s="77">
         <f t="shared" ref="W6" si="3">V6+1</f>
         <v>43519</v>
       </c>
-      <c r="X6" s="95">
+      <c r="X6" s="92">
         <f t="shared" si="0"/>
         <v>43520</v>
       </c>
-      <c r="Y6" s="96">
+      <c r="Y6" s="93">
         <f t="shared" si="0"/>
         <v>43521</v>
       </c>
-      <c r="Z6" s="80">
+      <c r="Z6" s="77">
         <f t="shared" si="0"/>
         <v>43522</v>
       </c>
-      <c r="AA6" s="80">
+      <c r="AA6" s="77">
         <f t="shared" si="0"/>
         <v>43523</v>
       </c>
-      <c r="AB6" s="80">
+      <c r="AB6" s="77">
         <f t="shared" si="0"/>
         <v>43524</v>
       </c>
-      <c r="AC6" s="80">
+      <c r="AC6" s="77">
         <f t="shared" si="0"/>
         <v>43525</v>
       </c>
-      <c r="AD6" s="80">
+      <c r="AD6" s="77">
         <f t="shared" si="0"/>
         <v>43526</v>
       </c>
-      <c r="AE6" s="97">
+      <c r="AE6" s="94">
         <f t="shared" si="0"/>
         <v>43527</v>
       </c>
-      <c r="AF6" s="98">
+      <c r="AF6" s="95">
         <f t="shared" si="0"/>
         <v>43528</v>
       </c>
-      <c r="AG6" s="80">
+      <c r="AG6" s="77">
         <f t="shared" si="0"/>
         <v>43529</v>
       </c>
-      <c r="AH6" s="80">
+      <c r="AH6" s="77">
         <f t="shared" si="0"/>
         <v>43530</v>
       </c>
-      <c r="AI6" s="80">
+      <c r="AI6" s="77">
         <f t="shared" si="0"/>
         <v>43531</v>
       </c>
-      <c r="AJ6" s="80">
+      <c r="AJ6" s="77">
         <f t="shared" si="0"/>
         <v>43532</v>
       </c>
-      <c r="AK6" s="80">
+      <c r="AK6" s="77">
         <f t="shared" si="0"/>
         <v>43533</v>
       </c>
-      <c r="AL6" s="99">
+      <c r="AL6" s="96">
         <f t="shared" si="0"/>
         <v>43534</v>
       </c>
-      <c r="AM6" s="100">
+      <c r="AM6" s="97">
         <f t="shared" si="0"/>
         <v>43535</v>
       </c>
-      <c r="AN6" s="80">
+      <c r="AN6" s="77">
         <f t="shared" si="0"/>
         <v>43536</v>
       </c>
-      <c r="AO6" s="80">
+      <c r="AO6" s="77">
         <f t="shared" si="0"/>
         <v>43537</v>
       </c>
-      <c r="AP6" s="80">
+      <c r="AP6" s="77">
         <f t="shared" si="0"/>
         <v>43538</v>
       </c>
-      <c r="AQ6" s="80">
+      <c r="AQ6" s="77">
         <f t="shared" si="0"/>
         <v>43539</v>
       </c>
-      <c r="AR6" s="80">
+      <c r="AR6" s="77">
         <f t="shared" ref="AR6:BN6" si="4">AQ6+1</f>
         <v>43540</v>
       </c>
-      <c r="AS6" s="101">
+      <c r="AS6" s="98">
         <f t="shared" si="4"/>
         <v>43541</v>
       </c>
-      <c r="AT6" s="102">
+      <c r="AT6" s="99">
         <f t="shared" si="4"/>
         <v>43542</v>
       </c>
-      <c r="AU6" s="80">
+      <c r="AU6" s="77">
         <f t="shared" si="4"/>
         <v>43543</v>
       </c>
-      <c r="AV6" s="80">
+      <c r="AV6" s="77">
         <f t="shared" si="4"/>
         <v>43544</v>
       </c>
-      <c r="AW6" s="80">
+      <c r="AW6" s="77">
         <f t="shared" si="4"/>
         <v>43545</v>
       </c>
-      <c r="AX6" s="80">
+      <c r="AX6" s="77">
         <f t="shared" si="4"/>
         <v>43546</v>
       </c>
-      <c r="AY6" s="80">
+      <c r="AY6" s="77">
         <f t="shared" si="4"/>
         <v>43547</v>
       </c>
-      <c r="AZ6" s="103">
+      <c r="AZ6" s="100">
         <f t="shared" si="4"/>
         <v>43548</v>
       </c>
-      <c r="BA6" s="104">
+      <c r="BA6" s="101">
         <f t="shared" si="4"/>
         <v>43549</v>
       </c>
-      <c r="BB6" s="80">
+      <c r="BB6" s="77">
         <f t="shared" si="4"/>
         <v>43550</v>
       </c>
-      <c r="BC6" s="80">
+      <c r="BC6" s="77">
         <f t="shared" si="4"/>
         <v>43551</v>
       </c>
-      <c r="BD6" s="80">
+      <c r="BD6" s="77">
         <f t="shared" si="4"/>
         <v>43552</v>
       </c>
-      <c r="BE6" s="80">
+      <c r="BE6" s="77">
         <f t="shared" si="4"/>
         <v>43553</v>
       </c>
-      <c r="BF6" s="80">
+      <c r="BF6" s="77">
         <f t="shared" si="4"/>
         <v>43554</v>
       </c>
-      <c r="BG6" s="105">
+      <c r="BG6" s="102">
         <f t="shared" si="4"/>
         <v>43555</v>
       </c>
-      <c r="BH6" s="106">
+      <c r="BH6" s="103">
         <f t="shared" si="4"/>
         <v>43556</v>
       </c>
-      <c r="BI6" s="80">
+      <c r="BI6" s="77">
         <f t="shared" si="4"/>
         <v>43557</v>
       </c>
-      <c r="BJ6" s="80">
+      <c r="BJ6" s="77">
         <f t="shared" si="4"/>
         <v>43558</v>
       </c>
-      <c r="BK6" s="80">
+      <c r="BK6" s="77">
         <f t="shared" si="4"/>
         <v>43559</v>
       </c>
-      <c r="BL6" s="80">
+      <c r="BL6" s="77">
         <f t="shared" si="4"/>
         <v>43560</v>
       </c>
-      <c r="BM6" s="80">
+      <c r="BM6" s="77">
         <f t="shared" si="4"/>
         <v>43561</v>
       </c>
-      <c r="BN6" s="107">
+      <c r="BN6" s="104">
         <f t="shared" si="4"/>
         <v>43562</v>
       </c>
     </row>
-    <row r="7" spans="1:150" s="76" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A7" s="69" t="s">
+    <row r="7" spans="1:150" s="73" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A7" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="71" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="72" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="73" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111" t="s">
-        <v>149</v>
-      </c>
-      <c r="K7" s="90" t="str">
+      <c r="I7" s="108"/>
+      <c r="J7" s="108" t="s">
+        <v>143</v>
+      </c>
+      <c r="K7" s="87" t="str">
         <f t="shared" ref="K7:AP7" si="5">CHOOSE(WEEKDAY(K6,1),"S","M","T","W","T","F","S")</f>
         <v>M</v>
       </c>
-      <c r="L7" s="74" t="str">
+      <c r="L7" s="71" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="M7" s="74" t="str">
+      <c r="M7" s="71" t="str">
         <f t="shared" si="5"/>
         <v>W</v>
       </c>
-      <c r="N7" s="74" t="str">
+      <c r="N7" s="71" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="O7" s="74" t="str">
+      <c r="O7" s="71" t="str">
         <f t="shared" si="5"/>
         <v>F</v>
       </c>
-      <c r="P7" s="74" t="str">
+      <c r="P7" s="71" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="Q7" s="91" t="str">
+      <c r="Q7" s="88" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="R7" s="90" t="str">
+      <c r="R7" s="87" t="str">
         <f t="shared" si="5"/>
         <v>M</v>
       </c>
-      <c r="S7" s="74" t="str">
+      <c r="S7" s="71" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="T7" s="74" t="str">
+      <c r="T7" s="71" t="str">
         <f t="shared" si="5"/>
         <v>W</v>
       </c>
-      <c r="U7" s="74" t="str">
+      <c r="U7" s="71" t="str">
         <f t="shared" ref="U7:W7" si="6">CHOOSE(WEEKDAY(U6,1),"S","M","T","W","T","F","S")</f>
         <v>T</v>
       </c>
-      <c r="V7" s="74" t="str">
+      <c r="V7" s="71" t="str">
         <f t="shared" si="6"/>
         <v>F</v>
       </c>
-      <c r="W7" s="74" t="str">
+      <c r="W7" s="71" t="str">
         <f t="shared" si="6"/>
         <v>S</v>
       </c>
-      <c r="X7" s="91" t="str">
+      <c r="X7" s="88" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="Y7" s="89" t="str">
+      <c r="Y7" s="86" t="str">
         <f t="shared" si="5"/>
         <v>M</v>
       </c>
-      <c r="Z7" s="74" t="str">
+      <c r="Z7" s="71" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="AA7" s="74" t="str">
+      <c r="AA7" s="71" t="str">
         <f t="shared" si="5"/>
         <v>W</v>
       </c>
-      <c r="AB7" s="74" t="str">
+      <c r="AB7" s="71" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="AC7" s="74" t="str">
+      <c r="AC7" s="71" t="str">
         <f t="shared" si="5"/>
         <v>F</v>
       </c>
-      <c r="AD7" s="74" t="str">
+      <c r="AD7" s="71" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="AE7" s="92" t="str">
+      <c r="AE7" s="89" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="AF7" s="90" t="str">
+      <c r="AF7" s="87" t="str">
         <f t="shared" si="5"/>
         <v>M</v>
       </c>
-      <c r="AG7" s="74" t="str">
+      <c r="AG7" s="71" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="AH7" s="74" t="str">
+      <c r="AH7" s="71" t="str">
         <f t="shared" si="5"/>
         <v>W</v>
       </c>
-      <c r="AI7" s="74" t="str">
+      <c r="AI7" s="71" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="AJ7" s="74" t="str">
+      <c r="AJ7" s="71" t="str">
         <f t="shared" si="5"/>
         <v>F</v>
       </c>
-      <c r="AK7" s="74" t="str">
+      <c r="AK7" s="71" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="AL7" s="91" t="str">
+      <c r="AL7" s="88" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="AM7" s="90" t="str">
+      <c r="AM7" s="87" t="str">
         <f t="shared" si="5"/>
         <v>M</v>
       </c>
-      <c r="AN7" s="74" t="str">
+      <c r="AN7" s="71" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="AO7" s="74" t="str">
+      <c r="AO7" s="71" t="str">
         <f t="shared" si="5"/>
         <v>W</v>
       </c>
-      <c r="AP7" s="74" t="str">
+      <c r="AP7" s="71" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="AQ7" s="74" t="str">
+      <c r="AQ7" s="71" t="str">
         <f t="shared" ref="AQ7:BN7" si="7">CHOOSE(WEEKDAY(AQ6,1),"S","M","T","W","T","F","S")</f>
         <v>F</v>
       </c>
-      <c r="AR7" s="74" t="str">
+      <c r="AR7" s="71" t="str">
         <f t="shared" si="7"/>
         <v>S</v>
       </c>
-      <c r="AS7" s="91" t="str">
+      <c r="AS7" s="88" t="str">
         <f t="shared" si="7"/>
         <v>S</v>
       </c>
-      <c r="AT7" s="90" t="str">
+      <c r="AT7" s="87" t="str">
         <f t="shared" si="7"/>
         <v>M</v>
       </c>
-      <c r="AU7" s="74" t="str">
+      <c r="AU7" s="71" t="str">
         <f t="shared" si="7"/>
         <v>T</v>
       </c>
-      <c r="AV7" s="74" t="str">
+      <c r="AV7" s="71" t="str">
         <f t="shared" si="7"/>
         <v>W</v>
       </c>
-      <c r="AW7" s="74" t="str">
+      <c r="AW7" s="71" t="str">
         <f t="shared" si="7"/>
         <v>T</v>
       </c>
-      <c r="AX7" s="74" t="str">
+      <c r="AX7" s="71" t="str">
         <f t="shared" si="7"/>
         <v>F</v>
       </c>
-      <c r="AY7" s="74" t="str">
+      <c r="AY7" s="71" t="str">
         <f t="shared" si="7"/>
         <v>S</v>
       </c>
-      <c r="AZ7" s="91" t="str">
+      <c r="AZ7" s="88" t="str">
         <f t="shared" si="7"/>
         <v>S</v>
       </c>
-      <c r="BA7" s="90" t="str">
+      <c r="BA7" s="87" t="str">
         <f t="shared" si="7"/>
         <v>M</v>
       </c>
-      <c r="BB7" s="74" t="str">
+      <c r="BB7" s="71" t="str">
         <f t="shared" si="7"/>
         <v>T</v>
       </c>
-      <c r="BC7" s="74" t="str">
+      <c r="BC7" s="71" t="str">
         <f t="shared" si="7"/>
         <v>W</v>
       </c>
-      <c r="BD7" s="74" t="str">
+      <c r="BD7" s="71" t="str">
         <f t="shared" si="7"/>
         <v>T</v>
       </c>
-      <c r="BE7" s="74" t="str">
+      <c r="BE7" s="71" t="str">
         <f t="shared" si="7"/>
         <v>F</v>
       </c>
-      <c r="BF7" s="74" t="str">
+      <c r="BF7" s="71" t="str">
         <f t="shared" si="7"/>
         <v>S</v>
       </c>
-      <c r="BG7" s="91" t="str">
+      <c r="BG7" s="88" t="str">
         <f t="shared" si="7"/>
         <v>S</v>
       </c>
-      <c r="BH7" s="90" t="str">
+      <c r="BH7" s="87" t="str">
         <f t="shared" si="7"/>
         <v>M</v>
       </c>
-      <c r="BI7" s="74" t="str">
+      <c r="BI7" s="71" t="str">
         <f t="shared" si="7"/>
         <v>T</v>
       </c>
-      <c r="BJ7" s="74" t="str">
+      <c r="BJ7" s="71" t="str">
         <f t="shared" si="7"/>
         <v>W</v>
       </c>
-      <c r="BK7" s="74" t="str">
+      <c r="BK7" s="71" t="str">
         <f t="shared" si="7"/>
         <v>T</v>
       </c>
-      <c r="BL7" s="74" t="str">
+      <c r="BL7" s="71" t="str">
         <f t="shared" si="7"/>
         <v>F</v>
       </c>
-      <c r="BM7" s="74" t="str">
+      <c r="BM7" s="71" t="str">
         <f t="shared" si="7"/>
         <v>S</v>
       </c>
-      <c r="BN7" s="91" t="str">
+      <c r="BN7" s="88" t="str">
         <f t="shared" si="7"/>
         <v>S</v>
       </c>
-      <c r="BO7" s="75"/>
-      <c r="BP7" s="75"/>
-      <c r="BQ7" s="75"/>
-      <c r="BR7" s="75"/>
-      <c r="BS7" s="75"/>
-      <c r="BT7" s="75"/>
-      <c r="BU7" s="75"/>
-      <c r="BV7" s="75"/>
-      <c r="BW7" s="75"/>
-      <c r="BX7" s="75"/>
-      <c r="BY7" s="75"/>
-      <c r="BZ7" s="75"/>
-      <c r="CA7" s="75"/>
-      <c r="CB7" s="75"/>
-      <c r="CC7" s="75"/>
-      <c r="CD7" s="75"/>
-      <c r="CE7" s="75"/>
-      <c r="CF7" s="75"/>
-      <c r="CG7" s="75"/>
-      <c r="CH7" s="75"/>
-      <c r="CI7" s="75"/>
-      <c r="CJ7" s="75"/>
-      <c r="CK7" s="75"/>
-      <c r="CL7" s="75"/>
-      <c r="CM7" s="75"/>
-      <c r="CN7" s="75"/>
-      <c r="CO7" s="75"/>
-      <c r="CP7" s="75"/>
-      <c r="CQ7" s="75"/>
-      <c r="CR7" s="75"/>
-      <c r="CS7" s="75"/>
-      <c r="CT7" s="75"/>
-      <c r="CU7" s="75"/>
-      <c r="CV7" s="75"/>
-      <c r="CW7" s="75"/>
-      <c r="CX7" s="75"/>
-      <c r="CY7" s="75"/>
-      <c r="CZ7" s="75"/>
-      <c r="DA7" s="75"/>
-      <c r="DB7" s="75"/>
-      <c r="DC7" s="75"/>
-      <c r="DD7" s="75"/>
-      <c r="DE7" s="75"/>
-      <c r="DF7" s="75"/>
-      <c r="DG7" s="75"/>
-      <c r="DH7" s="75"/>
-      <c r="DI7" s="75"/>
-      <c r="DJ7" s="75"/>
-      <c r="DK7" s="75"/>
-      <c r="DL7" s="75"/>
-      <c r="DM7" s="75"/>
-      <c r="DN7" s="75"/>
-      <c r="DO7" s="75"/>
-      <c r="DP7" s="75"/>
-      <c r="DQ7" s="75"/>
-      <c r="DR7" s="75"/>
-      <c r="DS7" s="75"/>
-      <c r="DT7" s="75"/>
-      <c r="DU7" s="75"/>
-      <c r="DV7" s="75"/>
-      <c r="DW7" s="75"/>
-      <c r="DX7" s="75"/>
-      <c r="DY7" s="75"/>
-      <c r="DZ7" s="75"/>
-      <c r="EA7" s="75"/>
-      <c r="EB7" s="75"/>
-      <c r="EC7" s="75"/>
-      <c r="ED7" s="75"/>
-      <c r="EE7" s="75"/>
-      <c r="EF7" s="75"/>
-      <c r="EG7" s="75"/>
-      <c r="EH7" s="75"/>
-      <c r="EI7" s="75"/>
-      <c r="EJ7" s="75"/>
-      <c r="EK7" s="75"/>
-      <c r="EL7" s="75"/>
-      <c r="EM7" s="75"/>
-      <c r="EN7" s="75"/>
-      <c r="EO7" s="75"/>
-      <c r="EP7" s="75"/>
-      <c r="EQ7" s="75"/>
-      <c r="ER7" s="75"/>
-      <c r="ES7" s="75"/>
-      <c r="ET7" s="75"/>
+      <c r="BO7" s="72"/>
+      <c r="BP7" s="72"/>
+      <c r="BQ7" s="72"/>
+      <c r="BR7" s="72"/>
+      <c r="BS7" s="72"/>
+      <c r="BT7" s="72"/>
+      <c r="BU7" s="72"/>
+      <c r="BV7" s="72"/>
+      <c r="BW7" s="72"/>
+      <c r="BX7" s="72"/>
+      <c r="BY7" s="72"/>
+      <c r="BZ7" s="72"/>
+      <c r="CA7" s="72"/>
+      <c r="CB7" s="72"/>
+      <c r="CC7" s="72"/>
+      <c r="CD7" s="72"/>
+      <c r="CE7" s="72"/>
+      <c r="CF7" s="72"/>
+      <c r="CG7" s="72"/>
+      <c r="CH7" s="72"/>
+      <c r="CI7" s="72"/>
+      <c r="CJ7" s="72"/>
+      <c r="CK7" s="72"/>
+      <c r="CL7" s="72"/>
+      <c r="CM7" s="72"/>
+      <c r="CN7" s="72"/>
+      <c r="CO7" s="72"/>
+      <c r="CP7" s="72"/>
+      <c r="CQ7" s="72"/>
+      <c r="CR7" s="72"/>
+      <c r="CS7" s="72"/>
+      <c r="CT7" s="72"/>
+      <c r="CU7" s="72"/>
+      <c r="CV7" s="72"/>
+      <c r="CW7" s="72"/>
+      <c r="CX7" s="72"/>
+      <c r="CY7" s="72"/>
+      <c r="CZ7" s="72"/>
+      <c r="DA7" s="72"/>
+      <c r="DB7" s="72"/>
+      <c r="DC7" s="72"/>
+      <c r="DD7" s="72"/>
+      <c r="DE7" s="72"/>
+      <c r="DF7" s="72"/>
+      <c r="DG7" s="72"/>
+      <c r="DH7" s="72"/>
+      <c r="DI7" s="72"/>
+      <c r="DJ7" s="72"/>
+      <c r="DK7" s="72"/>
+      <c r="DL7" s="72"/>
+      <c r="DM7" s="72"/>
+      <c r="DN7" s="72"/>
+      <c r="DO7" s="72"/>
+      <c r="DP7" s="72"/>
+      <c r="DQ7" s="72"/>
+      <c r="DR7" s="72"/>
+      <c r="DS7" s="72"/>
+      <c r="DT7" s="72"/>
+      <c r="DU7" s="72"/>
+      <c r="DV7" s="72"/>
+      <c r="DW7" s="72"/>
+      <c r="DX7" s="72"/>
+      <c r="DY7" s="72"/>
+      <c r="DZ7" s="72"/>
+      <c r="EA7" s="72"/>
+      <c r="EB7" s="72"/>
+      <c r="EC7" s="72"/>
+      <c r="ED7" s="72"/>
+      <c r="EE7" s="72"/>
+      <c r="EF7" s="72"/>
+      <c r="EG7" s="72"/>
+      <c r="EH7" s="72"/>
+      <c r="EI7" s="72"/>
+      <c r="EJ7" s="72"/>
+      <c r="EK7" s="72"/>
+      <c r="EL7" s="72"/>
+      <c r="EM7" s="72"/>
+      <c r="EN7" s="72"/>
+      <c r="EO7" s="72"/>
+      <c r="EP7" s="72"/>
+      <c r="EQ7" s="72"/>
+      <c r="ER7" s="72"/>
+      <c r="ES7" s="72"/>
+      <c r="ET7" s="72"/>
     </row>
     <row r="8" spans="1:150" s="37" customFormat="1" ht="19" thickTop="1">
-      <c r="A8" s="120" t="str">
+      <c r="A8" s="115" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
       </c>
-      <c r="B8" s="108" t="s">
-        <v>131</v>
+      <c r="B8" s="105" t="s">
+        <v>125</v>
       </c>
       <c r="D8" s="38"/>
       <c r="E8" s="39"/>
       <c r="F8" s="39"/>
       <c r="G8" s="40"/>
       <c r="H8" s="41"/>
-      <c r="I8" s="135"/>
-      <c r="J8" s="123"/>
+      <c r="I8" s="128"/>
+      <c r="J8" s="118"/>
       <c r="K8" s="42"/>
       <c r="L8" s="42"/>
       <c r="M8" s="42"/>
@@ -5680,33 +5613,33 @@
       <c r="BN8" s="42"/>
     </row>
     <row r="9" spans="1:150" s="45" customFormat="1">
-      <c r="A9" s="121" t="str">
+      <c r="A9" s="116" t="str">
         <f t="shared" ref="A9:A14" si="8">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
       </c>
-      <c r="B9" s="117" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="118" t="s">
-        <v>134</v>
-      </c>
-      <c r="D9" s="119"/>
-      <c r="E9" s="116">
+      <c r="B9" s="112" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="113" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="114"/>
+      <c r="E9" s="111">
         <v>43510</v>
       </c>
-      <c r="F9" s="112">
+      <c r="F9" s="109">
         <f>IF(ISBLANK(E9)," - ",IF(G9=0,E9,E9+G9-1))</f>
         <v>43511</v>
       </c>
-      <c r="G9" s="67">
+      <c r="G9" s="64">
         <v>2</v>
       </c>
-      <c r="H9" s="68">
-        <v>0</v>
-      </c>
-      <c r="I9" s="133"/>
-      <c r="J9" s="252" t="s">
-        <v>179</v>
+      <c r="H9" s="65">
+        <v>1</v>
+      </c>
+      <c r="I9" s="126"/>
+      <c r="J9" s="239" t="s">
+        <v>173</v>
       </c>
       <c r="K9" s="47"/>
       <c r="L9" s="47"/>
@@ -5766,35 +5699,35 @@
       <c r="BN9" s="47"/>
     </row>
     <row r="10" spans="1:150" s="45" customFormat="1">
-      <c r="A10" s="121" t="str">
+      <c r="A10" s="116" t="str">
         <f t="shared" si="8"/>
         <v>1.2</v>
       </c>
-      <c r="B10" s="117" t="s">
-        <v>133</v>
-      </c>
-      <c r="C10" s="118" t="s">
-        <v>135</v>
-      </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="116">
+      <c r="B10" s="112" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="113" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="114"/>
+      <c r="E10" s="111">
         <v>43512</v>
       </c>
-      <c r="F10" s="112">
+      <c r="F10" s="109">
         <f>IF(ISBLANK(E10)," - ",IF(G10=0,E10,E10+G10-1))</f>
         <v>43513</v>
       </c>
-      <c r="G10" s="67">
+      <c r="G10" s="64">
         <v>2</v>
       </c>
-      <c r="H10" s="68">
-        <v>0</v>
-      </c>
-      <c r="I10" s="133"/>
-      <c r="J10" s="67" t="s">
-        <v>179</v>
-      </c>
-      <c r="K10" s="195"/>
+      <c r="H10" s="65">
+        <v>1</v>
+      </c>
+      <c r="I10" s="126"/>
+      <c r="J10" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="K10" s="182"/>
       <c r="L10" s="47"/>
       <c r="M10" s="47"/>
       <c r="N10" s="47"/>
@@ -5852,35 +5785,35 @@
       <c r="BN10" s="47"/>
     </row>
     <row r="11" spans="1:150" s="45" customFormat="1" ht="26">
-      <c r="A11" s="121" t="str">
+      <c r="A11" s="116" t="str">
         <f t="shared" si="8"/>
         <v>1.3</v>
       </c>
-      <c r="B11" s="117" t="s">
-        <v>151</v>
-      </c>
-      <c r="C11" s="118" t="s">
-        <v>152</v>
-      </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="116">
+      <c r="B11" s="112" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="113" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="114"/>
+      <c r="E11" s="111">
         <v>43512</v>
       </c>
-      <c r="F11" s="112">
+      <c r="F11" s="109">
         <f t="shared" ref="F11:F13" si="9">IF(ISBLANK(E11)," - ",IF(G11=0,E11,E11+G11-1))</f>
         <v>43513</v>
       </c>
-      <c r="G11" s="67">
+      <c r="G11" s="64">
         <v>2</v>
       </c>
-      <c r="H11" s="68">
-        <v>0</v>
-      </c>
-      <c r="I11" s="133"/>
-      <c r="J11" s="67">
+      <c r="H11" s="65">
+        <v>1</v>
+      </c>
+      <c r="I11" s="126"/>
+      <c r="J11" s="64">
         <v>2</v>
       </c>
-      <c r="K11" s="195"/>
+      <c r="K11" s="182"/>
       <c r="L11" s="47"/>
       <c r="M11" s="47"/>
       <c r="N11" s="47"/>
@@ -5938,35 +5871,35 @@
       <c r="BN11" s="47"/>
     </row>
     <row r="12" spans="1:150" s="45" customFormat="1" ht="26">
-      <c r="A12" s="121" t="str">
+      <c r="A12" s="116" t="str">
         <f t="shared" si="8"/>
         <v>1.4</v>
       </c>
-      <c r="B12" s="117" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="118" t="s">
-        <v>138</v>
-      </c>
-      <c r="D12" s="119"/>
-      <c r="E12" s="116">
+      <c r="B12" s="112" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="113" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="114"/>
+      <c r="E12" s="111">
         <v>43512</v>
       </c>
-      <c r="F12" s="112">
+      <c r="F12" s="109">
         <f t="shared" si="9"/>
         <v>43512</v>
       </c>
-      <c r="G12" s="67">
+      <c r="G12" s="64">
         <v>1</v>
       </c>
-      <c r="H12" s="68">
-        <v>0</v>
-      </c>
-      <c r="I12" s="133"/>
-      <c r="J12" s="67">
+      <c r="H12" s="65">
         <v>1</v>
       </c>
-      <c r="K12" s="195"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="64">
+        <v>1</v>
+      </c>
+      <c r="K12" s="182"/>
       <c r="L12" s="47"/>
       <c r="M12" s="47"/>
       <c r="N12" s="47"/>
@@ -6024,33 +5957,33 @@
       <c r="BN12" s="47"/>
     </row>
     <row r="13" spans="1:150" s="45" customFormat="1" ht="26">
-      <c r="A13" s="121" t="str">
+      <c r="A13" s="116" t="str">
         <f t="shared" si="8"/>
         <v>1.5</v>
       </c>
-      <c r="B13" s="117" t="s">
-        <v>139</v>
-      </c>
-      <c r="C13" s="118" t="s">
-        <v>138</v>
-      </c>
-      <c r="D13" s="119"/>
-      <c r="E13" s="116">
+      <c r="B13" s="112" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="113" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="114"/>
+      <c r="E13" s="111">
         <v>43514</v>
       </c>
-      <c r="F13" s="112">
+      <c r="F13" s="109">
         <f t="shared" si="9"/>
         <v>43515</v>
       </c>
-      <c r="G13" s="67">
+      <c r="G13" s="64">
         <v>2</v>
       </c>
-      <c r="H13" s="68">
-        <v>0</v>
-      </c>
-      <c r="I13" s="133"/>
-      <c r="J13" s="253" t="s">
-        <v>179</v>
+      <c r="H13" s="65">
+        <v>1</v>
+      </c>
+      <c r="I13" s="126"/>
+      <c r="J13" s="240" t="s">
+        <v>173</v>
       </c>
       <c r="K13" s="47"/>
       <c r="L13" s="47"/>
@@ -6110,35 +6043,35 @@
       <c r="BN13" s="47"/>
     </row>
     <row r="14" spans="1:150" s="45" customFormat="1">
-      <c r="A14" s="121" t="str">
+      <c r="A14" s="116" t="str">
         <f t="shared" si="8"/>
         <v>1.6</v>
       </c>
-      <c r="B14" s="117" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="118" t="s">
-        <v>141</v>
-      </c>
-      <c r="D14" s="119"/>
-      <c r="E14" s="116">
+      <c r="B14" s="112" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="113" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="114"/>
+      <c r="E14" s="111">
         <v>43512</v>
       </c>
-      <c r="F14" s="112">
+      <c r="F14" s="109">
         <f>IF(ISBLANK(E14)," - ",IF(G14=0,E14,E14+G14-1))</f>
         <v>43516</v>
       </c>
-      <c r="G14" s="67">
+      <c r="G14" s="64">
         <v>5</v>
       </c>
-      <c r="H14" s="68">
-        <v>0</v>
-      </c>
-      <c r="I14" s="133"/>
-      <c r="J14" s="67">
+      <c r="H14" s="65">
+        <v>1</v>
+      </c>
+      <c r="I14" s="126"/>
+      <c r="J14" s="64">
         <v>3</v>
       </c>
-      <c r="K14" s="195"/>
+      <c r="K14" s="182"/>
       <c r="L14" s="47"/>
       <c r="M14" s="47"/>
       <c r="N14" s="47"/>
@@ -6196,34 +6129,34 @@
       <c r="BN14" s="47"/>
     </row>
     <row r="15" spans="1:150" s="45" customFormat="1" ht="12">
-      <c r="A15" s="121" t="s">
-        <v>142</v>
-      </c>
-      <c r="B15" s="187" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="190" t="s">
+      <c r="A15" s="116" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="174" t="s">
         <v>141</v>
       </c>
-      <c r="D15" s="182"/>
-      <c r="E15" s="196">
+      <c r="C15" s="177" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="169"/>
+      <c r="E15" s="183">
         <v>43516</v>
       </c>
-      <c r="F15" s="183">
+      <c r="F15" s="170">
         <f>IF(ISBLANK(E15)," - ",IF(G15=0,E15,E15+G15-1))</f>
         <v>43517</v>
       </c>
-      <c r="G15" s="184">
+      <c r="G15" s="171">
         <v>2</v>
       </c>
-      <c r="H15" s="185">
-        <v>0</v>
-      </c>
-      <c r="I15" s="186"/>
-      <c r="J15" s="254">
+      <c r="H15" s="172">
+        <v>1</v>
+      </c>
+      <c r="I15" s="173"/>
+      <c r="J15" s="241">
         <v>2</v>
       </c>
-      <c r="K15" s="195"/>
+      <c r="K15" s="182"/>
       <c r="L15" s="47"/>
       <c r="M15" s="47"/>
       <c r="N15" s="47"/>
@@ -6281,34 +6214,34 @@
       <c r="BN15" s="47"/>
     </row>
     <row r="16" spans="1:150" s="45" customFormat="1" ht="12">
-      <c r="A16" s="121" t="s">
-        <v>143</v>
-      </c>
-      <c r="B16" s="192" t="s">
-        <v>146</v>
-      </c>
-      <c r="C16" s="191" t="s">
-        <v>135</v>
-      </c>
-      <c r="D16" s="182"/>
-      <c r="E16" s="189">
+      <c r="A16" s="116" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="179" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="178" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="169"/>
+      <c r="E16" s="176">
         <v>43510</v>
       </c>
-      <c r="F16" s="183">
+      <c r="F16" s="170">
         <f>IF(ISBLANK(E16)," - ",IF(G16=0,E16,E16+G16-1))</f>
         <v>43519</v>
       </c>
-      <c r="G16" s="251">
+      <c r="G16" s="238">
         <v>10</v>
       </c>
-      <c r="H16" s="250">
-        <v>0</v>
-      </c>
-      <c r="I16" s="186"/>
-      <c r="J16" s="251">
+      <c r="H16" s="237">
+        <v>1</v>
+      </c>
+      <c r="I16" s="173"/>
+      <c r="J16" s="238">
         <v>4</v>
       </c>
-      <c r="K16" s="195"/>
+      <c r="K16" s="182"/>
       <c r="L16" s="47"/>
       <c r="M16" s="47"/>
       <c r="N16" s="47"/>
@@ -6366,34 +6299,34 @@
       <c r="BN16" s="47"/>
     </row>
     <row r="17" spans="1:66" s="45" customFormat="1" ht="26">
-      <c r="A17" s="121" t="s">
-        <v>144</v>
-      </c>
-      <c r="B17" s="194" t="s">
-        <v>145</v>
-      </c>
-      <c r="C17" s="191" t="s">
-        <v>137</v>
-      </c>
-      <c r="D17" s="182"/>
-      <c r="E17" s="193">
+      <c r="A17" s="116" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="181" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="178" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="169"/>
+      <c r="E17" s="180">
         <v>43518</v>
       </c>
-      <c r="F17" s="183">
+      <c r="F17" s="170">
         <f>IF(ISBLANK(E17)," - ",IF(G17=0,E17,E17+G17-1))</f>
         <v>43519</v>
       </c>
-      <c r="G17" s="251">
+      <c r="G17" s="238">
         <v>2</v>
       </c>
-      <c r="H17" s="244">
-        <v>0</v>
-      </c>
-      <c r="I17" s="186"/>
-      <c r="J17" s="184">
+      <c r="H17" s="231">
+        <v>1</v>
+      </c>
+      <c r="I17" s="173"/>
+      <c r="J17" s="171">
         <v>2</v>
       </c>
-      <c r="K17" s="195"/>
+      <c r="K17" s="182"/>
       <c r="L17" s="47"/>
       <c r="M17" s="47"/>
       <c r="N17" s="47"/>
@@ -6451,101 +6384,101 @@
       <c r="BN17" s="47"/>
     </row>
     <row r="18" spans="1:66" s="43" customFormat="1" ht="18">
-      <c r="A18" s="122">
+      <c r="A18" s="117">
         <v>2</v>
       </c>
-      <c r="B18" s="108" t="s">
-        <v>150</v>
+      <c r="B18" s="105" t="s">
+        <v>144</v>
       </c>
       <c r="C18" s="37"/>
       <c r="D18" s="49"/>
-      <c r="E18" s="188"/>
-      <c r="F18" s="110"/>
+      <c r="E18" s="175"/>
+      <c r="F18" s="107"/>
       <c r="G18" s="40"/>
       <c r="H18" s="41"/>
-      <c r="I18" s="134"/>
-      <c r="J18" s="125"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="52"/>
-      <c r="S18" s="52"/>
-      <c r="T18" s="52"/>
-      <c r="U18" s="52"/>
-      <c r="V18" s="52"/>
-      <c r="W18" s="52"/>
-      <c r="X18" s="52"/>
-      <c r="Y18" s="52"/>
-      <c r="Z18" s="52"/>
-      <c r="AA18" s="52"/>
-      <c r="AB18" s="52"/>
-      <c r="AC18" s="52"/>
-      <c r="AD18" s="52"/>
-      <c r="AE18" s="52"/>
-      <c r="AF18" s="52"/>
-      <c r="AG18" s="52"/>
-      <c r="AH18" s="52"/>
-      <c r="AI18" s="52"/>
-      <c r="AJ18" s="52"/>
-      <c r="AK18" s="52"/>
-      <c r="AL18" s="52"/>
-      <c r="AM18" s="52"/>
-      <c r="AN18" s="52"/>
-      <c r="AO18" s="52"/>
-      <c r="AP18" s="52"/>
-      <c r="AQ18" s="52"/>
-      <c r="AR18" s="52"/>
-      <c r="AS18" s="52"/>
-      <c r="AT18" s="52"/>
-      <c r="AU18" s="52"/>
-      <c r="AV18" s="52"/>
-      <c r="AW18" s="52"/>
-      <c r="AX18" s="52"/>
-      <c r="AY18" s="52"/>
-      <c r="AZ18" s="52"/>
-      <c r="BA18" s="52"/>
-      <c r="BB18" s="52"/>
-      <c r="BC18" s="52"/>
-      <c r="BD18" s="52"/>
-      <c r="BE18" s="52"/>
-      <c r="BF18" s="52"/>
-      <c r="BG18" s="52"/>
-      <c r="BH18" s="52"/>
-      <c r="BI18" s="52"/>
-      <c r="BJ18" s="52"/>
-      <c r="BK18" s="52"/>
-      <c r="BL18" s="52"/>
-      <c r="BM18" s="52"/>
-      <c r="BN18" s="52"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="119"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="50"/>
+      <c r="V18" s="50"/>
+      <c r="W18" s="50"/>
+      <c r="X18" s="50"/>
+      <c r="Y18" s="50"/>
+      <c r="Z18" s="50"/>
+      <c r="AA18" s="50"/>
+      <c r="AB18" s="50"/>
+      <c r="AC18" s="50"/>
+      <c r="AD18" s="50"/>
+      <c r="AE18" s="50"/>
+      <c r="AF18" s="50"/>
+      <c r="AG18" s="50"/>
+      <c r="AH18" s="50"/>
+      <c r="AI18" s="50"/>
+      <c r="AJ18" s="50"/>
+      <c r="AK18" s="50"/>
+      <c r="AL18" s="50"/>
+      <c r="AM18" s="50"/>
+      <c r="AN18" s="50"/>
+      <c r="AO18" s="50"/>
+      <c r="AP18" s="50"/>
+      <c r="AQ18" s="50"/>
+      <c r="AR18" s="50"/>
+      <c r="AS18" s="50"/>
+      <c r="AT18" s="50"/>
+      <c r="AU18" s="50"/>
+      <c r="AV18" s="50"/>
+      <c r="AW18" s="50"/>
+      <c r="AX18" s="50"/>
+      <c r="AY18" s="50"/>
+      <c r="AZ18" s="50"/>
+      <c r="BA18" s="50"/>
+      <c r="BB18" s="50"/>
+      <c r="BC18" s="50"/>
+      <c r="BD18" s="50"/>
+      <c r="BE18" s="50"/>
+      <c r="BF18" s="50"/>
+      <c r="BG18" s="50"/>
+      <c r="BH18" s="50"/>
+      <c r="BI18" s="50"/>
+      <c r="BJ18" s="50"/>
+      <c r="BK18" s="50"/>
+      <c r="BL18" s="50"/>
+      <c r="BM18" s="50"/>
+      <c r="BN18" s="50"/>
     </row>
     <row r="19" spans="1:66" s="45" customFormat="1">
-      <c r="A19" s="121" t="str">
+      <c r="A19" s="116" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.1</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D19" s="46"/>
-      <c r="E19" s="116">
+      <c r="E19" s="111">
         <v>43521</v>
       </c>
-      <c r="F19" s="112">
+      <c r="F19" s="109">
         <f t="shared" ref="F19:F25" si="10">IF(ISBLANK(E19)," - ",IF(G19=0,E19,E19+G19-1))</f>
         <v>43527</v>
       </c>
-      <c r="G19" s="67">
+      <c r="G19" s="64">
         <v>7</v>
       </c>
-      <c r="H19" s="68">
+      <c r="H19" s="65">
         <v>0</v>
       </c>
-      <c r="I19" s="133"/>
-      <c r="J19" s="255">
+      <c r="I19" s="126"/>
+      <c r="J19" s="242">
         <v>7</v>
       </c>
       <c r="K19" s="47"/>
@@ -6606,32 +6539,32 @@
       <c r="BN19" s="47"/>
     </row>
     <row r="20" spans="1:66" s="45" customFormat="1">
-      <c r="A20" s="121" t="str">
+      <c r="A20" s="116" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.2</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D20" s="46"/>
-      <c r="E20" s="116">
+      <c r="E20" s="111">
         <v>43528</v>
       </c>
-      <c r="F20" s="112">
+      <c r="F20" s="109">
         <f t="shared" si="10"/>
         <v>43528</v>
       </c>
-      <c r="G20" s="67">
+      <c r="G20" s="64">
         <v>1</v>
       </c>
-      <c r="H20" s="68">
+      <c r="H20" s="65">
         <v>0</v>
       </c>
-      <c r="I20" s="133"/>
-      <c r="J20" s="67">
+      <c r="I20" s="126"/>
+      <c r="J20" s="64">
         <v>2</v>
       </c>
-      <c r="K20" s="195"/>
+      <c r="K20" s="182"/>
       <c r="L20" s="47"/>
       <c r="M20" s="47"/>
       <c r="N20" s="47"/>
@@ -6689,32 +6622,32 @@
       <c r="BN20" s="47"/>
     </row>
     <row r="21" spans="1:66" s="45" customFormat="1" ht="26">
-      <c r="A21" s="121" t="str">
+      <c r="A21" s="116" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.3</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D21" s="46"/>
-      <c r="E21" s="116">
+      <c r="E21" s="111">
         <v>43528</v>
       </c>
-      <c r="F21" s="112">
+      <c r="F21" s="109">
         <f t="shared" si="10"/>
         <v>43530</v>
       </c>
-      <c r="G21" s="67">
+      <c r="G21" s="64">
         <v>3</v>
       </c>
-      <c r="H21" s="68">
+      <c r="H21" s="65">
         <v>0</v>
       </c>
-      <c r="I21" s="133"/>
-      <c r="J21" s="67">
+      <c r="I21" s="126"/>
+      <c r="J21" s="64">
         <v>4</v>
       </c>
-      <c r="K21" s="195"/>
+      <c r="K21" s="182"/>
       <c r="L21" s="47"/>
       <c r="M21" s="47"/>
       <c r="N21" s="47"/>
@@ -6772,32 +6705,32 @@
       <c r="BN21" s="47"/>
     </row>
     <row r="22" spans="1:66" s="45" customFormat="1">
-      <c r="A22" s="121" t="str">
+      <c r="A22" s="116" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.4</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D22" s="46"/>
-      <c r="E22" s="116">
+      <c r="E22" s="111">
         <v>43531</v>
       </c>
-      <c r="F22" s="112">
+      <c r="F22" s="109">
         <f t="shared" si="10"/>
         <v>43537</v>
       </c>
-      <c r="G22" s="67">
+      <c r="G22" s="64">
         <v>7</v>
       </c>
-      <c r="H22" s="68">
+      <c r="H22" s="65">
         <v>0</v>
       </c>
-      <c r="I22" s="133"/>
-      <c r="J22" s="67">
+      <c r="I22" s="126"/>
+      <c r="J22" s="64">
         <v>6</v>
       </c>
-      <c r="K22" s="195"/>
+      <c r="K22" s="182"/>
       <c r="L22" s="47"/>
       <c r="M22" s="47"/>
       <c r="N22" s="47"/>
@@ -6855,32 +6788,32 @@
       <c r="BN22" s="47"/>
     </row>
     <row r="23" spans="1:66" s="45" customFormat="1">
-      <c r="A23" s="121" t="str">
+      <c r="A23" s="116" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.5</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D23" s="46"/>
-      <c r="E23" s="116">
+      <c r="E23" s="111">
         <v>43538</v>
       </c>
-      <c r="F23" s="112">
+      <c r="F23" s="109">
         <f t="shared" si="10"/>
         <v>43542</v>
       </c>
-      <c r="G23" s="67">
+      <c r="G23" s="64">
         <v>5</v>
       </c>
-      <c r="H23" s="68">
+      <c r="H23" s="65">
         <v>0</v>
       </c>
-      <c r="I23" s="133"/>
-      <c r="J23" s="67">
+      <c r="I23" s="126"/>
+      <c r="J23" s="64">
         <v>5</v>
       </c>
-      <c r="K23" s="195"/>
+      <c r="K23" s="182"/>
       <c r="L23" s="47"/>
       <c r="M23" s="47"/>
       <c r="N23" s="47"/>
@@ -6938,28 +6871,28 @@
       <c r="BN23" s="47"/>
     </row>
     <row r="24" spans="1:66" s="45" customFormat="1">
-      <c r="A24" s="121" t="s">
-        <v>159</v>
+      <c r="A24" s="116" t="s">
+        <v>153</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="D24" s="234"/>
-      <c r="E24" s="236">
+        <v>154</v>
+      </c>
+      <c r="D24" s="221"/>
+      <c r="E24" s="223">
         <v>43534</v>
       </c>
-      <c r="F24" s="241">
+      <c r="F24" s="228">
         <f t="shared" si="10"/>
         <v>43535</v>
       </c>
-      <c r="G24" s="242">
+      <c r="G24" s="229">
         <v>2</v>
       </c>
-      <c r="H24" s="249">
+      <c r="H24" s="236">
         <v>0</v>
       </c>
-      <c r="I24" s="243"/>
-      <c r="J24" s="242">
+      <c r="I24" s="230"/>
+      <c r="J24" s="229">
         <v>2</v>
       </c>
       <c r="K24" s="47"/>
@@ -7020,33 +6953,33 @@
       <c r="BN24" s="47"/>
     </row>
     <row r="25" spans="1:66" s="45" customFormat="1" ht="26">
-      <c r="A25" s="121" t="s">
-        <v>161</v>
+      <c r="A25" s="116" t="s">
+        <v>155</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="D25" s="234"/>
-      <c r="E25" s="193">
+        <v>152</v>
+      </c>
+      <c r="D25" s="221"/>
+      <c r="E25" s="180">
         <v>43543</v>
       </c>
-      <c r="F25" s="183">
+      <c r="F25" s="170">
         <f t="shared" si="10"/>
         <v>43552</v>
       </c>
-      <c r="G25" s="248">
+      <c r="G25" s="235">
         <v>10</v>
       </c>
-      <c r="H25" s="250">
+      <c r="H25" s="237">
         <v>0</v>
       </c>
-      <c r="I25" s="186"/>
-      <c r="J25" s="251">
+      <c r="I25" s="173"/>
+      <c r="J25" s="238">
         <v>10</v>
       </c>
       <c r="K25" s="47"/>
       <c r="L25" s="47"/>
-      <c r="M25" s="247"/>
+      <c r="M25" s="234"/>
       <c r="N25" s="47"/>
       <c r="O25" s="47"/>
       <c r="P25" s="47"/>
@@ -7102,33 +7035,33 @@
       <c r="BN25" s="47"/>
     </row>
     <row r="26" spans="1:66" s="45" customFormat="1">
-      <c r="A26" s="121" t="s">
-        <v>162</v>
+      <c r="A26" s="116" t="s">
+        <v>156</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>163</v>
-      </c>
-      <c r="D26" s="234"/>
-      <c r="E26" s="235">
+        <v>157</v>
+      </c>
+      <c r="D26" s="221"/>
+      <c r="E26" s="222">
         <v>43549</v>
       </c>
-      <c r="F26" s="237">
+      <c r="F26" s="224">
         <f>IF(ISBLANK(E26)," - ",IF(G26=0,E26,E26+G26-1))</f>
         <v>43555</v>
       </c>
-      <c r="G26" s="248">
+      <c r="G26" s="235">
         <v>7</v>
       </c>
-      <c r="H26" s="185">
+      <c r="H26" s="172">
         <v>0</v>
       </c>
-      <c r="I26" s="186"/>
-      <c r="J26" s="184">
+      <c r="I26" s="173"/>
+      <c r="J26" s="171">
         <v>5</v>
       </c>
       <c r="K26" s="47"/>
       <c r="L26" s="47"/>
-      <c r="M26" s="246"/>
+      <c r="M26" s="233"/>
       <c r="N26" s="47"/>
       <c r="O26" s="47"/>
       <c r="P26" s="47"/>
@@ -7184,28 +7117,28 @@
       <c r="BN26" s="47"/>
     </row>
     <row r="27" spans="1:66" s="45" customFormat="1" ht="26">
-      <c r="A27" s="121" t="s">
-        <v>165</v>
+      <c r="A27" s="116" t="s">
+        <v>159</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="D27" s="234"/>
-      <c r="E27" s="193">
+        <v>158</v>
+      </c>
+      <c r="D27" s="221"/>
+      <c r="E27" s="180">
         <v>43535</v>
       </c>
-      <c r="F27" s="237">
+      <c r="F27" s="224">
         <f>IF(ISBLANK(E27)," - ",IF(G27=0,E27,E27+G27-1))</f>
         <v>43555</v>
       </c>
-      <c r="G27" s="251">
+      <c r="G27" s="238">
         <v>21</v>
       </c>
-      <c r="H27" s="250">
+      <c r="H27" s="237">
         <v>0</v>
       </c>
-      <c r="I27" s="245"/>
-      <c r="J27" s="251">
+      <c r="I27" s="232"/>
+      <c r="J27" s="238">
         <v>15</v>
       </c>
       <c r="K27" s="47"/>
@@ -7266,105 +7199,105 @@
       <c r="BN27" s="47"/>
     </row>
     <row r="28" spans="1:66" s="43" customFormat="1" ht="14">
-      <c r="A28" s="122">
+      <c r="A28" s="117">
         <v>3</v>
       </c>
-      <c r="B28" s="109" t="s">
-        <v>166</v>
+      <c r="B28" s="106" t="s">
+        <v>160</v>
       </c>
       <c r="D28" s="49"/>
-      <c r="E28" s="238"/>
-      <c r="F28" s="239"/>
+      <c r="E28" s="225"/>
+      <c r="F28" s="226"/>
       <c r="G28" s="40">
         <v>57</v>
       </c>
       <c r="H28" s="41"/>
-      <c r="I28" s="240"/>
-      <c r="J28" s="256"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="52"/>
-      <c r="S28" s="52"/>
-      <c r="T28" s="52"/>
-      <c r="U28" s="52"/>
-      <c r="V28" s="52"/>
-      <c r="W28" s="52"/>
-      <c r="X28" s="52"/>
-      <c r="Y28" s="52"/>
-      <c r="Z28" s="52"/>
-      <c r="AA28" s="52"/>
-      <c r="AB28" s="52"/>
-      <c r="AC28" s="52"/>
-      <c r="AD28" s="52"/>
-      <c r="AE28" s="52"/>
-      <c r="AF28" s="52"/>
-      <c r="AG28" s="52"/>
-      <c r="AH28" s="52"/>
-      <c r="AI28" s="52"/>
-      <c r="AJ28" s="52"/>
-      <c r="AK28" s="52"/>
-      <c r="AL28" s="52"/>
-      <c r="AM28" s="52"/>
-      <c r="AN28" s="52"/>
-      <c r="AO28" s="52"/>
-      <c r="AP28" s="52"/>
-      <c r="AQ28" s="52"/>
-      <c r="AR28" s="52"/>
-      <c r="AS28" s="52"/>
-      <c r="AT28" s="52"/>
-      <c r="AU28" s="52"/>
-      <c r="AV28" s="52"/>
-      <c r="AW28" s="52"/>
-      <c r="AX28" s="52"/>
-      <c r="AY28" s="52"/>
-      <c r="AZ28" s="52"/>
-      <c r="BA28" s="52"/>
-      <c r="BB28" s="52"/>
-      <c r="BC28" s="52"/>
-      <c r="BD28" s="52"/>
-      <c r="BE28" s="52"/>
-      <c r="BF28" s="52"/>
-      <c r="BG28" s="52"/>
-      <c r="BH28" s="52"/>
-      <c r="BI28" s="52"/>
-      <c r="BJ28" s="52"/>
-      <c r="BK28" s="52"/>
-      <c r="BL28" s="52"/>
-      <c r="BM28" s="52"/>
-      <c r="BN28" s="52"/>
+      <c r="I28" s="227"/>
+      <c r="J28" s="243"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="50"/>
+      <c r="V28" s="50"/>
+      <c r="W28" s="50"/>
+      <c r="X28" s="50"/>
+      <c r="Y28" s="50"/>
+      <c r="Z28" s="50"/>
+      <c r="AA28" s="50"/>
+      <c r="AB28" s="50"/>
+      <c r="AC28" s="50"/>
+      <c r="AD28" s="50"/>
+      <c r="AE28" s="50"/>
+      <c r="AF28" s="50"/>
+      <c r="AG28" s="50"/>
+      <c r="AH28" s="50"/>
+      <c r="AI28" s="50"/>
+      <c r="AJ28" s="50"/>
+      <c r="AK28" s="50"/>
+      <c r="AL28" s="50"/>
+      <c r="AM28" s="50"/>
+      <c r="AN28" s="50"/>
+      <c r="AO28" s="50"/>
+      <c r="AP28" s="50"/>
+      <c r="AQ28" s="50"/>
+      <c r="AR28" s="50"/>
+      <c r="AS28" s="50"/>
+      <c r="AT28" s="50"/>
+      <c r="AU28" s="50"/>
+      <c r="AV28" s="50"/>
+      <c r="AW28" s="50"/>
+      <c r="AX28" s="50"/>
+      <c r="AY28" s="50"/>
+      <c r="AZ28" s="50"/>
+      <c r="BA28" s="50"/>
+      <c r="BB28" s="50"/>
+      <c r="BC28" s="50"/>
+      <c r="BD28" s="50"/>
+      <c r="BE28" s="50"/>
+      <c r="BF28" s="50"/>
+      <c r="BG28" s="50"/>
+      <c r="BH28" s="50"/>
+      <c r="BI28" s="50"/>
+      <c r="BJ28" s="50"/>
+      <c r="BK28" s="50"/>
+      <c r="BL28" s="50"/>
+      <c r="BM28" s="50"/>
+      <c r="BN28" s="50"/>
     </row>
     <row r="29" spans="1:66" s="45" customFormat="1" ht="26">
-      <c r="A29" s="121" t="str">
+      <c r="A29" s="116" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.1</v>
       </c>
       <c r="B29" s="48" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D29" s="46"/>
-      <c r="E29" s="116">
+      <c r="E29" s="111">
         <v>43557</v>
       </c>
-      <c r="F29" s="112">
+      <c r="F29" s="109">
         <f t="shared" ref="F29:F37" si="11">IF(ISBLANK(E29)," - ",IF(G29=0,E29,E29+G29-1))</f>
         <v>43558</v>
       </c>
-      <c r="G29" s="67">
+      <c r="G29" s="64">
         <v>2</v>
       </c>
-      <c r="H29" s="68">
+      <c r="H29" s="65">
         <v>0</v>
       </c>
-      <c r="I29" s="133"/>
-      <c r="J29" s="67">
+      <c r="I29" s="126"/>
+      <c r="J29" s="64">
         <v>2</v>
       </c>
-      <c r="K29" s="195"/>
+      <c r="K29" s="182"/>
       <c r="L29" s="47"/>
       <c r="M29" s="47"/>
       <c r="N29" s="47"/>
@@ -7422,29 +7355,29 @@
       <c r="BN29" s="47"/>
     </row>
     <row r="30" spans="1:66" s="45" customFormat="1">
-      <c r="A30" s="121" t="str">
+      <c r="A30" s="116" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.2</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D30" s="46"/>
-      <c r="E30" s="116">
+      <c r="E30" s="111">
         <v>43559</v>
       </c>
-      <c r="F30" s="112">
+      <c r="F30" s="109">
         <f t="shared" si="11"/>
         <v>43562</v>
       </c>
-      <c r="G30" s="67">
+      <c r="G30" s="64">
         <v>4</v>
       </c>
-      <c r="H30" s="68">
+      <c r="H30" s="65">
         <v>0</v>
       </c>
-      <c r="I30" s="133"/>
-      <c r="J30" s="253">
+      <c r="I30" s="126"/>
+      <c r="J30" s="240">
         <v>4</v>
       </c>
       <c r="K30" s="47"/>
@@ -7505,29 +7438,29 @@
       <c r="BN30" s="47"/>
     </row>
     <row r="31" spans="1:66" s="45" customFormat="1" ht="26">
-      <c r="A31" s="121" t="str">
+      <c r="A31" s="116" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.3</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D31" s="46"/>
-      <c r="E31" s="116">
+      <c r="E31" s="111">
         <v>43563</v>
       </c>
-      <c r="F31" s="112">
+      <c r="F31" s="109">
         <f t="shared" si="11"/>
         <v>43582</v>
       </c>
-      <c r="G31" s="67">
+      <c r="G31" s="64">
         <v>20</v>
       </c>
-      <c r="H31" s="68">
+      <c r="H31" s="65">
         <v>0</v>
       </c>
-      <c r="I31" s="133"/>
-      <c r="J31" s="253">
+      <c r="I31" s="126"/>
+      <c r="J31" s="240">
         <v>30</v>
       </c>
       <c r="K31" s="47"/>
@@ -7588,28 +7521,28 @@
       <c r="BN31" s="47"/>
     </row>
     <row r="32" spans="1:66" s="45" customFormat="1" ht="26">
-      <c r="A32" s="121" t="s">
-        <v>177</v>
+      <c r="A32" s="116" t="s">
+        <v>171</v>
       </c>
       <c r="B32" s="48" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D32" s="46"/>
-      <c r="E32" s="116">
+      <c r="E32" s="111">
         <v>43583</v>
       </c>
-      <c r="F32" s="112">
+      <c r="F32" s="109">
         <f t="shared" si="11"/>
         <v>43592</v>
       </c>
-      <c r="G32" s="67">
+      <c r="G32" s="64">
         <v>10</v>
       </c>
-      <c r="H32" s="68">
+      <c r="H32" s="65">
         <v>0</v>
       </c>
-      <c r="I32" s="133"/>
-      <c r="J32" s="253">
+      <c r="I32" s="126"/>
+      <c r="J32" s="240">
         <v>15</v>
       </c>
       <c r="K32" s="47"/>
@@ -7670,29 +7603,29 @@
       <c r="BN32" s="47"/>
     </row>
     <row r="33" spans="1:66" s="45" customFormat="1" ht="26">
-      <c r="A33" s="121" t="str">
+      <c r="A33" s="116" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.5</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D33" s="46"/>
-      <c r="E33" s="116">
+      <c r="E33" s="111">
         <v>43593</v>
       </c>
-      <c r="F33" s="112">
+      <c r="F33" s="109">
         <f t="shared" si="11"/>
         <v>43594</v>
       </c>
-      <c r="G33" s="67">
+      <c r="G33" s="64">
         <v>2</v>
       </c>
-      <c r="H33" s="68">
+      <c r="H33" s="65">
         <v>0</v>
       </c>
-      <c r="I33" s="133"/>
-      <c r="J33" s="253">
+      <c r="I33" s="126"/>
+      <c r="J33" s="240">
         <v>4</v>
       </c>
       <c r="K33" s="47"/>
@@ -7753,28 +7686,28 @@
       <c r="BN33" s="47"/>
     </row>
     <row r="34" spans="1:66" s="45" customFormat="1">
-      <c r="A34" s="121" t="s">
-        <v>171</v>
+      <c r="A34" s="116" t="s">
+        <v>165</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D34" s="46"/>
-      <c r="E34" s="116">
+      <c r="E34" s="111">
         <v>43595</v>
       </c>
-      <c r="F34" s="112">
+      <c r="F34" s="109">
         <f t="shared" si="11"/>
         <v>43599</v>
       </c>
-      <c r="G34" s="67">
+      <c r="G34" s="64">
         <v>5</v>
       </c>
-      <c r="H34" s="68">
+      <c r="H34" s="65">
         <v>0</v>
       </c>
-      <c r="I34" s="133"/>
-      <c r="J34" s="257">
+      <c r="I34" s="126"/>
+      <c r="J34" s="244">
         <v>10</v>
       </c>
       <c r="K34" s="47"/>
@@ -7835,28 +7768,28 @@
       <c r="BN34" s="47"/>
     </row>
     <row r="35" spans="1:66" s="45" customFormat="1">
-      <c r="A35" s="121" t="s">
-        <v>172</v>
+      <c r="A35" s="116" t="s">
+        <v>166</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D35" s="46"/>
-      <c r="E35" s="116">
+      <c r="E35" s="111">
         <v>43563</v>
       </c>
-      <c r="F35" s="112">
+      <c r="F35" s="109">
         <f t="shared" si="11"/>
         <v>43599</v>
       </c>
-      <c r="G35" s="67">
+      <c r="G35" s="64">
         <v>37</v>
       </c>
-      <c r="H35" s="68">
+      <c r="H35" s="65">
         <v>0</v>
       </c>
-      <c r="I35" s="133"/>
-      <c r="J35" s="257">
+      <c r="I35" s="126"/>
+      <c r="J35" s="244">
         <v>10</v>
       </c>
       <c r="K35" s="47"/>
@@ -7917,29 +7850,29 @@
       <c r="BN35" s="47"/>
     </row>
     <row r="36" spans="1:66" s="45" customFormat="1" ht="26">
-      <c r="A36" s="121" t="str">
+      <c r="A36" s="116" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.7</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D36" s="46"/>
-      <c r="E36" s="116">
+      <c r="E36" s="111">
         <v>43600</v>
       </c>
-      <c r="F36" s="112">
+      <c r="F36" s="109">
         <f t="shared" si="11"/>
         <v>43609</v>
       </c>
-      <c r="G36" s="67">
+      <c r="G36" s="64">
         <v>10</v>
       </c>
-      <c r="H36" s="68">
+      <c r="H36" s="65">
         <v>0</v>
       </c>
-      <c r="I36" s="133"/>
-      <c r="J36" s="258">
+      <c r="I36" s="126"/>
+      <c r="J36" s="245">
         <v>5</v>
       </c>
       <c r="K36" s="47"/>
@@ -8000,28 +7933,28 @@
       <c r="BN36" s="47"/>
     </row>
     <row r="37" spans="1:66" s="45" customFormat="1" ht="26">
-      <c r="A37" s="121" t="s">
-        <v>175</v>
+      <c r="A37" s="116" t="s">
+        <v>169</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="D37" s="234"/>
-      <c r="E37" s="235">
+        <v>158</v>
+      </c>
+      <c r="D37" s="221"/>
+      <c r="E37" s="222">
         <v>43589</v>
       </c>
-      <c r="F37" s="183">
+      <c r="F37" s="170">
         <f t="shared" si="11"/>
         <v>43612</v>
       </c>
-      <c r="G37" s="184">
+      <c r="G37" s="171">
         <v>24</v>
       </c>
-      <c r="H37" s="185">
+      <c r="H37" s="172">
         <v>0</v>
       </c>
-      <c r="I37" s="186"/>
-      <c r="J37" s="259">
+      <c r="I37" s="173"/>
+      <c r="J37" s="246">
         <v>18</v>
       </c>
       <c r="K37" s="47"/>
@@ -8081,17 +8014,17 @@
       <c r="BM37" s="47"/>
       <c r="BN37" s="47"/>
     </row>
-    <row r="38" spans="1:66" s="57" customFormat="1" ht="12">
+    <row r="38" spans="1:66" s="55" customFormat="1" ht="12">
       <c r="A38" s="44"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="115"/>
-      <c r="F38" s="115"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="136"/>
-      <c r="J38" s="260"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="110"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="129"/>
+      <c r="J38" s="247"/>
       <c r="K38" s="47"/>
       <c r="L38" s="47"/>
       <c r="M38" s="47"/>
@@ -8149,600 +8082,76 @@
       <c r="BM38" s="47"/>
       <c r="BN38" s="47"/>
     </row>
-    <row r="39" spans="1:66" s="57" customFormat="1" ht="12">
-      <c r="A39" s="44"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="115"/>
-      <c r="F39" s="115"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="136"/>
-      <c r="J39" s="260"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="47"/>
-      <c r="N39" s="47"/>
-      <c r="O39" s="47"/>
-      <c r="P39" s="47"/>
-      <c r="Q39" s="47"/>
-      <c r="R39" s="47"/>
-      <c r="S39" s="47"/>
-      <c r="T39" s="47"/>
-      <c r="U39" s="47"/>
-      <c r="V39" s="47"/>
-      <c r="W39" s="47"/>
-      <c r="X39" s="47"/>
-      <c r="Y39" s="47"/>
-      <c r="Z39" s="47"/>
-      <c r="AA39" s="47"/>
-      <c r="AB39" s="47"/>
-      <c r="AC39" s="47"/>
-      <c r="AD39" s="47"/>
-      <c r="AE39" s="47"/>
-      <c r="AF39" s="47"/>
-      <c r="AG39" s="47"/>
-      <c r="AH39" s="47"/>
-      <c r="AI39" s="47"/>
-      <c r="AJ39" s="47"/>
-      <c r="AK39" s="47"/>
-      <c r="AL39" s="47"/>
-      <c r="AM39" s="47"/>
-      <c r="AN39" s="47"/>
-      <c r="AO39" s="47"/>
-      <c r="AP39" s="47"/>
-      <c r="AQ39" s="47"/>
-      <c r="AR39" s="47"/>
-      <c r="AS39" s="47"/>
-      <c r="AT39" s="47"/>
-      <c r="AU39" s="47"/>
-      <c r="AV39" s="47"/>
-      <c r="AW39" s="47"/>
-      <c r="AX39" s="47"/>
-      <c r="AY39" s="47"/>
-      <c r="AZ39" s="47"/>
-      <c r="BA39" s="47"/>
-      <c r="BB39" s="47"/>
-      <c r="BC39" s="47"/>
-      <c r="BD39" s="47"/>
-      <c r="BE39" s="47"/>
-      <c r="BF39" s="47"/>
-      <c r="BG39" s="47"/>
-      <c r="BH39" s="47"/>
-      <c r="BI39" s="47"/>
-      <c r="BJ39" s="47"/>
-      <c r="BK39" s="47"/>
-      <c r="BL39" s="47"/>
-      <c r="BM39" s="47"/>
-      <c r="BN39" s="47"/>
-    </row>
-    <row r="40" spans="1:66" s="58" customFormat="1" ht="27" customHeight="1" thickBot="1">
-      <c r="A40" s="137" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40" s="70"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="70"/>
-      <c r="J40" s="70"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="47"/>
-      <c r="N40" s="47"/>
-      <c r="O40" s="47"/>
-      <c r="P40" s="47"/>
-      <c r="Q40" s="47"/>
-      <c r="R40" s="47"/>
-      <c r="S40" s="47"/>
-      <c r="T40" s="47"/>
-      <c r="U40" s="47"/>
-      <c r="V40" s="47"/>
-      <c r="W40" s="47"/>
-      <c r="X40" s="47"/>
-      <c r="Y40" s="47"/>
-      <c r="Z40" s="47"/>
-      <c r="AA40" s="47"/>
-      <c r="AB40" s="47"/>
-      <c r="AC40" s="47"/>
-      <c r="AD40" s="47"/>
-      <c r="AE40" s="47"/>
-      <c r="AF40" s="47"/>
-      <c r="AG40" s="47"/>
-      <c r="AH40" s="47"/>
-      <c r="AI40" s="47"/>
-      <c r="AJ40" s="47"/>
-      <c r="AK40" s="47"/>
-      <c r="AL40" s="47"/>
-      <c r="AM40" s="47"/>
-      <c r="AN40" s="47"/>
-      <c r="AO40" s="47"/>
-      <c r="AP40" s="47"/>
-      <c r="AQ40" s="47"/>
-      <c r="AR40" s="47"/>
-      <c r="AS40" s="47"/>
-      <c r="AT40" s="47"/>
-      <c r="AU40" s="47"/>
-      <c r="AV40" s="47"/>
-      <c r="AW40" s="47"/>
-      <c r="AX40" s="47"/>
-      <c r="AY40" s="47"/>
-      <c r="AZ40" s="47"/>
-      <c r="BA40" s="47"/>
-      <c r="BB40" s="47"/>
-      <c r="BC40" s="47"/>
-      <c r="BD40" s="47"/>
-      <c r="BE40" s="47"/>
-      <c r="BF40" s="47"/>
-      <c r="BG40" s="47"/>
-      <c r="BH40" s="47"/>
-      <c r="BI40" s="47"/>
-      <c r="BJ40" s="47"/>
-      <c r="BK40" s="47"/>
-      <c r="BL40" s="47"/>
-      <c r="BM40" s="47"/>
-      <c r="BN40" s="47"/>
-    </row>
-    <row r="41" spans="1:66" s="57" customFormat="1" ht="19" thickTop="1">
-      <c r="A41" s="138" t="s">
-        <v>73</v>
-      </c>
-      <c r="B41" s="139"/>
-      <c r="C41" s="139"/>
-      <c r="D41" s="139"/>
-      <c r="E41" s="140"/>
-      <c r="F41" s="140"/>
-      <c r="G41" s="139"/>
-      <c r="H41" s="139"/>
-      <c r="I41" s="141"/>
-      <c r="J41" s="142"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="47"/>
-      <c r="O41" s="47"/>
-      <c r="P41" s="47"/>
-      <c r="Q41" s="47"/>
-      <c r="R41" s="47"/>
-      <c r="S41" s="47"/>
-      <c r="T41" s="47"/>
-      <c r="U41" s="47"/>
-      <c r="V41" s="47"/>
-      <c r="W41" s="47"/>
-      <c r="X41" s="47"/>
-      <c r="Y41" s="47"/>
-      <c r="Z41" s="47"/>
-      <c r="AA41" s="47"/>
-      <c r="AB41" s="47"/>
-      <c r="AC41" s="47"/>
-      <c r="AD41" s="47"/>
-      <c r="AE41" s="47"/>
-      <c r="AF41" s="47"/>
-      <c r="AG41" s="47"/>
-      <c r="AH41" s="47"/>
-      <c r="AI41" s="47"/>
-      <c r="AJ41" s="47"/>
-      <c r="AK41" s="47"/>
-      <c r="AL41" s="47"/>
-      <c r="AM41" s="47"/>
-      <c r="AN41" s="47"/>
-      <c r="AO41" s="47"/>
-      <c r="AP41" s="47"/>
-      <c r="AQ41" s="47"/>
-      <c r="AR41" s="47"/>
-      <c r="AS41" s="47"/>
-      <c r="AT41" s="47"/>
-      <c r="AU41" s="47"/>
-      <c r="AV41" s="47"/>
-      <c r="AW41" s="47"/>
-      <c r="AX41" s="47"/>
-      <c r="AY41" s="47"/>
-      <c r="AZ41" s="47"/>
-      <c r="BA41" s="47"/>
-      <c r="BB41" s="47"/>
-      <c r="BC41" s="47"/>
-      <c r="BD41" s="47"/>
-      <c r="BE41" s="47"/>
-      <c r="BF41" s="47"/>
-      <c r="BG41" s="47"/>
-      <c r="BH41" s="47"/>
-      <c r="BI41" s="47"/>
-      <c r="BJ41" s="47"/>
-      <c r="BK41" s="47"/>
-      <c r="BL41" s="47"/>
-      <c r="BM41" s="47"/>
-      <c r="BN41" s="47"/>
-    </row>
-    <row r="42" spans="1:66" s="57" customFormat="1" ht="18">
-      <c r="A42" s="122" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>1</v>
-      </c>
-      <c r="B42" s="132" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="43"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="113"/>
-      <c r="F42" s="114"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="134"/>
-      <c r="J42" s="125"/>
-      <c r="K42" s="47"/>
-      <c r="L42" s="47"/>
-      <c r="M42" s="47"/>
-      <c r="N42" s="47"/>
-      <c r="O42" s="47"/>
-      <c r="P42" s="47"/>
-      <c r="Q42" s="47"/>
-      <c r="R42" s="47"/>
-      <c r="S42" s="47"/>
-      <c r="T42" s="47"/>
-      <c r="U42" s="47"/>
-      <c r="V42" s="47"/>
-      <c r="W42" s="47"/>
-      <c r="X42" s="47"/>
-      <c r="Y42" s="47"/>
-      <c r="Z42" s="47"/>
-      <c r="AA42" s="47"/>
-      <c r="AB42" s="47"/>
-      <c r="AC42" s="47"/>
-      <c r="AD42" s="47"/>
-      <c r="AE42" s="47"/>
-      <c r="AF42" s="47"/>
-      <c r="AG42" s="47"/>
-      <c r="AH42" s="47"/>
-      <c r="AI42" s="47"/>
-      <c r="AJ42" s="47"/>
-      <c r="AK42" s="47"/>
-      <c r="AL42" s="47"/>
-      <c r="AM42" s="47"/>
-      <c r="AN42" s="47"/>
-      <c r="AO42" s="47"/>
-      <c r="AP42" s="47"/>
-      <c r="AQ42" s="47"/>
-      <c r="AR42" s="47"/>
-      <c r="AS42" s="47"/>
-      <c r="AT42" s="47"/>
-      <c r="AU42" s="47"/>
-      <c r="AV42" s="47"/>
-      <c r="AW42" s="47"/>
-      <c r="AX42" s="47"/>
-      <c r="AY42" s="47"/>
-      <c r="AZ42" s="47"/>
-      <c r="BA42" s="47"/>
-      <c r="BB42" s="47"/>
-      <c r="BC42" s="47"/>
-      <c r="BD42" s="47"/>
-      <c r="BE42" s="47"/>
-      <c r="BF42" s="47"/>
-      <c r="BG42" s="47"/>
-      <c r="BH42" s="47"/>
-      <c r="BI42" s="47"/>
-      <c r="BJ42" s="47"/>
-      <c r="BK42" s="47"/>
-      <c r="BL42" s="47"/>
-      <c r="BM42" s="47"/>
-      <c r="BN42" s="47"/>
-    </row>
-    <row r="43" spans="1:66" s="57" customFormat="1" ht="18">
-      <c r="A43" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.1</v>
-      </c>
-      <c r="B43" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="45"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="116"/>
-      <c r="F43" s="112" t="str">
-        <f>IF(ISBLANK(E43)," - ",IF(G43=0,E43,E43+G43-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G43" s="67"/>
-      <c r="H43" s="68">
-        <v>0</v>
-      </c>
-      <c r="I43" s="133">
-        <f>IF(OR(F43=0,E43=0),0,NETWORKDAYS(E43,F43))</f>
-        <v>0</v>
-      </c>
-      <c r="J43" s="124"/>
-      <c r="K43" s="47"/>
-      <c r="L43" s="47"/>
-      <c r="M43" s="47"/>
-      <c r="N43" s="47"/>
-      <c r="O43" s="47"/>
-      <c r="P43" s="47"/>
-      <c r="Q43" s="47"/>
-      <c r="R43" s="47"/>
-      <c r="S43" s="47"/>
-      <c r="T43" s="47"/>
-      <c r="U43" s="47"/>
-      <c r="V43" s="47"/>
-      <c r="W43" s="47"/>
-      <c r="X43" s="47"/>
-      <c r="Y43" s="47"/>
-      <c r="Z43" s="47"/>
-      <c r="AA43" s="47"/>
-      <c r="AB43" s="47"/>
-      <c r="AC43" s="47"/>
-      <c r="AD43" s="47"/>
-      <c r="AE43" s="47"/>
-      <c r="AF43" s="47"/>
-      <c r="AG43" s="47"/>
-      <c r="AH43" s="47"/>
-      <c r="AI43" s="47"/>
-      <c r="AJ43" s="47"/>
-      <c r="AK43" s="47"/>
-      <c r="AL43" s="47"/>
-      <c r="AM43" s="47"/>
-      <c r="AN43" s="47"/>
-      <c r="AO43" s="47"/>
-      <c r="AP43" s="47"/>
-      <c r="AQ43" s="47"/>
-      <c r="AR43" s="47"/>
-      <c r="AS43" s="47"/>
-      <c r="AT43" s="47"/>
-      <c r="AU43" s="47"/>
-      <c r="AV43" s="47"/>
-      <c r="AW43" s="47"/>
-      <c r="AX43" s="47"/>
-      <c r="AY43" s="47"/>
-      <c r="AZ43" s="47"/>
-      <c r="BA43" s="47"/>
-      <c r="BB43" s="47"/>
-      <c r="BC43" s="47"/>
-      <c r="BD43" s="47"/>
-      <c r="BE43" s="47"/>
-      <c r="BF43" s="47"/>
-      <c r="BG43" s="47"/>
-      <c r="BH43" s="47"/>
-      <c r="BI43" s="47"/>
-      <c r="BJ43" s="47"/>
-      <c r="BK43" s="47"/>
-      <c r="BL43" s="47"/>
-      <c r="BM43" s="47"/>
-      <c r="BN43" s="47"/>
-    </row>
-    <row r="44" spans="1:66" s="57" customFormat="1" ht="18">
-      <c r="A44" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.1.1</v>
-      </c>
-      <c r="B44" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" s="45"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="116"/>
-      <c r="F44" s="112" t="str">
-        <f t="shared" ref="F44:F45" si="12">IF(ISBLANK(E44)," - ",IF(G44=0,E44,E44+G44-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G44" s="67"/>
-      <c r="H44" s="68">
-        <v>0</v>
-      </c>
-      <c r="I44" s="133">
-        <f t="shared" ref="I44:I45" si="13">IF(OR(F44=0,E44=0),0,NETWORKDAYS(E44,F44))</f>
-        <v>0</v>
-      </c>
-      <c r="J44" s="124"/>
-      <c r="K44" s="47"/>
-      <c r="L44" s="47"/>
-      <c r="M44" s="47"/>
-      <c r="N44" s="47"/>
-      <c r="O44" s="47"/>
-      <c r="P44" s="47"/>
-      <c r="Q44" s="47"/>
-      <c r="R44" s="47"/>
-      <c r="S44" s="47"/>
-      <c r="T44" s="47"/>
-      <c r="U44" s="47"/>
-      <c r="V44" s="47"/>
-      <c r="W44" s="47"/>
-      <c r="X44" s="47"/>
-      <c r="Y44" s="47"/>
-      <c r="Z44" s="47"/>
-      <c r="AA44" s="47"/>
-      <c r="AB44" s="47"/>
-      <c r="AC44" s="47"/>
-      <c r="AD44" s="47"/>
-      <c r="AE44" s="47"/>
-      <c r="AF44" s="47"/>
-      <c r="AG44" s="47"/>
-      <c r="AH44" s="47"/>
-      <c r="AI44" s="47"/>
-      <c r="AJ44" s="47"/>
-      <c r="AK44" s="47"/>
-      <c r="AL44" s="47"/>
-      <c r="AM44" s="47"/>
-      <c r="AN44" s="47"/>
-      <c r="AO44" s="47"/>
-      <c r="AP44" s="47"/>
-      <c r="AQ44" s="47"/>
-      <c r="AR44" s="47"/>
-      <c r="AS44" s="47"/>
-      <c r="AT44" s="47"/>
-      <c r="AU44" s="47"/>
-      <c r="AV44" s="47"/>
-      <c r="AW44" s="47"/>
-      <c r="AX44" s="47"/>
-      <c r="AY44" s="47"/>
-      <c r="AZ44" s="47"/>
-      <c r="BA44" s="47"/>
-      <c r="BB44" s="47"/>
-      <c r="BC44" s="47"/>
-      <c r="BD44" s="47"/>
-      <c r="BE44" s="47"/>
-      <c r="BF44" s="47"/>
-      <c r="BG44" s="47"/>
-      <c r="BH44" s="47"/>
-      <c r="BI44" s="47"/>
-      <c r="BJ44" s="47"/>
-      <c r="BK44" s="47"/>
-      <c r="BL44" s="47"/>
-      <c r="BM44" s="47"/>
-      <c r="BN44" s="47"/>
-    </row>
-    <row r="45" spans="1:66" s="57" customFormat="1" ht="18">
-      <c r="A45" s="121" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>1.1.1.1</v>
-      </c>
-      <c r="B45" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="C45" s="45"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="116"/>
-      <c r="F45" s="112" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G45" s="67"/>
-      <c r="H45" s="68">
-        <v>0</v>
-      </c>
-      <c r="I45" s="133">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="124"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="47"/>
-      <c r="N45" s="47"/>
-      <c r="O45" s="47"/>
-      <c r="P45" s="47"/>
-      <c r="Q45" s="47"/>
-      <c r="R45" s="47"/>
-      <c r="S45" s="47"/>
-      <c r="T45" s="47"/>
-      <c r="U45" s="47"/>
-      <c r="V45" s="47"/>
-      <c r="W45" s="47"/>
-      <c r="X45" s="47"/>
-      <c r="Y45" s="47"/>
-      <c r="Z45" s="47"/>
-      <c r="AA45" s="47"/>
-      <c r="AB45" s="47"/>
-      <c r="AC45" s="47"/>
-      <c r="AD45" s="47"/>
-      <c r="AE45" s="47"/>
-      <c r="AF45" s="47"/>
-      <c r="AG45" s="47"/>
-      <c r="AH45" s="47"/>
-      <c r="AI45" s="47"/>
-      <c r="AJ45" s="47"/>
-      <c r="AK45" s="47"/>
-      <c r="AL45" s="47"/>
-      <c r="AM45" s="47"/>
-      <c r="AN45" s="47"/>
-      <c r="AO45" s="47"/>
-      <c r="AP45" s="47"/>
-      <c r="AQ45" s="47"/>
-      <c r="AR45" s="47"/>
-      <c r="AS45" s="47"/>
-      <c r="AT45" s="47"/>
-      <c r="AU45" s="47"/>
-      <c r="AV45" s="47"/>
-      <c r="AW45" s="47"/>
-      <c r="AX45" s="47"/>
-      <c r="AY45" s="47"/>
-      <c r="AZ45" s="47"/>
-      <c r="BA45" s="47"/>
-      <c r="BB45" s="47"/>
-      <c r="BC45" s="47"/>
-      <c r="BD45" s="47"/>
-      <c r="BE45" s="47"/>
-      <c r="BF45" s="47"/>
-      <c r="BG45" s="47"/>
-      <c r="BH45" s="47"/>
-      <c r="BI45" s="47"/>
-      <c r="BJ45" s="47"/>
-      <c r="BK45" s="47"/>
-      <c r="BL45" s="47"/>
-      <c r="BM45" s="47"/>
-      <c r="BN45" s="47"/>
-    </row>
-    <row r="46" spans="1:66" s="62" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A46" s="59"/>
-      <c r="B46" s="60"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="60"/>
-      <c r="I46" s="60"/>
-      <c r="J46" s="60"/>
-      <c r="K46" s="60"/>
-      <c r="L46" s="60"/>
-      <c r="M46" s="60"/>
-      <c r="N46" s="60"/>
-      <c r="O46" s="60"/>
-      <c r="P46" s="60"/>
-      <c r="Q46" s="60"/>
-      <c r="R46" s="60"/>
-      <c r="S46" s="60"/>
-      <c r="T46" s="60"/>
-      <c r="U46" s="60"/>
-      <c r="V46" s="60"/>
-      <c r="W46" s="60"/>
-      <c r="X46" s="60"/>
-      <c r="Y46" s="60"/>
-      <c r="Z46" s="60"/>
-      <c r="AA46" s="60"/>
-      <c r="AB46" s="60"/>
-      <c r="AC46" s="60"/>
-      <c r="AD46" s="60"/>
-      <c r="AE46" s="60"/>
-      <c r="AF46" s="60"/>
-      <c r="AG46" s="60"/>
-      <c r="AH46" s="60"/>
-      <c r="AI46" s="60"/>
-      <c r="AJ46" s="60"/>
-      <c r="AK46" s="60"/>
-      <c r="AL46" s="60"/>
-      <c r="AM46" s="60"/>
-      <c r="AN46" s="60"/>
-      <c r="AO46" s="60"/>
-      <c r="AP46" s="60"/>
-      <c r="AQ46" s="60"/>
-      <c r="AR46" s="60"/>
-      <c r="AS46" s="60"/>
-      <c r="AT46" s="60"/>
-      <c r="AU46" s="60"/>
-      <c r="AV46" s="60"/>
-      <c r="AW46" s="60"/>
-      <c r="AX46" s="60"/>
-      <c r="AY46" s="60"/>
-      <c r="AZ46" s="60"/>
-      <c r="BA46" s="60"/>
-      <c r="BB46" s="60"/>
-      <c r="BC46" s="60"/>
-      <c r="BD46" s="60"/>
-      <c r="BE46" s="60"/>
-      <c r="BF46" s="60"/>
-      <c r="BG46" s="60"/>
-      <c r="BH46" s="60"/>
-      <c r="BI46" s="60"/>
-      <c r="BJ46" s="60"/>
-      <c r="BK46" s="60"/>
-      <c r="BL46" s="60"/>
-      <c r="BM46" s="60"/>
-      <c r="BN46" s="60"/>
-    </row>
-    <row r="47" spans="1:66" ht="19.5" customHeight="1"/>
-    <row r="48" spans="1:66" ht="19.5" customHeight="1"/>
+    <row r="39" spans="1:66" s="59" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A39" s="56"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="57"/>
+      <c r="M39" s="57"/>
+      <c r="N39" s="57"/>
+      <c r="O39" s="57"/>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="57"/>
+      <c r="R39" s="57"/>
+      <c r="S39" s="57"/>
+      <c r="T39" s="57"/>
+      <c r="U39" s="57"/>
+      <c r="V39" s="57"/>
+      <c r="W39" s="57"/>
+      <c r="X39" s="57"/>
+      <c r="Y39" s="57"/>
+      <c r="Z39" s="57"/>
+      <c r="AA39" s="57"/>
+      <c r="AB39" s="57"/>
+      <c r="AC39" s="57"/>
+      <c r="AD39" s="57"/>
+      <c r="AE39" s="57"/>
+      <c r="AF39" s="57"/>
+      <c r="AG39" s="57"/>
+      <c r="AH39" s="57"/>
+      <c r="AI39" s="57"/>
+      <c r="AJ39" s="57"/>
+      <c r="AK39" s="57"/>
+      <c r="AL39" s="57"/>
+      <c r="AM39" s="57"/>
+      <c r="AN39" s="57"/>
+      <c r="AO39" s="57"/>
+      <c r="AP39" s="57"/>
+      <c r="AQ39" s="57"/>
+      <c r="AR39" s="57"/>
+      <c r="AS39" s="57"/>
+      <c r="AT39" s="57"/>
+      <c r="AU39" s="57"/>
+      <c r="AV39" s="57"/>
+      <c r="AW39" s="57"/>
+      <c r="AX39" s="57"/>
+      <c r="AY39" s="57"/>
+      <c r="AZ39" s="57"/>
+      <c r="BA39" s="57"/>
+      <c r="BB39" s="57"/>
+      <c r="BC39" s="57"/>
+      <c r="BD39" s="57"/>
+      <c r="BE39" s="57"/>
+      <c r="BF39" s="57"/>
+      <c r="BG39" s="57"/>
+      <c r="BH39" s="57"/>
+      <c r="BI39" s="57"/>
+      <c r="BJ39" s="57"/>
+      <c r="BK39" s="57"/>
+      <c r="BL39" s="57"/>
+      <c r="BM39" s="57"/>
+      <c r="BN39" s="57"/>
+    </row>
+    <row r="40" spans="1:66" ht="19.5" customHeight="1"/>
+    <row r="41" spans="1:66" ht="19.5" customHeight="1"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
@@ -8767,7 +8176,7 @@
     <mergeCell ref="BA5:BG5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H41:H45 H8:H39">
+  <conditionalFormatting sqref="H8:H38">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8786,7 +8195,7 @@
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN45">
+  <conditionalFormatting sqref="K8:BN38">
     <cfRule type="expression" dxfId="2" priority="49">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
@@ -8794,7 +8203,7 @@
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN45">
+  <conditionalFormatting sqref="K6:BN38">
     <cfRule type="expression" dxfId="0" priority="3">
       <formula>K$6=TODAY()</formula>
     </cfRule>
@@ -8806,7 +8215,7 @@
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A38:B39 B40:B41 F18 F28 E44:E45 E38:I42 H33 H20:H22 H18 H28:H31" unlockedFormula="1"/>
+    <ignoredError sqref="A38:B38 F18 F28 E38:I38 H33 H20:H22 H18 H28:H31" unlockedFormula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -8854,7 +8263,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H41:H45 H8:H39</xm:sqref>
+          <xm:sqref>H8:H38</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -8867,7 +8276,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A62" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -8882,14 +8291,14 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1">
       <c r="A1" s="26" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="28"/>
     </row>
     <row r="2" spans="1:4" ht="14">
-      <c r="A2" s="154" t="s">
-        <v>46</v>
+      <c r="A2" s="141" t="s">
+        <v>45</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="2"/>
@@ -8900,37 +8309,37 @@
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" ht="18">
-      <c r="A4" s="155" t="s">
-        <v>75</v>
+      <c r="A4" s="142" t="s">
+        <v>69</v>
       </c>
       <c r="B4" s="25"/>
     </row>
     <row r="5" spans="1:4" s="2" customFormat="1" ht="60">
-      <c r="B5" s="156" t="s">
-        <v>76</v>
+      <c r="B5" s="143" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30">
-      <c r="B7" s="156" t="s">
-        <v>19</v>
+      <c r="B7" s="143" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14">
-      <c r="B9" s="154" t="s">
+      <c r="B9" s="141" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30">
+      <c r="B11" s="144" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30">
-      <c r="B11" s="157" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="13" customFormat="1"/>
     <row r="13" spans="1:4" ht="18">
-      <c r="A13" s="233" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="233"/>
+      <c r="A13" s="220" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="220"/>
     </row>
     <row r="14" spans="1:4" s="2" customFormat="1">
       <c r="A14" s="13"/>
@@ -8939,312 +8348,312 @@
       <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:4" s="2" customFormat="1" ht="18">
-      <c r="A15" s="158"/>
-      <c r="B15" s="159" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="160"/>
-      <c r="D15" s="160"/>
+      <c r="A15" s="145"/>
+      <c r="B15" s="146" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="147"/>
+      <c r="D15" s="147"/>
     </row>
     <row r="16" spans="1:4" ht="18">
-      <c r="A16" s="158"/>
-      <c r="B16" s="161" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="160"/>
-      <c r="D16" s="160"/>
+      <c r="A16" s="145"/>
+      <c r="B16" s="148" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="147"/>
+      <c r="D16" s="147"/>
     </row>
     <row r="17" spans="1:4" ht="18">
-      <c r="A17" s="162"/>
-      <c r="B17" s="161" t="s">
-        <v>79</v>
+      <c r="A17" s="149"/>
+      <c r="B17" s="148" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18">
-      <c r="A18" s="162"/>
-      <c r="B18" s="161" t="s">
-        <v>80</v>
+      <c r="A18" s="149"/>
+      <c r="B18" s="148" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="2" customFormat="1" ht="30">
-      <c r="A19" s="163"/>
-      <c r="B19" s="161" t="s">
-        <v>130</v>
+      <c r="A19" s="150"/>
+      <c r="B19" s="148" t="s">
+        <v>124</v>
       </c>
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
     </row>
     <row r="20" spans="1:4" ht="18">
-      <c r="A20" s="162"/>
-      <c r="B20" s="161" t="s">
-        <v>81</v>
+      <c r="A20" s="149"/>
+      <c r="B20" s="148" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="2" customFormat="1" ht="18">
-      <c r="A21" s="164"/>
-      <c r="B21" s="165" t="s">
-        <v>82</v>
+      <c r="A21" s="151"/>
+      <c r="B21" s="152" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="2" customFormat="1" ht="18">
-      <c r="A22" s="164"/>
+      <c r="A22" s="151"/>
       <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:4" ht="18">
-      <c r="A23" s="233" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="233"/>
+      <c r="A23" s="220" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="220"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" ht="45">
-      <c r="A24" s="164"/>
-      <c r="B24" s="161" t="s">
-        <v>84</v>
+      <c r="A24" s="151"/>
+      <c r="B24" s="148" t="s">
+        <v>78</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" ht="18">
-      <c r="A25" s="164"/>
-      <c r="B25" s="161"/>
+      <c r="A25" s="151"/>
+      <c r="B25" s="148"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" ht="18">
-      <c r="A26" s="164"/>
-      <c r="B26" s="166" t="s">
-        <v>85</v>
+      <c r="A26" s="151"/>
+      <c r="B26" s="153" t="s">
+        <v>79</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" ht="18">
-      <c r="A27" s="164"/>
-      <c r="B27" s="161" t="s">
-        <v>86</v>
+      <c r="A27" s="151"/>
+      <c r="B27" s="148" t="s">
+        <v>80</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" ht="30">
-      <c r="A28" s="164"/>
-      <c r="B28" s="161" t="s">
-        <v>87</v>
+      <c r="A28" s="151"/>
+      <c r="B28" s="148" t="s">
+        <v>81</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" ht="18">
-      <c r="A29" s="164"/>
-      <c r="B29" s="161"/>
+      <c r="A29" s="151"/>
+      <c r="B29" s="148"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" ht="18">
-      <c r="A30" s="164"/>
-      <c r="B30" s="166" t="s">
-        <v>88</v>
+      <c r="A30" s="151"/>
+      <c r="B30" s="153" t="s">
+        <v>82</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" ht="18">
-      <c r="A31" s="164"/>
-      <c r="B31" s="161" t="s">
-        <v>89</v>
+      <c r="A31" s="151"/>
+      <c r="B31" s="148" t="s">
+        <v>83</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" ht="18">
-      <c r="A32" s="164"/>
-      <c r="B32" s="161" t="s">
-        <v>90</v>
+      <c r="A32" s="151"/>
+      <c r="B32" s="148" t="s">
+        <v>84</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" ht="18">
-      <c r="A33" s="164"/>
+      <c r="A33" s="151"/>
       <c r="B33" s="4"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" ht="30">
-      <c r="A34" s="164"/>
-      <c r="B34" s="161" t="s">
-        <v>91</v>
+      <c r="A34" s="151"/>
+      <c r="B34" s="148" t="s">
+        <v>85</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" ht="18">
-      <c r="A35" s="164"/>
-      <c r="B35" s="167" t="s">
-        <v>92</v>
+      <c r="A35" s="151"/>
+      <c r="B35" s="154" t="s">
+        <v>86</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" ht="18">
-      <c r="A36" s="164"/>
+      <c r="A36" s="151"/>
       <c r="B36" s="4"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" ht="18">
-      <c r="A37" s="233" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="233"/>
+      <c r="A37" s="220" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="220"/>
     </row>
     <row r="38" spans="1:4" ht="30">
-      <c r="B38" s="161" t="s">
-        <v>93</v>
+      <c r="B38" s="148" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15">
-      <c r="B40" s="161" t="s">
-        <v>94</v>
+      <c r="B40" s="148" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:4" s="2" customFormat="1" ht="30">
       <c r="A42" s="13"/>
-      <c r="B42" s="161" t="s">
-        <v>95</v>
+      <c r="B42" s="148" t="s">
+        <v>89</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
     </row>
     <row r="44" spans="1:4" ht="30">
-      <c r="B44" s="161" t="s">
-        <v>96</v>
+      <c r="B44" s="148" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="B45" s="14"/>
     </row>
     <row r="46" spans="1:4" ht="30">
-      <c r="B46" s="161" t="s">
-        <v>97</v>
+      <c r="B46" s="148" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:4" ht="18">
-      <c r="A48" s="233" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48" s="233"/>
+      <c r="A48" s="220" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="220"/>
     </row>
     <row r="49" spans="1:2" ht="30">
-      <c r="B49" s="161" t="s">
-        <v>98</v>
+      <c r="B49" s="148" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="B50" s="6"/>
     </row>
     <row r="51" spans="1:2" ht="15">
-      <c r="A51" s="168" t="s">
+      <c r="A51" s="155" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="161" t="s">
+    </row>
+    <row r="52" spans="1:2" ht="15">
+      <c r="A52" s="155" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="15">
-      <c r="A52" s="168" t="s">
+      <c r="B52" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="B52" s="161" t="s">
+    </row>
+    <row r="53" spans="1:2" ht="15">
+      <c r="A53" s="155" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="15">
-      <c r="A53" s="168" t="s">
+      <c r="B53" s="148" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="161" t="s">
+    </row>
+    <row r="54" spans="1:2" ht="30">
+      <c r="A54" s="144"/>
+      <c r="B54" s="148" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="30">
+      <c r="A55" s="144"/>
+      <c r="B55" s="148" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15">
+      <c r="A56" s="155" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="30">
-      <c r="A54" s="157"/>
-      <c r="B54" s="161" t="s">
+      <c r="B56" s="148" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15">
+      <c r="A57" s="144"/>
+      <c r="B57" s="148" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" s="13" customFormat="1" ht="15">
+      <c r="A58" s="144"/>
+      <c r="B58" s="148" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" s="13" customFormat="1" ht="15">
+      <c r="A59" s="155" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" s="148" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" s="13" customFormat="1" ht="30">
+      <c r="A60" s="144"/>
+      <c r="B60" s="148" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15">
+      <c r="A61" s="155" t="s">
+        <v>98</v>
+      </c>
+      <c r="B61" s="148" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="30">
-      <c r="A55" s="157"/>
-      <c r="B55" s="161" t="s">
+    <row r="62" spans="1:2" s="13" customFormat="1" ht="15">
+      <c r="A62" s="156"/>
+      <c r="B62" s="148" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="15">
-      <c r="A56" s="168" t="s">
-        <v>14</v>
-      </c>
-      <c r="B56" s="161" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="15">
-      <c r="A57" s="157"/>
-      <c r="B57" s="161" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" s="13" customFormat="1" ht="15">
-      <c r="A58" s="157"/>
-      <c r="B58" s="161" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" s="13" customFormat="1" ht="15">
-      <c r="A59" s="168" t="s">
-        <v>16</v>
-      </c>
-      <c r="B59" s="161" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" s="13" customFormat="1" ht="30">
-      <c r="A60" s="157"/>
-      <c r="B60" s="161" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="15">
-      <c r="A61" s="168" t="s">
-        <v>104</v>
-      </c>
-      <c r="B61" s="161" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" s="13" customFormat="1" ht="15">
-      <c r="A62" s="169"/>
-      <c r="B62" s="161" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:2" s="13" customFormat="1">
       <c r="B63" s="5"/>
     </row>
     <row r="64" spans="1:2" s="13" customFormat="1" ht="18">
-      <c r="A64" s="233" t="s">
-        <v>6</v>
-      </c>
-      <c r="B64" s="233"/>
+      <c r="A64" s="220" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="220"/>
     </row>
     <row r="65" spans="1:4" s="2" customFormat="1" ht="45">
       <c r="A65" s="13"/>
-      <c r="B65" s="161" t="s">
-        <v>107</v>
+      <c r="B65" s="148" t="s">
+        <v>101</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
@@ -9253,178 +8662,178 @@
       <c r="B66" s="6"/>
     </row>
     <row r="67" spans="1:4" s="2" customFormat="1" ht="18">
-      <c r="A67" s="233" t="s">
+      <c r="A67" s="220" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="220"/>
+    </row>
+    <row r="68" spans="1:4" s="2" customFormat="1" ht="15">
+      <c r="A68" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="233"/>
-    </row>
-    <row r="68" spans="1:4" s="2" customFormat="1" ht="15">
-      <c r="A68" s="170" t="s">
-        <v>4</v>
-      </c>
-      <c r="B68" s="171" t="s">
-        <v>108</v>
+      <c r="B68" s="158" t="s">
+        <v>102</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
     </row>
     <row r="69" spans="1:4" ht="30">
-      <c r="A69" s="172"/>
-      <c r="B69" s="173" t="s">
-        <v>109</v>
+      <c r="A69" s="159"/>
+      <c r="B69" s="160" t="s">
+        <v>103</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
     <row r="70" spans="1:4" s="2" customFormat="1" ht="14">
-      <c r="A70" s="172"/>
-      <c r="B70" s="174"/>
+      <c r="A70" s="159"/>
+      <c r="B70" s="161"/>
     </row>
     <row r="71" spans="1:4" s="2" customFormat="1" ht="15">
-      <c r="A71" s="170" t="s">
-        <v>4</v>
-      </c>
-      <c r="B71" s="171" t="s">
-        <v>110</v>
+      <c r="A71" s="157" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="158" t="s">
+        <v>104</v>
       </c>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
     </row>
     <row r="72" spans="1:4" s="2" customFormat="1" ht="30">
-      <c r="A72" s="172"/>
-      <c r="B72" s="173" t="s">
-        <v>111</v>
+      <c r="A72" s="159"/>
+      <c r="B72" s="160" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="2" customFormat="1" ht="14">
-      <c r="A73" s="172"/>
-      <c r="B73" s="174"/>
+      <c r="A73" s="159"/>
+      <c r="B73" s="161"/>
     </row>
     <row r="74" spans="1:4" ht="14">
-      <c r="A74" s="170" t="s">
-        <v>4</v>
-      </c>
-      <c r="B74" s="175" t="s">
-        <v>112</v>
+      <c r="A74" s="157" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="162" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="30">
-      <c r="A75" s="172"/>
-      <c r="B75" s="156" t="s">
-        <v>113</v>
+      <c r="A75" s="159"/>
+      <c r="B75" s="143" t="s">
+        <v>107</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
     </row>
     <row r="76" spans="1:4" s="2" customFormat="1" ht="14">
-      <c r="A76" s="169"/>
-      <c r="B76" s="169"/>
+      <c r="A76" s="156"/>
+      <c r="B76" s="156"/>
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
     </row>
     <row r="77" spans="1:4" s="2" customFormat="1" ht="14">
-      <c r="A77" s="170" t="s">
-        <v>4</v>
-      </c>
-      <c r="B77" s="175" t="s">
-        <v>114</v>
+      <c r="A77" s="157" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" s="162" t="s">
+        <v>108</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
     </row>
     <row r="78" spans="1:4" s="2" customFormat="1" ht="30">
-      <c r="A78" s="172"/>
-      <c r="B78" s="156" t="s">
+      <c r="A78" s="159"/>
+      <c r="B78" s="143" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="14">
+      <c r="A79" s="156"/>
+      <c r="B79" s="156"/>
+    </row>
+    <row r="80" spans="1:4" ht="14">
+      <c r="A80" s="157" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" s="162" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" s="2" customFormat="1" ht="15">
+      <c r="A81" s="159"/>
+      <c r="B81" s="163" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" s="2" customFormat="1" ht="15">
+      <c r="A82" s="159"/>
+      <c r="B82" s="163" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" s="2" customFormat="1" ht="15">
+      <c r="A83" s="159"/>
+      <c r="B83" s="163" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="14">
+      <c r="A84" s="156"/>
+      <c r="B84" s="164"/>
+    </row>
+    <row r="85" spans="1:4" ht="14">
+      <c r="A85" s="157" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" s="162" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="45">
+      <c r="A86" s="159"/>
+      <c r="B86" s="143" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="14">
-      <c r="A79" s="169"/>
-      <c r="B79" s="169"/>
-    </row>
-    <row r="80" spans="1:4" ht="14">
-      <c r="A80" s="170" t="s">
-        <v>4</v>
-      </c>
-      <c r="B80" s="175" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" s="2" customFormat="1" ht="15">
-      <c r="A81" s="172"/>
-      <c r="B81" s="176" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" s="2" customFormat="1" ht="15">
-      <c r="A82" s="172"/>
-      <c r="B82" s="176" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" s="2" customFormat="1" ht="15">
-      <c r="A83" s="172"/>
-      <c r="B83" s="176" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="14">
-      <c r="A84" s="169"/>
-      <c r="B84" s="177"/>
-    </row>
-    <row r="85" spans="1:4" ht="14">
-      <c r="A85" s="170" t="s">
-        <v>4</v>
-      </c>
-      <c r="B85" s="175" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="45">
-      <c r="A86" s="172"/>
-      <c r="B86" s="156" t="s">
-        <v>121</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
     </row>
     <row r="87" spans="1:4" ht="15">
-      <c r="A87" s="172"/>
-      <c r="B87" s="178" t="s">
-        <v>122</v>
+      <c r="A87" s="159"/>
+      <c r="B87" s="165" t="s">
+        <v>116</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
     </row>
     <row r="88" spans="1:4" ht="45">
-      <c r="A88" s="172"/>
-      <c r="B88" s="179" t="s">
-        <v>123</v>
+      <c r="A88" s="159"/>
+      <c r="B88" s="166" t="s">
+        <v>117</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
     </row>
     <row r="89" spans="1:4" ht="14">
-      <c r="A89" s="169"/>
-      <c r="B89" s="169"/>
+      <c r="A89" s="156"/>
+      <c r="B89" s="156"/>
     </row>
     <row r="90" spans="1:4" ht="14">
-      <c r="A90" s="170" t="s">
-        <v>4</v>
-      </c>
-      <c r="B90" s="180" t="s">
-        <v>124</v>
+      <c r="A90" s="157" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" s="167" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="30">
-      <c r="A91" s="157"/>
-      <c r="B91" s="176" t="s">
-        <v>18</v>
+      <c r="A91" s="144"/>
+      <c r="B91" s="163" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -9456,7 +8865,7 @@
   </sheetPr>
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A76" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -9470,17 +8879,17 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1">
       <c r="A1" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="C4" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="C5" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -9488,149 +8897,149 @@
     </row>
     <row r="7" spans="1:3" ht="18">
       <c r="C7" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="C8" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="C10" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="C11" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18">
       <c r="C13" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16">
       <c r="A16" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="2:2" s="9" customFormat="1"/>
     <row r="18" spans="2:2" ht="14">
       <c r="B18" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="2:2" s="9" customFormat="1" ht="14">
       <c r="B22" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="2:2" s="9" customFormat="1">
       <c r="B23" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="2:2" s="9" customFormat="1">
       <c r="B24" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="2:2" s="9" customFormat="1" ht="14">
       <c r="B26" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="2:2" s="9" customFormat="1">
       <c r="B27" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="2:2" s="9" customFormat="1">
       <c r="B28" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="14">
       <c r="B34" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="13" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="13" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="13" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="14">
       <c r="B39" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="2:2" s="9" customFormat="1" ht="14">
       <c r="B42" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="2:2" s="9" customFormat="1">
       <c r="B43" s="13" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="2:2" s="9" customFormat="1">
       <c r="B44" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="2:2" s="9" customFormat="1"/>
     <row r="46" spans="2:2" ht="18">
       <c r="B46" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -9662,7 +9071,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1">
       <c r="A1" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="31"/>
@@ -9677,14 +9086,14 @@
     <row r="3" spans="1:4" ht="17">
       <c r="A3" s="29"/>
       <c r="B3" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="30"/>
     </row>
     <row r="4" spans="1:4" ht="15">
       <c r="A4" s="7"/>
       <c r="B4" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="8"/>
     </row>
@@ -9696,7 +9105,7 @@
     <row r="6" spans="1:4" ht="17">
       <c r="A6" s="7"/>
       <c r="B6" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="8"/>
     </row>
@@ -9708,7 +9117,7 @@
     <row r="8" spans="1:4" ht="34">
       <c r="A8" s="7"/>
       <c r="B8" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="8"/>
     </row>
@@ -9720,7 +9129,7 @@
     <row r="10" spans="1:4" ht="51">
       <c r="A10" s="7"/>
       <c r="B10" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="8"/>
     </row>
@@ -9732,7 +9141,7 @@
     <row r="12" spans="1:4" ht="51">
       <c r="A12" s="7"/>
       <c r="B12" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="8"/>
     </row>
@@ -9744,7 +9153,7 @@
     <row r="14" spans="1:4" ht="51">
       <c r="A14" s="7"/>
       <c r="B14" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="8"/>
     </row>
@@ -9756,7 +9165,7 @@
     <row r="16" spans="1:4" ht="34">
       <c r="A16" s="7"/>
       <c r="B16" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="8"/>
     </row>
@@ -9768,14 +9177,14 @@
     <row r="18" spans="1:3" ht="17">
       <c r="A18" s="7"/>
       <c r="B18" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:3" ht="17">
       <c r="A19" s="7"/>
       <c r="B19" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="8"/>
     </row>
